--- a/Vendor Analysis Assessment - Deeba.xlsx
+++ b/Vendor Analysis Assessment - Deeba.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -71,8 +71,25 @@
       <b val="1"/>
       <color theme="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000D652D"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00CC6600"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -83,6 +100,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF073763"/>
         <bgColor rgb="FF073763"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F4EA"/>
+        <bgColor rgb="00E6F4EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF4E6"/>
+        <bgColor rgb="00FFF4E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE6E6"/>
+        <bgColor rgb="00FFE6E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -229,6 +270,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +557,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O814"/>
+  <dimension ref="A1:P814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -518,6 +571,7 @@
     <col width="16.38" customWidth="1" style="33" min="3" max="3"/>
     <col width="47" customWidth="1" style="33" min="4" max="4"/>
     <col width="28.25" customWidth="1" style="33" min="5" max="5"/>
+    <col width="25" customWidth="1" style="33" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,6 +610,11 @@
       <c r="M1" s="6" t="n"/>
       <c r="N1" s="6" t="n"/>
       <c r="O1" s="6" t="n"/>
+      <c r="P1" s="34" t="inlineStr">
+        <is>
+          <t>Strategic Recommendation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -583,6 +642,11 @@
       <c r="M2" s="12" t="n"/>
       <c r="N2" s="12" t="n"/>
       <c r="O2" s="12" t="n"/>
+      <c r="P2" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -610,6 +674,11 @@
       <c r="M3" s="12" t="n"/>
       <c r="N3" s="12" t="n"/>
       <c r="O3" s="12" t="n"/>
+      <c r="P3" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -637,6 +706,11 @@
       <c r="M4" s="12" t="n"/>
       <c r="N4" s="12" t="n"/>
       <c r="O4" s="12" t="n"/>
+      <c r="P4" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -664,6 +738,11 @@
       <c r="M5" s="12" t="n"/>
       <c r="N5" s="12" t="n"/>
       <c r="O5" s="12" t="n"/>
+      <c r="P5" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -691,6 +770,11 @@
       <c r="M6" s="12" t="n"/>
       <c r="N6" s="12" t="n"/>
       <c r="O6" s="12" t="n"/>
+      <c r="P6" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -718,6 +802,11 @@
       <c r="M7" s="12" t="n"/>
       <c r="N7" s="12" t="n"/>
       <c r="O7" s="12" t="n"/>
+      <c r="P7" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -745,6 +834,11 @@
       <c r="M8" s="12" t="n"/>
       <c r="N8" s="12" t="n"/>
       <c r="O8" s="12" t="n"/>
+      <c r="P8" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -772,6 +866,11 @@
       <c r="M9" s="12" t="n"/>
       <c r="N9" s="12" t="n"/>
       <c r="O9" s="12" t="n"/>
+      <c r="P9" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -799,6 +898,11 @@
       <c r="M10" s="12" t="n"/>
       <c r="N10" s="12" t="n"/>
       <c r="O10" s="12" t="n"/>
+      <c r="P10" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -826,6 +930,11 @@
       <c r="M11" s="12" t="n"/>
       <c r="N11" s="12" t="n"/>
       <c r="O11" s="12" t="n"/>
+      <c r="P11" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
@@ -853,6 +962,11 @@
       <c r="M12" s="12" t="n"/>
       <c r="N12" s="12" t="n"/>
       <c r="O12" s="12" t="n"/>
+      <c r="P12" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -880,6 +994,11 @@
       <c r="M13" s="12" t="n"/>
       <c r="N13" s="12" t="n"/>
       <c r="O13" s="12" t="n"/>
+      <c r="P13" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -907,6 +1026,11 @@
       <c r="M14" s="12" t="n"/>
       <c r="N14" s="12" t="n"/>
       <c r="O14" s="12" t="n"/>
+      <c r="P14" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -934,6 +1058,11 @@
       <c r="M15" s="12" t="n"/>
       <c r="N15" s="12" t="n"/>
       <c r="O15" s="12" t="n"/>
+      <c r="P15" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
@@ -961,6 +1090,11 @@
       <c r="M16" s="12" t="n"/>
       <c r="N16" s="12" t="n"/>
       <c r="O16" s="12" t="n"/>
+      <c r="P16" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -988,6 +1122,11 @@
       <c r="M17" s="12" t="n"/>
       <c r="N17" s="12" t="n"/>
       <c r="O17" s="12" t="n"/>
+      <c r="P17" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
@@ -1015,6 +1154,11 @@
       <c r="M18" s="12" t="n"/>
       <c r="N18" s="12" t="n"/>
       <c r="O18" s="12" t="n"/>
+      <c r="P18" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
@@ -1042,6 +1186,11 @@
       <c r="M19" s="12" t="n"/>
       <c r="N19" s="12" t="n"/>
       <c r="O19" s="12" t="n"/>
+      <c r="P19" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1069,6 +1218,11 @@
       <c r="M20" s="12" t="n"/>
       <c r="N20" s="12" t="n"/>
       <c r="O20" s="12" t="n"/>
+      <c r="P20" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1096,6 +1250,11 @@
       <c r="M21" s="12" t="n"/>
       <c r="N21" s="12" t="n"/>
       <c r="O21" s="12" t="n"/>
+      <c r="P21" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1123,6 +1282,11 @@
       <c r="M22" s="12" t="n"/>
       <c r="N22" s="12" t="n"/>
       <c r="O22" s="12" t="n"/>
+      <c r="P22" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1150,6 +1314,11 @@
       <c r="M23" s="12" t="n"/>
       <c r="N23" s="12" t="n"/>
       <c r="O23" s="12" t="n"/>
+      <c r="P23" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1177,6 +1346,11 @@
       <c r="M24" s="12" t="n"/>
       <c r="N24" s="12" t="n"/>
       <c r="O24" s="12" t="n"/>
+      <c r="P24" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1204,6 +1378,11 @@
       <c r="M25" s="12" t="n"/>
       <c r="N25" s="12" t="n"/>
       <c r="O25" s="12" t="n"/>
+      <c r="P25" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1231,6 +1410,11 @@
       <c r="M26" s="12" t="n"/>
       <c r="N26" s="12" t="n"/>
       <c r="O26" s="12" t="n"/>
+      <c r="P26" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1258,6 +1442,11 @@
       <c r="M27" s="12" t="n"/>
       <c r="N27" s="12" t="n"/>
       <c r="O27" s="12" t="n"/>
+      <c r="P27" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1285,6 +1474,11 @@
       <c r="M28" s="12" t="n"/>
       <c r="N28" s="12" t="n"/>
       <c r="O28" s="12" t="n"/>
+      <c r="P28" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1312,6 +1506,11 @@
       <c r="M29" s="12" t="n"/>
       <c r="N29" s="12" t="n"/>
       <c r="O29" s="12" t="n"/>
+      <c r="P29" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -1339,6 +1538,11 @@
       <c r="M30" s="12" t="n"/>
       <c r="N30" s="12" t="n"/>
       <c r="O30" s="12" t="n"/>
+      <c r="P30" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -1366,6 +1570,11 @@
       <c r="M31" s="12" t="n"/>
       <c r="N31" s="12" t="n"/>
       <c r="O31" s="12" t="n"/>
+      <c r="P31" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -1393,6 +1602,11 @@
       <c r="M32" s="12" t="n"/>
       <c r="N32" s="12" t="n"/>
       <c r="O32" s="12" t="n"/>
+      <c r="P32" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -1420,6 +1634,11 @@
       <c r="M33" s="12" t="n"/>
       <c r="N33" s="12" t="n"/>
       <c r="O33" s="12" t="n"/>
+      <c r="P33" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -1447,6 +1666,11 @@
       <c r="M34" s="12" t="n"/>
       <c r="N34" s="12" t="n"/>
       <c r="O34" s="12" t="n"/>
+      <c r="P34" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -1474,6 +1698,11 @@
       <c r="M35" s="12" t="n"/>
       <c r="N35" s="12" t="n"/>
       <c r="O35" s="12" t="n"/>
+      <c r="P35" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
@@ -1501,6 +1730,11 @@
       <c r="M36" s="12" t="n"/>
       <c r="N36" s="12" t="n"/>
       <c r="O36" s="12" t="n"/>
+      <c r="P36" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
@@ -1528,6 +1762,11 @@
       <c r="M37" s="12" t="n"/>
       <c r="N37" s="12" t="n"/>
       <c r="O37" s="12" t="n"/>
+      <c r="P37" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="inlineStr">
@@ -1555,6 +1794,11 @@
       <c r="M38" s="12" t="n"/>
       <c r="N38" s="12" t="n"/>
       <c r="O38" s="12" t="n"/>
+      <c r="P38" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="inlineStr">
@@ -1582,6 +1826,11 @@
       <c r="M39" s="12" t="n"/>
       <c r="N39" s="12" t="n"/>
       <c r="O39" s="12" t="n"/>
+      <c r="P39" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="inlineStr">
@@ -1609,6 +1858,11 @@
       <c r="M40" s="12" t="n"/>
       <c r="N40" s="12" t="n"/>
       <c r="O40" s="12" t="n"/>
+      <c r="P40" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="inlineStr">
@@ -1636,6 +1890,11 @@
       <c r="M41" s="12" t="n"/>
       <c r="N41" s="12" t="n"/>
       <c r="O41" s="12" t="n"/>
+      <c r="P41" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="inlineStr">
@@ -1663,6 +1922,11 @@
       <c r="M42" s="12" t="n"/>
       <c r="N42" s="12" t="n"/>
       <c r="O42" s="12" t="n"/>
+      <c r="P42" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="inlineStr">
@@ -1690,6 +1954,11 @@
       <c r="M43" s="12" t="n"/>
       <c r="N43" s="12" t="n"/>
       <c r="O43" s="12" t="n"/>
+      <c r="P43" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="inlineStr">
@@ -1717,6 +1986,11 @@
       <c r="M44" s="12" t="n"/>
       <c r="N44" s="12" t="n"/>
       <c r="O44" s="12" t="n"/>
+      <c r="P44" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="inlineStr">
@@ -1744,6 +2018,11 @@
       <c r="M45" s="12" t="n"/>
       <c r="N45" s="12" t="n"/>
       <c r="O45" s="12" t="n"/>
+      <c r="P45" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="inlineStr">
@@ -1771,6 +2050,11 @@
       <c r="M46" s="12" t="n"/>
       <c r="N46" s="12" t="n"/>
       <c r="O46" s="12" t="n"/>
+      <c r="P46" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="inlineStr">
@@ -1798,6 +2082,11 @@
       <c r="M47" s="12" t="n"/>
       <c r="N47" s="12" t="n"/>
       <c r="O47" s="12" t="n"/>
+      <c r="P47" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="inlineStr">
@@ -1825,6 +2114,11 @@
       <c r="M48" s="12" t="n"/>
       <c r="N48" s="12" t="n"/>
       <c r="O48" s="12" t="n"/>
+      <c r="P48" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="inlineStr">
@@ -1852,6 +2146,11 @@
       <c r="M49" s="12" t="n"/>
       <c r="N49" s="12" t="n"/>
       <c r="O49" s="12" t="n"/>
+      <c r="P49" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="inlineStr">
@@ -1879,6 +2178,11 @@
       <c r="M50" s="12" t="n"/>
       <c r="N50" s="12" t="n"/>
       <c r="O50" s="12" t="n"/>
+      <c r="P50" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="inlineStr">
@@ -1906,6 +2210,11 @@
       <c r="M51" s="12" t="n"/>
       <c r="N51" s="12" t="n"/>
       <c r="O51" s="12" t="n"/>
+      <c r="P51" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="inlineStr">
@@ -1933,6 +2242,11 @@
       <c r="M52" s="12" t="n"/>
       <c r="N52" s="12" t="n"/>
       <c r="O52" s="12" t="n"/>
+      <c r="P52" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="inlineStr">
@@ -1960,6 +2274,11 @@
       <c r="M53" s="12" t="n"/>
       <c r="N53" s="12" t="n"/>
       <c r="O53" s="12" t="n"/>
+      <c r="P53" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="inlineStr">
@@ -1987,6 +2306,11 @@
       <c r="M54" s="12" t="n"/>
       <c r="N54" s="12" t="n"/>
       <c r="O54" s="12" t="n"/>
+      <c r="P54" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
@@ -2014,6 +2338,11 @@
       <c r="M55" s="12" t="n"/>
       <c r="N55" s="12" t="n"/>
       <c r="O55" s="12" t="n"/>
+      <c r="P55" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="inlineStr">
@@ -2041,6 +2370,11 @@
       <c r="M56" s="12" t="n"/>
       <c r="N56" s="12" t="n"/>
       <c r="O56" s="12" t="n"/>
+      <c r="P56" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
@@ -2068,6 +2402,11 @@
       <c r="M57" s="12" t="n"/>
       <c r="N57" s="12" t="n"/>
       <c r="O57" s="12" t="n"/>
+      <c r="P57" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="inlineStr">
@@ -2095,6 +2434,11 @@
       <c r="M58" s="12" t="n"/>
       <c r="N58" s="12" t="n"/>
       <c r="O58" s="12" t="n"/>
+      <c r="P58" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
@@ -2122,6 +2466,11 @@
       <c r="M59" s="12" t="n"/>
       <c r="N59" s="12" t="n"/>
       <c r="O59" s="12" t="n"/>
+      <c r="P59" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="inlineStr">
@@ -2149,6 +2498,11 @@
       <c r="M60" s="12" t="n"/>
       <c r="N60" s="12" t="n"/>
       <c r="O60" s="12" t="n"/>
+      <c r="P60" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="inlineStr">
@@ -2176,6 +2530,11 @@
       <c r="M61" s="12" t="n"/>
       <c r="N61" s="12" t="n"/>
       <c r="O61" s="12" t="n"/>
+      <c r="P61" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="inlineStr">
@@ -2203,6 +2562,11 @@
       <c r="M62" s="12" t="n"/>
       <c r="N62" s="12" t="n"/>
       <c r="O62" s="12" t="n"/>
+      <c r="P62" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="inlineStr">
@@ -2230,6 +2594,11 @@
       <c r="M63" s="12" t="n"/>
       <c r="N63" s="12" t="n"/>
       <c r="O63" s="12" t="n"/>
+      <c r="P63" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="inlineStr">
@@ -2257,6 +2626,11 @@
       <c r="M64" s="12" t="n"/>
       <c r="N64" s="12" t="n"/>
       <c r="O64" s="12" t="n"/>
+      <c r="P64" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
@@ -2284,6 +2658,11 @@
       <c r="M65" s="12" t="n"/>
       <c r="N65" s="12" t="n"/>
       <c r="O65" s="12" t="n"/>
+      <c r="P65" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="inlineStr">
@@ -2311,6 +2690,11 @@
       <c r="M66" s="12" t="n"/>
       <c r="N66" s="12" t="n"/>
       <c r="O66" s="12" t="n"/>
+      <c r="P66" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="inlineStr">
@@ -2338,6 +2722,11 @@
       <c r="M67" s="12" t="n"/>
       <c r="N67" s="12" t="n"/>
       <c r="O67" s="12" t="n"/>
+      <c r="P67" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="inlineStr">
@@ -2365,6 +2754,11 @@
       <c r="M68" s="12" t="n"/>
       <c r="N68" s="12" t="n"/>
       <c r="O68" s="12" t="n"/>
+      <c r="P68" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="inlineStr">
@@ -2392,6 +2786,11 @@
       <c r="M69" s="12" t="n"/>
       <c r="N69" s="12" t="n"/>
       <c r="O69" s="12" t="n"/>
+      <c r="P69" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="inlineStr">
@@ -2419,6 +2818,11 @@
       <c r="M70" s="12" t="n"/>
       <c r="N70" s="12" t="n"/>
       <c r="O70" s="12" t="n"/>
+      <c r="P70" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
@@ -2446,6 +2850,11 @@
       <c r="M71" s="12" t="n"/>
       <c r="N71" s="12" t="n"/>
       <c r="O71" s="12" t="n"/>
+      <c r="P71" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="inlineStr">
@@ -2473,6 +2882,11 @@
       <c r="M72" s="12" t="n"/>
       <c r="N72" s="12" t="n"/>
       <c r="O72" s="12" t="n"/>
+      <c r="P72" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
@@ -2500,6 +2914,11 @@
       <c r="M73" s="12" t="n"/>
       <c r="N73" s="12" t="n"/>
       <c r="O73" s="12" t="n"/>
+      <c r="P73" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
@@ -2527,6 +2946,11 @@
       <c r="M74" s="12" t="n"/>
       <c r="N74" s="12" t="n"/>
       <c r="O74" s="12" t="n"/>
+      <c r="P74" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
@@ -2554,6 +2978,11 @@
       <c r="M75" s="12" t="n"/>
       <c r="N75" s="12" t="n"/>
       <c r="O75" s="12" t="n"/>
+      <c r="P75" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
@@ -2581,6 +3010,11 @@
       <c r="M76" s="12" t="n"/>
       <c r="N76" s="12" t="n"/>
       <c r="O76" s="12" t="n"/>
+      <c r="P76" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
@@ -2608,6 +3042,11 @@
       <c r="M77" s="12" t="n"/>
       <c r="N77" s="12" t="n"/>
       <c r="O77" s="12" t="n"/>
+      <c r="P77" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
@@ -2635,6 +3074,11 @@
       <c r="M78" s="12" t="n"/>
       <c r="N78" s="12" t="n"/>
       <c r="O78" s="12" t="n"/>
+      <c r="P78" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
@@ -2662,6 +3106,11 @@
       <c r="M79" s="12" t="n"/>
       <c r="N79" s="12" t="n"/>
       <c r="O79" s="12" t="n"/>
+      <c r="P79" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
@@ -2689,6 +3138,11 @@
       <c r="M80" s="12" t="n"/>
       <c r="N80" s="12" t="n"/>
       <c r="O80" s="12" t="n"/>
+      <c r="P80" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
@@ -2716,6 +3170,11 @@
       <c r="M81" s="12" t="n"/>
       <c r="N81" s="12" t="n"/>
       <c r="O81" s="12" t="n"/>
+      <c r="P81" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
@@ -2743,6 +3202,11 @@
       <c r="M82" s="12" t="n"/>
       <c r="N82" s="12" t="n"/>
       <c r="O82" s="12" t="n"/>
+      <c r="P82" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
@@ -2770,6 +3234,11 @@
       <c r="M83" s="12" t="n"/>
       <c r="N83" s="12" t="n"/>
       <c r="O83" s="12" t="n"/>
+      <c r="P83" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
@@ -2797,6 +3266,11 @@
       <c r="M84" s="12" t="n"/>
       <c r="N84" s="12" t="n"/>
       <c r="O84" s="12" t="n"/>
+      <c r="P84" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
@@ -2824,6 +3298,11 @@
       <c r="M85" s="12" t="n"/>
       <c r="N85" s="12" t="n"/>
       <c r="O85" s="12" t="n"/>
+      <c r="P85" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
@@ -2851,6 +3330,11 @@
       <c r="M86" s="12" t="n"/>
       <c r="N86" s="12" t="n"/>
       <c r="O86" s="12" t="n"/>
+      <c r="P86" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
@@ -2878,6 +3362,11 @@
       <c r="M87" s="12" t="n"/>
       <c r="N87" s="12" t="n"/>
       <c r="O87" s="12" t="n"/>
+      <c r="P87" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
@@ -2905,6 +3394,11 @@
       <c r="M88" s="12" t="n"/>
       <c r="N88" s="12" t="n"/>
       <c r="O88" s="12" t="n"/>
+      <c r="P88" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
@@ -2932,6 +3426,11 @@
       <c r="M89" s="12" t="n"/>
       <c r="N89" s="12" t="n"/>
       <c r="O89" s="12" t="n"/>
+      <c r="P89" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
@@ -2959,6 +3458,11 @@
       <c r="M90" s="12" t="n"/>
       <c r="N90" s="12" t="n"/>
       <c r="O90" s="12" t="n"/>
+      <c r="P90" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
@@ -2986,6 +3490,11 @@
       <c r="M91" s="12" t="n"/>
       <c r="N91" s="12" t="n"/>
       <c r="O91" s="12" t="n"/>
+      <c r="P91" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
@@ -3013,6 +3522,11 @@
       <c r="M92" s="12" t="n"/>
       <c r="N92" s="12" t="n"/>
       <c r="O92" s="12" t="n"/>
+      <c r="P92" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
@@ -3040,6 +3554,11 @@
       <c r="M93" s="12" t="n"/>
       <c r="N93" s="12" t="n"/>
       <c r="O93" s="12" t="n"/>
+      <c r="P93" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
@@ -3067,6 +3586,11 @@
       <c r="M94" s="12" t="n"/>
       <c r="N94" s="12" t="n"/>
       <c r="O94" s="12" t="n"/>
+      <c r="P94" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
@@ -3094,6 +3618,11 @@
       <c r="M95" s="12" t="n"/>
       <c r="N95" s="12" t="n"/>
       <c r="O95" s="12" t="n"/>
+      <c r="P95" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
@@ -3121,6 +3650,11 @@
       <c r="M96" s="12" t="n"/>
       <c r="N96" s="12" t="n"/>
       <c r="O96" s="12" t="n"/>
+      <c r="P96" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
@@ -3148,6 +3682,11 @@
       <c r="M97" s="12" t="n"/>
       <c r="N97" s="12" t="n"/>
       <c r="O97" s="12" t="n"/>
+      <c r="P97" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
@@ -3175,6 +3714,11 @@
       <c r="M98" s="12" t="n"/>
       <c r="N98" s="12" t="n"/>
       <c r="O98" s="12" t="n"/>
+      <c r="P98" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
@@ -3202,6 +3746,11 @@
       <c r="M99" s="12" t="n"/>
       <c r="N99" s="12" t="n"/>
       <c r="O99" s="12" t="n"/>
+      <c r="P99" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
@@ -3229,6 +3778,11 @@
       <c r="M100" s="12" t="n"/>
       <c r="N100" s="12" t="n"/>
       <c r="O100" s="12" t="n"/>
+      <c r="P100" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
@@ -3256,6 +3810,11 @@
       <c r="M101" s="12" t="n"/>
       <c r="N101" s="12" t="n"/>
       <c r="O101" s="12" t="n"/>
+      <c r="P101" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="inlineStr">
@@ -3283,6 +3842,11 @@
       <c r="M102" s="12" t="n"/>
       <c r="N102" s="12" t="n"/>
       <c r="O102" s="12" t="n"/>
+      <c r="P102" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="inlineStr">
@@ -3310,6 +3874,11 @@
       <c r="M103" s="12" t="n"/>
       <c r="N103" s="12" t="n"/>
       <c r="O103" s="12" t="n"/>
+      <c r="P103" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="inlineStr">
@@ -3337,6 +3906,11 @@
       <c r="M104" s="12" t="n"/>
       <c r="N104" s="12" t="n"/>
       <c r="O104" s="12" t="n"/>
+      <c r="P104" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
@@ -3364,6 +3938,11 @@
       <c r="M105" s="12" t="n"/>
       <c r="N105" s="12" t="n"/>
       <c r="O105" s="12" t="n"/>
+      <c r="P105" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="inlineStr">
@@ -3391,6 +3970,11 @@
       <c r="M106" s="12" t="n"/>
       <c r="N106" s="12" t="n"/>
       <c r="O106" s="12" t="n"/>
+      <c r="P106" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
@@ -3418,6 +4002,11 @@
       <c r="M107" s="12" t="n"/>
       <c r="N107" s="12" t="n"/>
       <c r="O107" s="12" t="n"/>
+      <c r="P107" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="inlineStr">
@@ -3445,6 +4034,11 @@
       <c r="M108" s="12" t="n"/>
       <c r="N108" s="12" t="n"/>
       <c r="O108" s="12" t="n"/>
+      <c r="P108" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="inlineStr">
@@ -3472,6 +4066,11 @@
       <c r="M109" s="12" t="n"/>
       <c r="N109" s="12" t="n"/>
       <c r="O109" s="12" t="n"/>
+      <c r="P109" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="inlineStr">
@@ -3499,6 +4098,11 @@
       <c r="M110" s="12" t="n"/>
       <c r="N110" s="12" t="n"/>
       <c r="O110" s="12" t="n"/>
+      <c r="P110" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="inlineStr">
@@ -3526,6 +4130,11 @@
       <c r="M111" s="12" t="n"/>
       <c r="N111" s="12" t="n"/>
       <c r="O111" s="12" t="n"/>
+      <c r="P111" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="inlineStr">
@@ -3553,6 +4162,11 @@
       <c r="M112" s="12" t="n"/>
       <c r="N112" s="12" t="n"/>
       <c r="O112" s="12" t="n"/>
+      <c r="P112" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="inlineStr">
@@ -3580,6 +4194,11 @@
       <c r="M113" s="12" t="n"/>
       <c r="N113" s="12" t="n"/>
       <c r="O113" s="12" t="n"/>
+      <c r="P113" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="inlineStr">
@@ -3607,6 +4226,11 @@
       <c r="M114" s="12" t="n"/>
       <c r="N114" s="12" t="n"/>
       <c r="O114" s="12" t="n"/>
+      <c r="P114" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="inlineStr">
@@ -3634,6 +4258,11 @@
       <c r="M115" s="12" t="n"/>
       <c r="N115" s="12" t="n"/>
       <c r="O115" s="12" t="n"/>
+      <c r="P115" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr">
@@ -3661,6 +4290,11 @@
       <c r="M116" s="12" t="n"/>
       <c r="N116" s="12" t="n"/>
       <c r="O116" s="12" t="n"/>
+      <c r="P116" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="inlineStr">
@@ -3688,6 +4322,11 @@
       <c r="M117" s="12" t="n"/>
       <c r="N117" s="12" t="n"/>
       <c r="O117" s="12" t="n"/>
+      <c r="P117" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="inlineStr">
@@ -3715,6 +4354,11 @@
       <c r="M118" s="12" t="n"/>
       <c r="N118" s="12" t="n"/>
       <c r="O118" s="12" t="n"/>
+      <c r="P118" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="inlineStr">
@@ -3742,6 +4386,11 @@
       <c r="M119" s="12" t="n"/>
       <c r="N119" s="12" t="n"/>
       <c r="O119" s="12" t="n"/>
+      <c r="P119" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="inlineStr">
@@ -3769,6 +4418,11 @@
       <c r="M120" s="12" t="n"/>
       <c r="N120" s="12" t="n"/>
       <c r="O120" s="12" t="n"/>
+      <c r="P120" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="inlineStr">
@@ -3796,6 +4450,11 @@
       <c r="M121" s="12" t="n"/>
       <c r="N121" s="12" t="n"/>
       <c r="O121" s="12" t="n"/>
+      <c r="P121" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="inlineStr">
@@ -3823,6 +4482,11 @@
       <c r="M122" s="12" t="n"/>
       <c r="N122" s="12" t="n"/>
       <c r="O122" s="12" t="n"/>
+      <c r="P122" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="inlineStr">
@@ -3850,6 +4514,11 @@
       <c r="M123" s="12" t="n"/>
       <c r="N123" s="12" t="n"/>
       <c r="O123" s="12" t="n"/>
+      <c r="P123" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="inlineStr">
@@ -3877,6 +4546,11 @@
       <c r="M124" s="12" t="n"/>
       <c r="N124" s="12" t="n"/>
       <c r="O124" s="12" t="n"/>
+      <c r="P124" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="inlineStr">
@@ -3904,6 +4578,11 @@
       <c r="M125" s="12" t="n"/>
       <c r="N125" s="12" t="n"/>
       <c r="O125" s="12" t="n"/>
+      <c r="P125" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="inlineStr">
@@ -3931,6 +4610,11 @@
       <c r="M126" s="12" t="n"/>
       <c r="N126" s="12" t="n"/>
       <c r="O126" s="12" t="n"/>
+      <c r="P126" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="inlineStr">
@@ -3958,6 +4642,11 @@
       <c r="M127" s="12" t="n"/>
       <c r="N127" s="12" t="n"/>
       <c r="O127" s="12" t="n"/>
+      <c r="P127" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="inlineStr">
@@ -3985,6 +4674,11 @@
       <c r="M128" s="12" t="n"/>
       <c r="N128" s="12" t="n"/>
       <c r="O128" s="12" t="n"/>
+      <c r="P128" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
@@ -4012,6 +4706,11 @@
       <c r="M129" s="12" t="n"/>
       <c r="N129" s="12" t="n"/>
       <c r="O129" s="12" t="n"/>
+      <c r="P129" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="inlineStr">
@@ -4039,6 +4738,11 @@
       <c r="M130" s="12" t="n"/>
       <c r="N130" s="12" t="n"/>
       <c r="O130" s="12" t="n"/>
+      <c r="P130" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
@@ -4066,6 +4770,11 @@
       <c r="M131" s="12" t="n"/>
       <c r="N131" s="12" t="n"/>
       <c r="O131" s="12" t="n"/>
+      <c r="P131" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
@@ -4093,6 +4802,11 @@
       <c r="M132" s="12" t="n"/>
       <c r="N132" s="12" t="n"/>
       <c r="O132" s="12" t="n"/>
+      <c r="P132" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
@@ -4120,6 +4834,11 @@
       <c r="M133" s="12" t="n"/>
       <c r="N133" s="12" t="n"/>
       <c r="O133" s="12" t="n"/>
+      <c r="P133" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="inlineStr">
@@ -4147,6 +4866,11 @@
       <c r="M134" s="12" t="n"/>
       <c r="N134" s="12" t="n"/>
       <c r="O134" s="12" t="n"/>
+      <c r="P134" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
@@ -4174,6 +4898,11 @@
       <c r="M135" s="12" t="n"/>
       <c r="N135" s="12" t="n"/>
       <c r="O135" s="12" t="n"/>
+      <c r="P135" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="inlineStr">
@@ -4201,6 +4930,11 @@
       <c r="M136" s="12" t="n"/>
       <c r="N136" s="12" t="n"/>
       <c r="O136" s="12" t="n"/>
+      <c r="P136" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="inlineStr">
@@ -4228,6 +4962,11 @@
       <c r="M137" s="12" t="n"/>
       <c r="N137" s="12" t="n"/>
       <c r="O137" s="12" t="n"/>
+      <c r="P137" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="inlineStr">
@@ -4255,6 +4994,11 @@
       <c r="M138" s="12" t="n"/>
       <c r="N138" s="12" t="n"/>
       <c r="O138" s="12" t="n"/>
+      <c r="P138" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="inlineStr">
@@ -4282,6 +5026,11 @@
       <c r="M139" s="12" t="n"/>
       <c r="N139" s="12" t="n"/>
       <c r="O139" s="12" t="n"/>
+      <c r="P139" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="inlineStr">
@@ -4309,6 +5058,11 @@
       <c r="M140" s="12" t="n"/>
       <c r="N140" s="12" t="n"/>
       <c r="O140" s="12" t="n"/>
+      <c r="P140" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="inlineStr">
@@ -4336,6 +5090,11 @@
       <c r="M141" s="12" t="n"/>
       <c r="N141" s="12" t="n"/>
       <c r="O141" s="12" t="n"/>
+      <c r="P141" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="inlineStr">
@@ -4363,6 +5122,11 @@
       <c r="M142" s="12" t="n"/>
       <c r="N142" s="12" t="n"/>
       <c r="O142" s="12" t="n"/>
+      <c r="P142" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="inlineStr">
@@ -4390,6 +5154,11 @@
       <c r="M143" s="12" t="n"/>
       <c r="N143" s="12" t="n"/>
       <c r="O143" s="12" t="n"/>
+      <c r="P143" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="inlineStr">
@@ -4417,6 +5186,11 @@
       <c r="M144" s="12" t="n"/>
       <c r="N144" s="12" t="n"/>
       <c r="O144" s="12" t="n"/>
+      <c r="P144" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="inlineStr">
@@ -4444,6 +5218,11 @@
       <c r="M145" s="12" t="n"/>
       <c r="N145" s="12" t="n"/>
       <c r="O145" s="12" t="n"/>
+      <c r="P145" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="inlineStr">
@@ -4471,6 +5250,11 @@
       <c r="M146" s="12" t="n"/>
       <c r="N146" s="12" t="n"/>
       <c r="O146" s="12" t="n"/>
+      <c r="P146" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="inlineStr">
@@ -4498,6 +5282,11 @@
       <c r="M147" s="12" t="n"/>
       <c r="N147" s="12" t="n"/>
       <c r="O147" s="12" t="n"/>
+      <c r="P147" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="inlineStr">
@@ -4525,6 +5314,11 @@
       <c r="M148" s="12" t="n"/>
       <c r="N148" s="12" t="n"/>
       <c r="O148" s="12" t="n"/>
+      <c r="P148" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="inlineStr">
@@ -4552,6 +5346,11 @@
       <c r="M149" s="12" t="n"/>
       <c r="N149" s="12" t="n"/>
       <c r="O149" s="12" t="n"/>
+      <c r="P149" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="inlineStr">
@@ -4579,6 +5378,11 @@
       <c r="M150" s="12" t="n"/>
       <c r="N150" s="12" t="n"/>
       <c r="O150" s="12" t="n"/>
+      <c r="P150" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="inlineStr">
@@ -4606,6 +5410,11 @@
       <c r="M151" s="12" t="n"/>
       <c r="N151" s="12" t="n"/>
       <c r="O151" s="12" t="n"/>
+      <c r="P151" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="inlineStr">
@@ -4633,6 +5442,11 @@
       <c r="M152" s="12" t="n"/>
       <c r="N152" s="12" t="n"/>
       <c r="O152" s="12" t="n"/>
+      <c r="P152" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="inlineStr">
@@ -4660,6 +5474,11 @@
       <c r="M153" s="12" t="n"/>
       <c r="N153" s="12" t="n"/>
       <c r="O153" s="12" t="n"/>
+      <c r="P153" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="inlineStr">
@@ -4687,6 +5506,11 @@
       <c r="M154" s="12" t="n"/>
       <c r="N154" s="12" t="n"/>
       <c r="O154" s="12" t="n"/>
+      <c r="P154" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="inlineStr">
@@ -4714,6 +5538,11 @@
       <c r="M155" s="12" t="n"/>
       <c r="N155" s="12" t="n"/>
       <c r="O155" s="12" t="n"/>
+      <c r="P155" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="inlineStr">
@@ -4741,6 +5570,11 @@
       <c r="M156" s="12" t="n"/>
       <c r="N156" s="12" t="n"/>
       <c r="O156" s="12" t="n"/>
+      <c r="P156" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="inlineStr">
@@ -4768,6 +5602,11 @@
       <c r="M157" s="12" t="n"/>
       <c r="N157" s="12" t="n"/>
       <c r="O157" s="12" t="n"/>
+      <c r="P157" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="inlineStr">
@@ -4795,6 +5634,11 @@
       <c r="M158" s="12" t="n"/>
       <c r="N158" s="12" t="n"/>
       <c r="O158" s="12" t="n"/>
+      <c r="P158" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="inlineStr">
@@ -4822,6 +5666,11 @@
       <c r="M159" s="12" t="n"/>
       <c r="N159" s="12" t="n"/>
       <c r="O159" s="12" t="n"/>
+      <c r="P159" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="inlineStr">
@@ -4849,6 +5698,11 @@
       <c r="M160" s="12" t="n"/>
       <c r="N160" s="12" t="n"/>
       <c r="O160" s="12" t="n"/>
+      <c r="P160" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="inlineStr">
@@ -4876,6 +5730,11 @@
       <c r="M161" s="12" t="n"/>
       <c r="N161" s="12" t="n"/>
       <c r="O161" s="12" t="n"/>
+      <c r="P161" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="inlineStr">
@@ -4903,6 +5762,11 @@
       <c r="M162" s="12" t="n"/>
       <c r="N162" s="12" t="n"/>
       <c r="O162" s="12" t="n"/>
+      <c r="P162" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="inlineStr">
@@ -4930,6 +5794,11 @@
       <c r="M163" s="12" t="n"/>
       <c r="N163" s="12" t="n"/>
       <c r="O163" s="12" t="n"/>
+      <c r="P163" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="inlineStr">
@@ -4957,6 +5826,11 @@
       <c r="M164" s="12" t="n"/>
       <c r="N164" s="12" t="n"/>
       <c r="O164" s="12" t="n"/>
+      <c r="P164" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="inlineStr">
@@ -4984,6 +5858,11 @@
       <c r="M165" s="12" t="n"/>
       <c r="N165" s="12" t="n"/>
       <c r="O165" s="12" t="n"/>
+      <c r="P165" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="inlineStr">
@@ -5011,6 +5890,11 @@
       <c r="M166" s="12" t="n"/>
       <c r="N166" s="12" t="n"/>
       <c r="O166" s="12" t="n"/>
+      <c r="P166" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="inlineStr">
@@ -5038,6 +5922,11 @@
       <c r="M167" s="12" t="n"/>
       <c r="N167" s="12" t="n"/>
       <c r="O167" s="12" t="n"/>
+      <c r="P167" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="inlineStr">
@@ -5065,6 +5954,11 @@
       <c r="M168" s="12" t="n"/>
       <c r="N168" s="12" t="n"/>
       <c r="O168" s="12" t="n"/>
+      <c r="P168" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="inlineStr">
@@ -5092,6 +5986,11 @@
       <c r="M169" s="12" t="n"/>
       <c r="N169" s="12" t="n"/>
       <c r="O169" s="12" t="n"/>
+      <c r="P169" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="inlineStr">
@@ -5119,6 +6018,11 @@
       <c r="M170" s="12" t="n"/>
       <c r="N170" s="12" t="n"/>
       <c r="O170" s="12" t="n"/>
+      <c r="P170" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="inlineStr">
@@ -5146,6 +6050,11 @@
       <c r="M171" s="12" t="n"/>
       <c r="N171" s="12" t="n"/>
       <c r="O171" s="12" t="n"/>
+      <c r="P171" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="inlineStr">
@@ -5173,6 +6082,11 @@
       <c r="M172" s="12" t="n"/>
       <c r="N172" s="12" t="n"/>
       <c r="O172" s="12" t="n"/>
+      <c r="P172" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="inlineStr">
@@ -5200,6 +6114,11 @@
       <c r="M173" s="12" t="n"/>
       <c r="N173" s="12" t="n"/>
       <c r="O173" s="12" t="n"/>
+      <c r="P173" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="inlineStr">
@@ -5227,6 +6146,11 @@
       <c r="M174" s="12" t="n"/>
       <c r="N174" s="12" t="n"/>
       <c r="O174" s="12" t="n"/>
+      <c r="P174" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="inlineStr">
@@ -5254,6 +6178,11 @@
       <c r="M175" s="12" t="n"/>
       <c r="N175" s="12" t="n"/>
       <c r="O175" s="12" t="n"/>
+      <c r="P175" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="inlineStr">
@@ -5281,6 +6210,11 @@
       <c r="M176" s="12" t="n"/>
       <c r="N176" s="12" t="n"/>
       <c r="O176" s="12" t="n"/>
+      <c r="P176" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="inlineStr">
@@ -5308,6 +6242,11 @@
       <c r="M177" s="12" t="n"/>
       <c r="N177" s="12" t="n"/>
       <c r="O177" s="12" t="n"/>
+      <c r="P177" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="inlineStr">
@@ -5335,6 +6274,11 @@
       <c r="M178" s="12" t="n"/>
       <c r="N178" s="12" t="n"/>
       <c r="O178" s="12" t="n"/>
+      <c r="P178" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="inlineStr">
@@ -5362,6 +6306,11 @@
       <c r="M179" s="12" t="n"/>
       <c r="N179" s="12" t="n"/>
       <c r="O179" s="12" t="n"/>
+      <c r="P179" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="inlineStr">
@@ -5389,6 +6338,11 @@
       <c r="M180" s="12" t="n"/>
       <c r="N180" s="12" t="n"/>
       <c r="O180" s="12" t="n"/>
+      <c r="P180" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="inlineStr">
@@ -5416,6 +6370,11 @@
       <c r="M181" s="12" t="n"/>
       <c r="N181" s="12" t="n"/>
       <c r="O181" s="12" t="n"/>
+      <c r="P181" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="inlineStr">
@@ -5443,6 +6402,11 @@
       <c r="M182" s="12" t="n"/>
       <c r="N182" s="12" t="n"/>
       <c r="O182" s="12" t="n"/>
+      <c r="P182" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="inlineStr">
@@ -5470,6 +6434,11 @@
       <c r="M183" s="12" t="n"/>
       <c r="N183" s="12" t="n"/>
       <c r="O183" s="12" t="n"/>
+      <c r="P183" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="inlineStr">
@@ -5497,6 +6466,11 @@
       <c r="M184" s="12" t="n"/>
       <c r="N184" s="12" t="n"/>
       <c r="O184" s="12" t="n"/>
+      <c r="P184" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="7" t="inlineStr">
@@ -5524,6 +6498,11 @@
       <c r="M185" s="12" t="n"/>
       <c r="N185" s="12" t="n"/>
       <c r="O185" s="12" t="n"/>
+      <c r="P185" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="inlineStr">
@@ -5551,6 +6530,11 @@
       <c r="M186" s="12" t="n"/>
       <c r="N186" s="12" t="n"/>
       <c r="O186" s="12" t="n"/>
+      <c r="P186" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="7" t="inlineStr">
@@ -5578,6 +6562,11 @@
       <c r="M187" s="12" t="n"/>
       <c r="N187" s="12" t="n"/>
       <c r="O187" s="12" t="n"/>
+      <c r="P187" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="inlineStr">
@@ -5605,6 +6594,11 @@
       <c r="M188" s="12" t="n"/>
       <c r="N188" s="12" t="n"/>
       <c r="O188" s="12" t="n"/>
+      <c r="P188" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="inlineStr">
@@ -5632,6 +6626,11 @@
       <c r="M189" s="12" t="n"/>
       <c r="N189" s="12" t="n"/>
       <c r="O189" s="12" t="n"/>
+      <c r="P189" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="7" t="inlineStr">
@@ -5659,6 +6658,11 @@
       <c r="M190" s="12" t="n"/>
       <c r="N190" s="12" t="n"/>
       <c r="O190" s="12" t="n"/>
+      <c r="P190" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="7" t="inlineStr">
@@ -5686,6 +6690,11 @@
       <c r="M191" s="12" t="n"/>
       <c r="N191" s="12" t="n"/>
       <c r="O191" s="12" t="n"/>
+      <c r="P191" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="7" t="inlineStr">
@@ -5713,6 +6722,11 @@
       <c r="M192" s="12" t="n"/>
       <c r="N192" s="12" t="n"/>
       <c r="O192" s="12" t="n"/>
+      <c r="P192" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="7" t="inlineStr">
@@ -5740,6 +6754,11 @@
       <c r="M193" s="12" t="n"/>
       <c r="N193" s="12" t="n"/>
       <c r="O193" s="12" t="n"/>
+      <c r="P193" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="7" t="inlineStr">
@@ -5767,6 +6786,11 @@
       <c r="M194" s="12" t="n"/>
       <c r="N194" s="12" t="n"/>
       <c r="O194" s="12" t="n"/>
+      <c r="P194" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="7" t="inlineStr">
@@ -5794,6 +6818,11 @@
       <c r="M195" s="12" t="n"/>
       <c r="N195" s="12" t="n"/>
       <c r="O195" s="12" t="n"/>
+      <c r="P195" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="7" t="inlineStr">
@@ -5821,6 +6850,11 @@
       <c r="M196" s="12" t="n"/>
       <c r="N196" s="12" t="n"/>
       <c r="O196" s="12" t="n"/>
+      <c r="P196" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="7" t="inlineStr">
@@ -5848,6 +6882,11 @@
       <c r="M197" s="12" t="n"/>
       <c r="N197" s="12" t="n"/>
       <c r="O197" s="12" t="n"/>
+      <c r="P197" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="7" t="inlineStr">
@@ -5875,6 +6914,11 @@
       <c r="M198" s="12" t="n"/>
       <c r="N198" s="12" t="n"/>
       <c r="O198" s="12" t="n"/>
+      <c r="P198" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="7" t="inlineStr">
@@ -5902,6 +6946,11 @@
       <c r="M199" s="12" t="n"/>
       <c r="N199" s="12" t="n"/>
       <c r="O199" s="12" t="n"/>
+      <c r="P199" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="7" t="inlineStr">
@@ -5929,6 +6978,11 @@
       <c r="M200" s="12" t="n"/>
       <c r="N200" s="12" t="n"/>
       <c r="O200" s="12" t="n"/>
+      <c r="P200" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="7" t="inlineStr">
@@ -5956,6 +7010,11 @@
       <c r="M201" s="12" t="n"/>
       <c r="N201" s="12" t="n"/>
       <c r="O201" s="12" t="n"/>
+      <c r="P201" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="7" t="inlineStr">
@@ -5983,6 +7042,11 @@
       <c r="M202" s="12" t="n"/>
       <c r="N202" s="12" t="n"/>
       <c r="O202" s="12" t="n"/>
+      <c r="P202" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="14" t="inlineStr">
@@ -6010,6 +7074,11 @@
       <c r="M203" s="12" t="n"/>
       <c r="N203" s="12" t="n"/>
       <c r="O203" s="12" t="n"/>
+      <c r="P203" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="7" t="inlineStr">
@@ -6037,6 +7106,11 @@
       <c r="M204" s="12" t="n"/>
       <c r="N204" s="12" t="n"/>
       <c r="O204" s="12" t="n"/>
+      <c r="P204" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="7" t="inlineStr">
@@ -6064,6 +7138,11 @@
       <c r="M205" s="12" t="n"/>
       <c r="N205" s="12" t="n"/>
       <c r="O205" s="12" t="n"/>
+      <c r="P205" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="7" t="inlineStr">
@@ -6091,6 +7170,11 @@
       <c r="M206" s="12" t="n"/>
       <c r="N206" s="12" t="n"/>
       <c r="O206" s="12" t="n"/>
+      <c r="P206" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="7" t="inlineStr">
@@ -6118,6 +7202,11 @@
       <c r="M207" s="12" t="n"/>
       <c r="N207" s="12" t="n"/>
       <c r="O207" s="12" t="n"/>
+      <c r="P207" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="7" t="inlineStr">
@@ -6145,6 +7234,11 @@
       <c r="M208" s="12" t="n"/>
       <c r="N208" s="12" t="n"/>
       <c r="O208" s="12" t="n"/>
+      <c r="P208" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="7" t="inlineStr">
@@ -6172,6 +7266,11 @@
       <c r="M209" s="12" t="n"/>
       <c r="N209" s="12" t="n"/>
       <c r="O209" s="12" t="n"/>
+      <c r="P209" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="7" t="inlineStr">
@@ -6199,6 +7298,11 @@
       <c r="M210" s="12" t="n"/>
       <c r="N210" s="12" t="n"/>
       <c r="O210" s="12" t="n"/>
+      <c r="P210" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="7" t="inlineStr">
@@ -6226,6 +7330,11 @@
       <c r="M211" s="12" t="n"/>
       <c r="N211" s="12" t="n"/>
       <c r="O211" s="12" t="n"/>
+      <c r="P211" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="7" t="inlineStr">
@@ -6253,6 +7362,11 @@
       <c r="M212" s="12" t="n"/>
       <c r="N212" s="12" t="n"/>
       <c r="O212" s="12" t="n"/>
+      <c r="P212" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="7" t="inlineStr">
@@ -6280,6 +7394,11 @@
       <c r="M213" s="12" t="n"/>
       <c r="N213" s="12" t="n"/>
       <c r="O213" s="12" t="n"/>
+      <c r="P213" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="7" t="inlineStr">
@@ -6307,6 +7426,11 @@
       <c r="M214" s="12" t="n"/>
       <c r="N214" s="12" t="n"/>
       <c r="O214" s="12" t="n"/>
+      <c r="P214" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="7" t="inlineStr">
@@ -6334,6 +7458,11 @@
       <c r="M215" s="12" t="n"/>
       <c r="N215" s="12" t="n"/>
       <c r="O215" s="12" t="n"/>
+      <c r="P215" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="7" t="inlineStr">
@@ -6361,6 +7490,11 @@
       <c r="M216" s="12" t="n"/>
       <c r="N216" s="12" t="n"/>
       <c r="O216" s="12" t="n"/>
+      <c r="P216" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="7" t="inlineStr">
@@ -6388,6 +7522,11 @@
       <c r="M217" s="12" t="n"/>
       <c r="N217" s="12" t="n"/>
       <c r="O217" s="12" t="n"/>
+      <c r="P217" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="7" t="inlineStr">
@@ -6415,6 +7554,11 @@
       <c r="M218" s="12" t="n"/>
       <c r="N218" s="12" t="n"/>
       <c r="O218" s="12" t="n"/>
+      <c r="P218" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="7" t="inlineStr">
@@ -6442,6 +7586,11 @@
       <c r="M219" s="12" t="n"/>
       <c r="N219" s="12" t="n"/>
       <c r="O219" s="12" t="n"/>
+      <c r="P219" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="7" t="inlineStr">
@@ -6469,6 +7618,11 @@
       <c r="M220" s="12" t="n"/>
       <c r="N220" s="12" t="n"/>
       <c r="O220" s="12" t="n"/>
+      <c r="P220" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="7" t="inlineStr">
@@ -6496,6 +7650,11 @@
       <c r="M221" s="12" t="n"/>
       <c r="N221" s="12" t="n"/>
       <c r="O221" s="12" t="n"/>
+      <c r="P221" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="7" t="inlineStr">
@@ -6523,6 +7682,11 @@
       <c r="M222" s="12" t="n"/>
       <c r="N222" s="12" t="n"/>
       <c r="O222" s="12" t="n"/>
+      <c r="P222" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="7" t="inlineStr">
@@ -6550,6 +7714,11 @@
       <c r="M223" s="12" t="n"/>
       <c r="N223" s="12" t="n"/>
       <c r="O223" s="12" t="n"/>
+      <c r="P223" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="7" t="inlineStr">
@@ -6577,6 +7746,11 @@
       <c r="M224" s="12" t="n"/>
       <c r="N224" s="12" t="n"/>
       <c r="O224" s="12" t="n"/>
+      <c r="P224" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="7" t="inlineStr">
@@ -6604,6 +7778,11 @@
       <c r="M225" s="12" t="n"/>
       <c r="N225" s="12" t="n"/>
       <c r="O225" s="12" t="n"/>
+      <c r="P225" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="7" t="inlineStr">
@@ -6631,6 +7810,11 @@
       <c r="M226" s="12" t="n"/>
       <c r="N226" s="12" t="n"/>
       <c r="O226" s="12" t="n"/>
+      <c r="P226" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="7" t="inlineStr">
@@ -6658,6 +7842,11 @@
       <c r="M227" s="12" t="n"/>
       <c r="N227" s="12" t="n"/>
       <c r="O227" s="12" t="n"/>
+      <c r="P227" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="7" t="inlineStr">
@@ -6685,6 +7874,11 @@
       <c r="M228" s="12" t="n"/>
       <c r="N228" s="12" t="n"/>
       <c r="O228" s="12" t="n"/>
+      <c r="P228" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="7" t="inlineStr">
@@ -6712,6 +7906,11 @@
       <c r="M229" s="12" t="n"/>
       <c r="N229" s="12" t="n"/>
       <c r="O229" s="12" t="n"/>
+      <c r="P229" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="7" t="inlineStr">
@@ -6739,6 +7938,11 @@
       <c r="M230" s="12" t="n"/>
       <c r="N230" s="12" t="n"/>
       <c r="O230" s="12" t="n"/>
+      <c r="P230" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="7" t="inlineStr">
@@ -6766,6 +7970,11 @@
       <c r="M231" s="12" t="n"/>
       <c r="N231" s="12" t="n"/>
       <c r="O231" s="12" t="n"/>
+      <c r="P231" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="7" t="inlineStr">
@@ -6793,6 +8002,11 @@
       <c r="M232" s="12" t="n"/>
       <c r="N232" s="12" t="n"/>
       <c r="O232" s="12" t="n"/>
+      <c r="P232" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="7" t="inlineStr">
@@ -6820,6 +8034,11 @@
       <c r="M233" s="12" t="n"/>
       <c r="N233" s="12" t="n"/>
       <c r="O233" s="12" t="n"/>
+      <c r="P233" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="7" t="inlineStr">
@@ -6847,6 +8066,11 @@
       <c r="M234" s="12" t="n"/>
       <c r="N234" s="12" t="n"/>
       <c r="O234" s="12" t="n"/>
+      <c r="P234" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="7" t="inlineStr">
@@ -6874,6 +8098,11 @@
       <c r="M235" s="12" t="n"/>
       <c r="N235" s="12" t="n"/>
       <c r="O235" s="12" t="n"/>
+      <c r="P235" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="7" t="inlineStr">
@@ -6901,6 +8130,11 @@
       <c r="M236" s="12" t="n"/>
       <c r="N236" s="12" t="n"/>
       <c r="O236" s="12" t="n"/>
+      <c r="P236" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="7" t="inlineStr">
@@ -6928,6 +8162,11 @@
       <c r="M237" s="12" t="n"/>
       <c r="N237" s="12" t="n"/>
       <c r="O237" s="12" t="n"/>
+      <c r="P237" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="7" t="inlineStr">
@@ -6955,6 +8194,11 @@
       <c r="M238" s="12" t="n"/>
       <c r="N238" s="12" t="n"/>
       <c r="O238" s="12" t="n"/>
+      <c r="P238" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="7" t="inlineStr">
@@ -6982,6 +8226,11 @@
       <c r="M239" s="12" t="n"/>
       <c r="N239" s="12" t="n"/>
       <c r="O239" s="12" t="n"/>
+      <c r="P239" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="7" t="inlineStr">
@@ -7009,6 +8258,11 @@
       <c r="M240" s="12" t="n"/>
       <c r="N240" s="12" t="n"/>
       <c r="O240" s="12" t="n"/>
+      <c r="P240" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="7" t="inlineStr">
@@ -7036,6 +8290,11 @@
       <c r="M241" s="12" t="n"/>
       <c r="N241" s="12" t="n"/>
       <c r="O241" s="12" t="n"/>
+      <c r="P241" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="7" t="inlineStr">
@@ -7063,6 +8322,11 @@
       <c r="M242" s="12" t="n"/>
       <c r="N242" s="12" t="n"/>
       <c r="O242" s="12" t="n"/>
+      <c r="P242" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="7" t="inlineStr">
@@ -7090,6 +8354,11 @@
       <c r="M243" s="12" t="n"/>
       <c r="N243" s="12" t="n"/>
       <c r="O243" s="12" t="n"/>
+      <c r="P243" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="7" t="inlineStr">
@@ -7117,6 +8386,11 @@
       <c r="M244" s="12" t="n"/>
       <c r="N244" s="12" t="n"/>
       <c r="O244" s="12" t="n"/>
+      <c r="P244" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="7" t="inlineStr">
@@ -7144,6 +8418,11 @@
       <c r="M245" s="12" t="n"/>
       <c r="N245" s="12" t="n"/>
       <c r="O245" s="12" t="n"/>
+      <c r="P245" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="7" t="inlineStr">
@@ -7171,6 +8450,11 @@
       <c r="M246" s="12" t="n"/>
       <c r="N246" s="12" t="n"/>
       <c r="O246" s="12" t="n"/>
+      <c r="P246" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="7" t="inlineStr">
@@ -7198,6 +8482,11 @@
       <c r="M247" s="12" t="n"/>
       <c r="N247" s="12" t="n"/>
       <c r="O247" s="12" t="n"/>
+      <c r="P247" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="7" t="inlineStr">
@@ -7225,6 +8514,11 @@
       <c r="M248" s="12" t="n"/>
       <c r="N248" s="12" t="n"/>
       <c r="O248" s="12" t="n"/>
+      <c r="P248" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="7" t="inlineStr">
@@ -7252,6 +8546,11 @@
       <c r="M249" s="12" t="n"/>
       <c r="N249" s="12" t="n"/>
       <c r="O249" s="12" t="n"/>
+      <c r="P249" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="7" t="inlineStr">
@@ -7279,6 +8578,11 @@
       <c r="M250" s="12" t="n"/>
       <c r="N250" s="12" t="n"/>
       <c r="O250" s="12" t="n"/>
+      <c r="P250" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="7" t="inlineStr">
@@ -7306,6 +8610,11 @@
       <c r="M251" s="12" t="n"/>
       <c r="N251" s="12" t="n"/>
       <c r="O251" s="12" t="n"/>
+      <c r="P251" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="7" t="inlineStr">
@@ -7333,6 +8642,11 @@
       <c r="M252" s="12" t="n"/>
       <c r="N252" s="12" t="n"/>
       <c r="O252" s="12" t="n"/>
+      <c r="P252" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="7" t="inlineStr">
@@ -7360,6 +8674,11 @@
       <c r="M253" s="12" t="n"/>
       <c r="N253" s="12" t="n"/>
       <c r="O253" s="12" t="n"/>
+      <c r="P253" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="7" t="inlineStr">
@@ -7387,6 +8706,11 @@
       <c r="M254" s="12" t="n"/>
       <c r="N254" s="12" t="n"/>
       <c r="O254" s="12" t="n"/>
+      <c r="P254" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="7" t="inlineStr">
@@ -7414,6 +8738,11 @@
       <c r="M255" s="12" t="n"/>
       <c r="N255" s="12" t="n"/>
       <c r="O255" s="12" t="n"/>
+      <c r="P255" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="7" t="inlineStr">
@@ -7441,6 +8770,11 @@
       <c r="M256" s="12" t="n"/>
       <c r="N256" s="12" t="n"/>
       <c r="O256" s="12" t="n"/>
+      <c r="P256" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="7" t="inlineStr">
@@ -7468,6 +8802,11 @@
       <c r="M257" s="12" t="n"/>
       <c r="N257" s="12" t="n"/>
       <c r="O257" s="12" t="n"/>
+      <c r="P257" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="7" t="inlineStr">
@@ -7495,6 +8834,11 @@
       <c r="M258" s="12" t="n"/>
       <c r="N258" s="12" t="n"/>
       <c r="O258" s="12" t="n"/>
+      <c r="P258" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="7" t="inlineStr">
@@ -7522,6 +8866,11 @@
       <c r="M259" s="12" t="n"/>
       <c r="N259" s="12" t="n"/>
       <c r="O259" s="12" t="n"/>
+      <c r="P259" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="7" t="inlineStr">
@@ -7549,6 +8898,11 @@
       <c r="M260" s="12" t="n"/>
       <c r="N260" s="12" t="n"/>
       <c r="O260" s="12" t="n"/>
+      <c r="P260" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="7" t="inlineStr">
@@ -7576,6 +8930,11 @@
       <c r="M261" s="12" t="n"/>
       <c r="N261" s="12" t="n"/>
       <c r="O261" s="12" t="n"/>
+      <c r="P261" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="7" t="inlineStr">
@@ -7603,6 +8962,11 @@
       <c r="M262" s="12" t="n"/>
       <c r="N262" s="12" t="n"/>
       <c r="O262" s="12" t="n"/>
+      <c r="P262" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="7" t="inlineStr">
@@ -7630,6 +8994,11 @@
       <c r="M263" s="12" t="n"/>
       <c r="N263" s="12" t="n"/>
       <c r="O263" s="12" t="n"/>
+      <c r="P263" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="7" t="inlineStr">
@@ -7657,6 +9026,11 @@
       <c r="M264" s="12" t="n"/>
       <c r="N264" s="12" t="n"/>
       <c r="O264" s="12" t="n"/>
+      <c r="P264" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="7" t="inlineStr">
@@ -7684,6 +9058,11 @@
       <c r="M265" s="12" t="n"/>
       <c r="N265" s="12" t="n"/>
       <c r="O265" s="12" t="n"/>
+      <c r="P265" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="7" t="inlineStr">
@@ -7711,6 +9090,11 @@
       <c r="M266" s="12" t="n"/>
       <c r="N266" s="12" t="n"/>
       <c r="O266" s="12" t="n"/>
+      <c r="P266" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="7" t="inlineStr">
@@ -7738,6 +9122,11 @@
       <c r="M267" s="12" t="n"/>
       <c r="N267" s="12" t="n"/>
       <c r="O267" s="12" t="n"/>
+      <c r="P267" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="7" t="inlineStr">
@@ -7765,6 +9154,11 @@
       <c r="M268" s="12" t="n"/>
       <c r="N268" s="12" t="n"/>
       <c r="O268" s="12" t="n"/>
+      <c r="P268" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="7" t="inlineStr">
@@ -7792,6 +9186,11 @@
       <c r="M269" s="12" t="n"/>
       <c r="N269" s="12" t="n"/>
       <c r="O269" s="12" t="n"/>
+      <c r="P269" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="7" t="inlineStr">
@@ -7819,6 +9218,11 @@
       <c r="M270" s="12" t="n"/>
       <c r="N270" s="12" t="n"/>
       <c r="O270" s="12" t="n"/>
+      <c r="P270" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="7" t="inlineStr">
@@ -7846,6 +9250,11 @@
       <c r="M271" s="12" t="n"/>
       <c r="N271" s="12" t="n"/>
       <c r="O271" s="12" t="n"/>
+      <c r="P271" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="7" t="inlineStr">
@@ -7873,6 +9282,11 @@
       <c r="M272" s="12" t="n"/>
       <c r="N272" s="12" t="n"/>
       <c r="O272" s="12" t="n"/>
+      <c r="P272" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="7" t="inlineStr">
@@ -7900,6 +9314,11 @@
       <c r="M273" s="12" t="n"/>
       <c r="N273" s="12" t="n"/>
       <c r="O273" s="12" t="n"/>
+      <c r="P273" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="7" t="inlineStr">
@@ -7927,6 +9346,11 @@
       <c r="M274" s="12" t="n"/>
       <c r="N274" s="12" t="n"/>
       <c r="O274" s="12" t="n"/>
+      <c r="P274" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="7" t="inlineStr">
@@ -7954,6 +9378,11 @@
       <c r="M275" s="12" t="n"/>
       <c r="N275" s="12" t="n"/>
       <c r="O275" s="12" t="n"/>
+      <c r="P275" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="7" t="inlineStr">
@@ -7981,6 +9410,11 @@
       <c r="M276" s="12" t="n"/>
       <c r="N276" s="12" t="n"/>
       <c r="O276" s="12" t="n"/>
+      <c r="P276" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="7" t="inlineStr">
@@ -8008,6 +9442,11 @@
       <c r="M277" s="12" t="n"/>
       <c r="N277" s="12" t="n"/>
       <c r="O277" s="12" t="n"/>
+      <c r="P277" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="7" t="inlineStr">
@@ -8035,6 +9474,11 @@
       <c r="M278" s="12" t="n"/>
       <c r="N278" s="12" t="n"/>
       <c r="O278" s="12" t="n"/>
+      <c r="P278" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="7" t="inlineStr">
@@ -8062,6 +9506,11 @@
       <c r="M279" s="12" t="n"/>
       <c r="N279" s="12" t="n"/>
       <c r="O279" s="12" t="n"/>
+      <c r="P279" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="7" t="inlineStr">
@@ -8089,6 +9538,11 @@
       <c r="M280" s="12" t="n"/>
       <c r="N280" s="12" t="n"/>
       <c r="O280" s="12" t="n"/>
+      <c r="P280" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="7" t="inlineStr">
@@ -8116,6 +9570,11 @@
       <c r="M281" s="12" t="n"/>
       <c r="N281" s="12" t="n"/>
       <c r="O281" s="12" t="n"/>
+      <c r="P281" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="7" t="inlineStr">
@@ -8143,6 +9602,11 @@
       <c r="M282" s="12" t="n"/>
       <c r="N282" s="12" t="n"/>
       <c r="O282" s="12" t="n"/>
+      <c r="P282" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="7" t="inlineStr">
@@ -8170,6 +9634,11 @@
       <c r="M283" s="12" t="n"/>
       <c r="N283" s="12" t="n"/>
       <c r="O283" s="12" t="n"/>
+      <c r="P283" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="7" t="inlineStr">
@@ -8197,6 +9666,11 @@
       <c r="M284" s="12" t="n"/>
       <c r="N284" s="12" t="n"/>
       <c r="O284" s="12" t="n"/>
+      <c r="P284" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="7" t="inlineStr">
@@ -8224,6 +9698,11 @@
       <c r="M285" s="12" t="n"/>
       <c r="N285" s="12" t="n"/>
       <c r="O285" s="12" t="n"/>
+      <c r="P285" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="7" t="inlineStr">
@@ -8251,6 +9730,11 @@
       <c r="M286" s="12" t="n"/>
       <c r="N286" s="12" t="n"/>
       <c r="O286" s="12" t="n"/>
+      <c r="P286" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="7" t="inlineStr">
@@ -8278,6 +9762,11 @@
       <c r="M287" s="12" t="n"/>
       <c r="N287" s="12" t="n"/>
       <c r="O287" s="12" t="n"/>
+      <c r="P287" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="7" t="inlineStr">
@@ -8305,6 +9794,11 @@
       <c r="M288" s="12" t="n"/>
       <c r="N288" s="12" t="n"/>
       <c r="O288" s="12" t="n"/>
+      <c r="P288" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="7" t="inlineStr">
@@ -8332,6 +9826,11 @@
       <c r="M289" s="12" t="n"/>
       <c r="N289" s="12" t="n"/>
       <c r="O289" s="12" t="n"/>
+      <c r="P289" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="7" t="inlineStr">
@@ -8359,6 +9858,11 @@
       <c r="M290" s="12" t="n"/>
       <c r="N290" s="12" t="n"/>
       <c r="O290" s="12" t="n"/>
+      <c r="P290" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="7" t="inlineStr">
@@ -8386,6 +9890,11 @@
       <c r="M291" s="12" t="n"/>
       <c r="N291" s="12" t="n"/>
       <c r="O291" s="12" t="n"/>
+      <c r="P291" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="7" t="inlineStr">
@@ -8413,6 +9922,11 @@
       <c r="M292" s="12" t="n"/>
       <c r="N292" s="12" t="n"/>
       <c r="O292" s="12" t="n"/>
+      <c r="P292" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="7" t="inlineStr">
@@ -8440,6 +9954,11 @@
       <c r="M293" s="12" t="n"/>
       <c r="N293" s="12" t="n"/>
       <c r="O293" s="12" t="n"/>
+      <c r="P293" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="7" t="inlineStr">
@@ -8467,6 +9986,11 @@
       <c r="M294" s="12" t="n"/>
       <c r="N294" s="12" t="n"/>
       <c r="O294" s="12" t="n"/>
+      <c r="P294" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="7" t="inlineStr">
@@ -8494,6 +10018,11 @@
       <c r="M295" s="12" t="n"/>
       <c r="N295" s="12" t="n"/>
       <c r="O295" s="12" t="n"/>
+      <c r="P295" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="7" t="inlineStr">
@@ -8521,6 +10050,11 @@
       <c r="M296" s="12" t="n"/>
       <c r="N296" s="12" t="n"/>
       <c r="O296" s="12" t="n"/>
+      <c r="P296" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="7" t="inlineStr">
@@ -8548,6 +10082,11 @@
       <c r="M297" s="12" t="n"/>
       <c r="N297" s="12" t="n"/>
       <c r="O297" s="12" t="n"/>
+      <c r="P297" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="7" t="inlineStr">
@@ -8575,6 +10114,11 @@
       <c r="M298" s="12" t="n"/>
       <c r="N298" s="12" t="n"/>
       <c r="O298" s="12" t="n"/>
+      <c r="P298" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="7" t="inlineStr">
@@ -8602,6 +10146,11 @@
       <c r="M299" s="12" t="n"/>
       <c r="N299" s="12" t="n"/>
       <c r="O299" s="12" t="n"/>
+      <c r="P299" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="7" t="inlineStr">
@@ -8629,6 +10178,11 @@
       <c r="M300" s="12" t="n"/>
       <c r="N300" s="12" t="n"/>
       <c r="O300" s="12" t="n"/>
+      <c r="P300" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="7" t="inlineStr">
@@ -8656,6 +10210,11 @@
       <c r="M301" s="12" t="n"/>
       <c r="N301" s="12" t="n"/>
       <c r="O301" s="12" t="n"/>
+      <c r="P301" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="7" t="inlineStr">
@@ -8683,6 +10242,11 @@
       <c r="M302" s="12" t="n"/>
       <c r="N302" s="12" t="n"/>
       <c r="O302" s="12" t="n"/>
+      <c r="P302" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="7" t="inlineStr">
@@ -8710,6 +10274,11 @@
       <c r="M303" s="12" t="n"/>
       <c r="N303" s="12" t="n"/>
       <c r="O303" s="12" t="n"/>
+      <c r="P303" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="7" t="inlineStr">
@@ -8737,6 +10306,11 @@
       <c r="M304" s="12" t="n"/>
       <c r="N304" s="12" t="n"/>
       <c r="O304" s="12" t="n"/>
+      <c r="P304" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="7" t="inlineStr">
@@ -8764,6 +10338,11 @@
       <c r="M305" s="12" t="n"/>
       <c r="N305" s="12" t="n"/>
       <c r="O305" s="12" t="n"/>
+      <c r="P305" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="7" t="inlineStr">
@@ -8791,6 +10370,11 @@
       <c r="M306" s="12" t="n"/>
       <c r="N306" s="12" t="n"/>
       <c r="O306" s="12" t="n"/>
+      <c r="P306" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="7" t="inlineStr">
@@ -8818,6 +10402,11 @@
       <c r="M307" s="12" t="n"/>
       <c r="N307" s="12" t="n"/>
       <c r="O307" s="12" t="n"/>
+      <c r="P307" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="7" t="inlineStr">
@@ -8845,6 +10434,11 @@
       <c r="M308" s="12" t="n"/>
       <c r="N308" s="12" t="n"/>
       <c r="O308" s="12" t="n"/>
+      <c r="P308" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="7" t="inlineStr">
@@ -8872,6 +10466,11 @@
       <c r="M309" s="12" t="n"/>
       <c r="N309" s="12" t="n"/>
       <c r="O309" s="12" t="n"/>
+      <c r="P309" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="7" t="inlineStr">
@@ -8899,6 +10498,11 @@
       <c r="M310" s="12" t="n"/>
       <c r="N310" s="12" t="n"/>
       <c r="O310" s="12" t="n"/>
+      <c r="P310" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="7" t="inlineStr">
@@ -8926,6 +10530,11 @@
       <c r="M311" s="12" t="n"/>
       <c r="N311" s="12" t="n"/>
       <c r="O311" s="12" t="n"/>
+      <c r="P311" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="7" t="inlineStr">
@@ -8953,6 +10562,11 @@
       <c r="M312" s="12" t="n"/>
       <c r="N312" s="12" t="n"/>
       <c r="O312" s="12" t="n"/>
+      <c r="P312" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="7" t="inlineStr">
@@ -8980,6 +10594,11 @@
       <c r="M313" s="12" t="n"/>
       <c r="N313" s="12" t="n"/>
       <c r="O313" s="12" t="n"/>
+      <c r="P313" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="7" t="inlineStr">
@@ -9007,6 +10626,11 @@
       <c r="M314" s="12" t="n"/>
       <c r="N314" s="12" t="n"/>
       <c r="O314" s="12" t="n"/>
+      <c r="P314" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="7" t="inlineStr">
@@ -9034,6 +10658,11 @@
       <c r="M315" s="12" t="n"/>
       <c r="N315" s="12" t="n"/>
       <c r="O315" s="12" t="n"/>
+      <c r="P315" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="7" t="inlineStr">
@@ -9061,6 +10690,11 @@
       <c r="M316" s="12" t="n"/>
       <c r="N316" s="12" t="n"/>
       <c r="O316" s="12" t="n"/>
+      <c r="P316" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="7" t="inlineStr">
@@ -9088,6 +10722,11 @@
       <c r="M317" s="12" t="n"/>
       <c r="N317" s="12" t="n"/>
       <c r="O317" s="12" t="n"/>
+      <c r="P317" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="7" t="inlineStr">
@@ -9115,6 +10754,11 @@
       <c r="M318" s="12" t="n"/>
       <c r="N318" s="12" t="n"/>
       <c r="O318" s="12" t="n"/>
+      <c r="P318" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="7" t="inlineStr">
@@ -9142,6 +10786,11 @@
       <c r="M319" s="12" t="n"/>
       <c r="N319" s="12" t="n"/>
       <c r="O319" s="12" t="n"/>
+      <c r="P319" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="7" t="inlineStr">
@@ -9169,6 +10818,11 @@
       <c r="M320" s="12" t="n"/>
       <c r="N320" s="12" t="n"/>
       <c r="O320" s="12" t="n"/>
+      <c r="P320" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="7" t="inlineStr">
@@ -9196,6 +10850,11 @@
       <c r="M321" s="12" t="n"/>
       <c r="N321" s="12" t="n"/>
       <c r="O321" s="12" t="n"/>
+      <c r="P321" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="7" t="inlineStr">
@@ -9223,6 +10882,11 @@
       <c r="M322" s="12" t="n"/>
       <c r="N322" s="12" t="n"/>
       <c r="O322" s="12" t="n"/>
+      <c r="P322" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="7" t="inlineStr">
@@ -9250,6 +10914,11 @@
       <c r="M323" s="12" t="n"/>
       <c r="N323" s="12" t="n"/>
       <c r="O323" s="12" t="n"/>
+      <c r="P323" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="7" t="inlineStr">
@@ -9277,6 +10946,11 @@
       <c r="M324" s="12" t="n"/>
       <c r="N324" s="12" t="n"/>
       <c r="O324" s="12" t="n"/>
+      <c r="P324" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="7" t="inlineStr">
@@ -9304,6 +10978,11 @@
       <c r="M325" s="12" t="n"/>
       <c r="N325" s="12" t="n"/>
       <c r="O325" s="12" t="n"/>
+      <c r="P325" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="7" t="inlineStr">
@@ -9331,6 +11010,11 @@
       <c r="M326" s="12" t="n"/>
       <c r="N326" s="12" t="n"/>
       <c r="O326" s="12" t="n"/>
+      <c r="P326" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="7" t="inlineStr">
@@ -9358,6 +11042,11 @@
       <c r="M327" s="12" t="n"/>
       <c r="N327" s="12" t="n"/>
       <c r="O327" s="12" t="n"/>
+      <c r="P327" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="7" t="inlineStr">
@@ -9385,6 +11074,11 @@
       <c r="M328" s="12" t="n"/>
       <c r="N328" s="12" t="n"/>
       <c r="O328" s="12" t="n"/>
+      <c r="P328" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="7" t="inlineStr">
@@ -9412,6 +11106,11 @@
       <c r="M329" s="12" t="n"/>
       <c r="N329" s="12" t="n"/>
       <c r="O329" s="12" t="n"/>
+      <c r="P329" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="7" t="inlineStr">
@@ -9439,6 +11138,11 @@
       <c r="M330" s="12" t="n"/>
       <c r="N330" s="12" t="n"/>
       <c r="O330" s="12" t="n"/>
+      <c r="P330" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
@@ -9466,6 +11170,11 @@
       <c r="M331" s="12" t="n"/>
       <c r="N331" s="12" t="n"/>
       <c r="O331" s="12" t="n"/>
+      <c r="P331" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
@@ -9493,6 +11202,11 @@
       <c r="M332" s="12" t="n"/>
       <c r="N332" s="12" t="n"/>
       <c r="O332" s="12" t="n"/>
+      <c r="P332" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
@@ -9520,6 +11234,11 @@
       <c r="M333" s="12" t="n"/>
       <c r="N333" s="12" t="n"/>
       <c r="O333" s="12" t="n"/>
+      <c r="P333" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
@@ -9547,6 +11266,11 @@
       <c r="M334" s="12" t="n"/>
       <c r="N334" s="12" t="n"/>
       <c r="O334" s="12" t="n"/>
+      <c r="P334" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
@@ -9574,6 +11298,11 @@
       <c r="M335" s="12" t="n"/>
       <c r="N335" s="12" t="n"/>
       <c r="O335" s="12" t="n"/>
+      <c r="P335" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
@@ -9601,6 +11330,11 @@
       <c r="M336" s="12" t="n"/>
       <c r="N336" s="12" t="n"/>
       <c r="O336" s="12" t="n"/>
+      <c r="P336" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
@@ -9628,6 +11362,11 @@
       <c r="M337" s="12" t="n"/>
       <c r="N337" s="12" t="n"/>
       <c r="O337" s="12" t="n"/>
+      <c r="P337" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
@@ -9655,6 +11394,11 @@
       <c r="M338" s="12" t="n"/>
       <c r="N338" s="12" t="n"/>
       <c r="O338" s="12" t="n"/>
+      <c r="P338" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
@@ -9682,6 +11426,11 @@
       <c r="M339" s="12" t="n"/>
       <c r="N339" s="12" t="n"/>
       <c r="O339" s="12" t="n"/>
+      <c r="P339" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
@@ -9709,6 +11458,11 @@
       <c r="M340" s="12" t="n"/>
       <c r="N340" s="12" t="n"/>
       <c r="O340" s="12" t="n"/>
+      <c r="P340" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
@@ -9736,6 +11490,11 @@
       <c r="M341" s="12" t="n"/>
       <c r="N341" s="12" t="n"/>
       <c r="O341" s="12" t="n"/>
+      <c r="P341" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
@@ -9763,6 +11522,11 @@
       <c r="M342" s="12" t="n"/>
       <c r="N342" s="12" t="n"/>
       <c r="O342" s="12" t="n"/>
+      <c r="P342" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
@@ -9790,6 +11554,11 @@
       <c r="M343" s="12" t="n"/>
       <c r="N343" s="12" t="n"/>
       <c r="O343" s="12" t="n"/>
+      <c r="P343" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
@@ -9817,6 +11586,11 @@
       <c r="M344" s="12" t="n"/>
       <c r="N344" s="12" t="n"/>
       <c r="O344" s="12" t="n"/>
+      <c r="P344" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
@@ -9844,6 +11618,11 @@
       <c r="M345" s="12" t="n"/>
       <c r="N345" s="12" t="n"/>
       <c r="O345" s="12" t="n"/>
+      <c r="P345" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
@@ -9871,6 +11650,11 @@
       <c r="M346" s="12" t="n"/>
       <c r="N346" s="12" t="n"/>
       <c r="O346" s="12" t="n"/>
+      <c r="P346" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
@@ -9898,6 +11682,11 @@
       <c r="M347" s="12" t="n"/>
       <c r="N347" s="12" t="n"/>
       <c r="O347" s="12" t="n"/>
+      <c r="P347" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
@@ -9925,6 +11714,11 @@
       <c r="M348" s="12" t="n"/>
       <c r="N348" s="12" t="n"/>
       <c r="O348" s="12" t="n"/>
+      <c r="P348" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
@@ -9952,6 +11746,11 @@
       <c r="M349" s="12" t="n"/>
       <c r="N349" s="12" t="n"/>
       <c r="O349" s="12" t="n"/>
+      <c r="P349" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
@@ -9979,6 +11778,11 @@
       <c r="M350" s="12" t="n"/>
       <c r="N350" s="12" t="n"/>
       <c r="O350" s="12" t="n"/>
+      <c r="P350" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
@@ -10006,6 +11810,11 @@
       <c r="M351" s="12" t="n"/>
       <c r="N351" s="12" t="n"/>
       <c r="O351" s="12" t="n"/>
+      <c r="P351" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
@@ -10033,6 +11842,11 @@
       <c r="M352" s="12" t="n"/>
       <c r="N352" s="12" t="n"/>
       <c r="O352" s="12" t="n"/>
+      <c r="P352" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
@@ -10060,6 +11874,11 @@
       <c r="M353" s="12" t="n"/>
       <c r="N353" s="12" t="n"/>
       <c r="O353" s="12" t="n"/>
+      <c r="P353" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
@@ -10087,6 +11906,11 @@
       <c r="M354" s="12" t="n"/>
       <c r="N354" s="12" t="n"/>
       <c r="O354" s="12" t="n"/>
+      <c r="P354" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
@@ -10114,6 +11938,11 @@
       <c r="M355" s="12" t="n"/>
       <c r="N355" s="12" t="n"/>
       <c r="O355" s="12" t="n"/>
+      <c r="P355" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
@@ -10141,6 +11970,11 @@
       <c r="M356" s="12" t="n"/>
       <c r="N356" s="12" t="n"/>
       <c r="O356" s="12" t="n"/>
+      <c r="P356" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
@@ -10168,6 +12002,11 @@
       <c r="M357" s="12" t="n"/>
       <c r="N357" s="12" t="n"/>
       <c r="O357" s="12" t="n"/>
+      <c r="P357" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
@@ -10195,6 +12034,11 @@
       <c r="M358" s="12" t="n"/>
       <c r="N358" s="12" t="n"/>
       <c r="O358" s="12" t="n"/>
+      <c r="P358" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
@@ -10222,6 +12066,11 @@
       <c r="M359" s="12" t="n"/>
       <c r="N359" s="12" t="n"/>
       <c r="O359" s="12" t="n"/>
+      <c r="P359" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
@@ -10249,6 +12098,11 @@
       <c r="M360" s="12" t="n"/>
       <c r="N360" s="12" t="n"/>
       <c r="O360" s="12" t="n"/>
+      <c r="P360" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
@@ -10276,6 +12130,11 @@
       <c r="M361" s="12" t="n"/>
       <c r="N361" s="12" t="n"/>
       <c r="O361" s="12" t="n"/>
+      <c r="P361" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
@@ -10303,6 +12162,11 @@
       <c r="M362" s="12" t="n"/>
       <c r="N362" s="12" t="n"/>
       <c r="O362" s="12" t="n"/>
+      <c r="P362" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
@@ -10330,6 +12194,11 @@
       <c r="M363" s="12" t="n"/>
       <c r="N363" s="12" t="n"/>
       <c r="O363" s="12" t="n"/>
+      <c r="P363" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
@@ -10357,6 +12226,11 @@
       <c r="M364" s="12" t="n"/>
       <c r="N364" s="12" t="n"/>
       <c r="O364" s="12" t="n"/>
+      <c r="P364" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
@@ -10384,6 +12258,11 @@
       <c r="M365" s="12" t="n"/>
       <c r="N365" s="12" t="n"/>
       <c r="O365" s="12" t="n"/>
+      <c r="P365" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
@@ -10411,6 +12290,11 @@
       <c r="M366" s="12" t="n"/>
       <c r="N366" s="12" t="n"/>
       <c r="O366" s="12" t="n"/>
+      <c r="P366" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
@@ -10438,6 +12322,11 @@
       <c r="M367" s="12" t="n"/>
       <c r="N367" s="12" t="n"/>
       <c r="O367" s="12" t="n"/>
+      <c r="P367" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
@@ -10465,6 +12354,11 @@
       <c r="M368" s="12" t="n"/>
       <c r="N368" s="12" t="n"/>
       <c r="O368" s="12" t="n"/>
+      <c r="P368" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
@@ -10492,6 +12386,11 @@
       <c r="M369" s="12" t="n"/>
       <c r="N369" s="12" t="n"/>
       <c r="O369" s="12" t="n"/>
+      <c r="P369" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
@@ -10519,6 +12418,11 @@
       <c r="M370" s="12" t="n"/>
       <c r="N370" s="12" t="n"/>
       <c r="O370" s="12" t="n"/>
+      <c r="P370" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
@@ -10546,6 +12450,11 @@
       <c r="M371" s="12" t="n"/>
       <c r="N371" s="12" t="n"/>
       <c r="O371" s="12" t="n"/>
+      <c r="P371" s="35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
@@ -10573,6 +12482,11 @@
       <c r="M372" s="12" t="n"/>
       <c r="N372" s="12" t="n"/>
       <c r="O372" s="12" t="n"/>
+      <c r="P372" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
@@ -10600,6 +12514,11 @@
       <c r="M373" s="12" t="n"/>
       <c r="N373" s="12" t="n"/>
       <c r="O373" s="12" t="n"/>
+      <c r="P373" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
@@ -10627,6 +12546,11 @@
       <c r="M374" s="12" t="n"/>
       <c r="N374" s="12" t="n"/>
       <c r="O374" s="12" t="n"/>
+      <c r="P374" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
@@ -10654,6 +12578,11 @@
       <c r="M375" s="12" t="n"/>
       <c r="N375" s="12" t="n"/>
       <c r="O375" s="12" t="n"/>
+      <c r="P375" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
@@ -10681,6 +12610,11 @@
       <c r="M376" s="12" t="n"/>
       <c r="N376" s="12" t="n"/>
       <c r="O376" s="12" t="n"/>
+      <c r="P376" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
@@ -10708,6 +12642,11 @@
       <c r="M377" s="12" t="n"/>
       <c r="N377" s="12" t="n"/>
       <c r="O377" s="12" t="n"/>
+      <c r="P377" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
@@ -10735,6 +12674,11 @@
       <c r="M378" s="12" t="n"/>
       <c r="N378" s="12" t="n"/>
       <c r="O378" s="12" t="n"/>
+      <c r="P378" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
@@ -10762,6 +12706,11 @@
       <c r="M379" s="12" t="n"/>
       <c r="N379" s="12" t="n"/>
       <c r="O379" s="12" t="n"/>
+      <c r="P379" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
@@ -10789,6 +12738,11 @@
       <c r="M380" s="12" t="n"/>
       <c r="N380" s="12" t="n"/>
       <c r="O380" s="12" t="n"/>
+      <c r="P380" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
@@ -10816,6 +12770,11 @@
       <c r="M381" s="12" t="n"/>
       <c r="N381" s="12" t="n"/>
       <c r="O381" s="12" t="n"/>
+      <c r="P381" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
@@ -10843,6 +12802,11 @@
       <c r="M382" s="12" t="n"/>
       <c r="N382" s="12" t="n"/>
       <c r="O382" s="12" t="n"/>
+      <c r="P382" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
@@ -10870,6 +12834,11 @@
       <c r="M383" s="12" t="n"/>
       <c r="N383" s="12" t="n"/>
       <c r="O383" s="12" t="n"/>
+      <c r="P383" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
@@ -10897,6 +12866,11 @@
       <c r="M384" s="12" t="n"/>
       <c r="N384" s="12" t="n"/>
       <c r="O384" s="12" t="n"/>
+      <c r="P384" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
@@ -10924,6 +12898,11 @@
       <c r="M385" s="12" t="n"/>
       <c r="N385" s="12" t="n"/>
       <c r="O385" s="12" t="n"/>
+      <c r="P385" s="37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
@@ -10951,6 +12930,11 @@
       <c r="M386" s="12" t="n"/>
       <c r="N386" s="12" t="n"/>
       <c r="O386" s="12" t="n"/>
+      <c r="P386" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
@@ -10978,6 +12962,11 @@
       <c r="M387" s="12" t="n"/>
       <c r="N387" s="12" t="n"/>
       <c r="O387" s="12" t="n"/>
+      <c r="P387" s="36" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="15" t="n"/>

--- a/Vendor Analysis Assessment - Deeba.xlsx
+++ b/Vendor Analysis Assessment - Deeba.xlsx
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -280,6 +280,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -631,7 +640,11 @@
         <v>3117225.8877216</v>
       </c>
       <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
+      <c r="E2" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F2" s="11" t="n"/>
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
@@ -663,7 +676,11 @@
         <v>357983.6164072</v>
       </c>
       <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
+      <c r="E3" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F3" s="11" t="n"/>
       <c r="G3" s="12" t="n"/>
       <c r="H3" s="12" t="n"/>
@@ -695,7 +712,11 @@
         <v>343081.3853496</v>
       </c>
       <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
+      <c r="E4" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F4" s="11" t="n"/>
       <c r="G4" s="12" t="n"/>
       <c r="H4" s="12" t="n"/>
@@ -727,7 +748,11 @@
         <v>263821.1593744</v>
       </c>
       <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
+      <c r="E5" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F5" s="11" t="n"/>
       <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
@@ -759,7 +784,11 @@
         <v>208675.1466944</v>
       </c>
       <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
+      <c r="E6" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F6" s="11" t="n"/>
       <c r="G6" s="12" t="n"/>
       <c r="H6" s="12" t="n"/>
@@ -791,7 +820,11 @@
         <v>183754.4183896</v>
       </c>
       <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
+      <c r="E7" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F7" s="11" t="n"/>
       <c r="G7" s="12" t="n"/>
       <c r="H7" s="12" t="n"/>
@@ -823,7 +856,11 @@
         <v>147347.8039136</v>
       </c>
       <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
+      <c r="E8" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F8" s="11" t="n"/>
       <c r="G8" s="12" t="n"/>
       <c r="H8" s="12" t="n"/>
@@ -855,7 +892,11 @@
         <v>144093.201148</v>
       </c>
       <c r="D9" s="10" t="n"/>
-      <c r="E9" s="10" t="n"/>
+      <c r="E9" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F9" s="11" t="n"/>
       <c r="G9" s="12" t="n"/>
       <c r="H9" s="12" t="n"/>
@@ -887,7 +928,11 @@
         <v>142699.7305688</v>
       </c>
       <c r="D10" s="10" t="n"/>
-      <c r="E10" s="10" t="n"/>
+      <c r="E10" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F10" s="11" t="n"/>
       <c r="G10" s="12" t="n"/>
       <c r="H10" s="12" t="n"/>
@@ -919,7 +964,11 @@
         <v>133506.776816</v>
       </c>
       <c r="D11" s="10" t="n"/>
-      <c r="E11" s="10" t="n"/>
+      <c r="E11" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F11" s="11" t="n"/>
       <c r="G11" s="12" t="n"/>
       <c r="H11" s="12" t="n"/>
@@ -951,7 +1000,11 @@
         <v>124661.4588432</v>
       </c>
       <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
+      <c r="E12" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F12" s="11" t="n"/>
       <c r="G12" s="12" t="n"/>
       <c r="H12" s="12" t="n"/>
@@ -983,7 +1036,11 @@
         <v>117077.8757856</v>
       </c>
       <c r="D13" s="10" t="n"/>
-      <c r="E13" s="10" t="n"/>
+      <c r="E13" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F13" s="11" t="n"/>
       <c r="G13" s="12" t="n"/>
       <c r="H13" s="12" t="n"/>
@@ -1015,7 +1072,11 @@
         <v>106399.2364888</v>
       </c>
       <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
+      <c r="E14" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F14" s="11" t="n"/>
       <c r="G14" s="12" t="n"/>
       <c r="H14" s="12" t="n"/>
@@ -1047,7 +1108,11 @@
         <v>89879.5842232</v>
       </c>
       <c r="D15" s="10" t="n"/>
-      <c r="E15" s="10" t="n"/>
+      <c r="E15" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F15" s="11" t="n"/>
       <c r="G15" s="12" t="n"/>
       <c r="H15" s="12" t="n"/>
@@ -1079,7 +1144,11 @@
         <v>80822.7573232</v>
       </c>
       <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
+      <c r="E16" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F16" s="11" t="n"/>
       <c r="G16" s="12" t="n"/>
       <c r="H16" s="12" t="n"/>
@@ -1111,7 +1180,11 @@
         <v>71860.3409824</v>
       </c>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="10" t="n"/>
+      <c r="E17" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="12" t="n"/>
       <c r="H17" s="12" t="n"/>
@@ -1143,7 +1216,11 @@
         <v>67414.2623224</v>
       </c>
       <c r="D18" s="10" t="n"/>
-      <c r="E18" s="10" t="n"/>
+      <c r="E18" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F18" s="11" t="n"/>
       <c r="G18" s="12" t="n"/>
       <c r="H18" s="12" t="n"/>
@@ -1175,7 +1252,11 @@
         <v>66570.422208</v>
       </c>
       <c r="D19" s="10" t="n"/>
-      <c r="E19" s="10" t="n"/>
+      <c r="E19" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F19" s="11" t="n"/>
       <c r="G19" s="12" t="n"/>
       <c r="H19" s="12" t="n"/>
@@ -1207,7 +1288,11 @@
         <v>66131.30332799999</v>
       </c>
       <c r="D20" s="10" t="n"/>
-      <c r="E20" s="10" t="n"/>
+      <c r="E20" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F20" s="11" t="n"/>
       <c r="G20" s="12" t="n"/>
       <c r="H20" s="12" t="n"/>
@@ -1239,7 +1324,11 @@
         <v>65417.735148</v>
       </c>
       <c r="D21" s="10" t="n"/>
-      <c r="E21" s="10" t="n"/>
+      <c r="E21" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F21" s="11" t="n"/>
       <c r="G21" s="12" t="n"/>
       <c r="H21" s="12" t="n"/>
@@ -1271,7 +1360,11 @@
         <v>64373.3640784</v>
       </c>
       <c r="D22" s="10" t="n"/>
-      <c r="E22" s="10" t="n"/>
+      <c r="E22" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F22" s="11" t="n"/>
       <c r="G22" s="12" t="n"/>
       <c r="H22" s="12" t="n"/>
@@ -1303,7 +1396,11 @@
         <v>60661.3458128</v>
       </c>
       <c r="D23" s="10" t="n"/>
-      <c r="E23" s="10" t="n"/>
+      <c r="E23" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F23" s="11" t="n"/>
       <c r="G23" s="12" t="n"/>
       <c r="H23" s="12" t="n"/>
@@ -1335,7 +1432,11 @@
         <v>57929.2945144</v>
       </c>
       <c r="D24" s="10" t="n"/>
-      <c r="E24" s="10" t="n"/>
+      <c r="E24" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F24" s="11" t="n"/>
       <c r="G24" s="12" t="n"/>
       <c r="H24" s="12" t="n"/>
@@ -1367,7 +1468,11 @@
         <v>57560.4346552</v>
       </c>
       <c r="D25" s="10" t="n"/>
-      <c r="E25" s="10" t="n"/>
+      <c r="E25" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F25" s="11" t="n"/>
       <c r="G25" s="12" t="n"/>
       <c r="H25" s="12" t="n"/>
@@ -1399,7 +1504,11 @@
         <v>55572.6898584</v>
       </c>
       <c r="D26" s="10" t="n"/>
-      <c r="E26" s="10" t="n"/>
+      <c r="E26" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F26" s="11" t="n"/>
       <c r="G26" s="12" t="n"/>
       <c r="H26" s="12" t="n"/>
@@ -1431,7 +1540,11 @@
         <v>52825.2693992</v>
       </c>
       <c r="D27" s="10" t="n"/>
-      <c r="E27" s="10" t="n"/>
+      <c r="E27" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F27" s="11" t="n"/>
       <c r="G27" s="12" t="n"/>
       <c r="H27" s="12" t="n"/>
@@ -1463,7 +1576,11 @@
         <v>46894.9689248</v>
       </c>
       <c r="D28" s="10" t="n"/>
-      <c r="E28" s="10" t="n"/>
+      <c r="E28" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F28" s="11" t="n"/>
       <c r="G28" s="12" t="n"/>
       <c r="H28" s="12" t="n"/>
@@ -1495,7 +1612,11 @@
         <v>46538.5507672</v>
       </c>
       <c r="D29" s="10" t="n"/>
-      <c r="E29" s="10" t="n"/>
+      <c r="E29" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F29" s="11" t="n"/>
       <c r="G29" s="12" t="n"/>
       <c r="H29" s="12" t="n"/>
@@ -1527,7 +1648,11 @@
         <v>44299.0444792</v>
       </c>
       <c r="D30" s="10" t="n"/>
-      <c r="E30" s="10" t="n"/>
+      <c r="E30" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F30" s="11" t="n"/>
       <c r="G30" s="12" t="n"/>
       <c r="H30" s="12" t="n"/>
@@ -1559,7 +1684,11 @@
         <v>39966.4048632</v>
       </c>
       <c r="D31" s="10" t="n"/>
-      <c r="E31" s="10" t="n"/>
+      <c r="E31" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F31" s="11" t="n"/>
       <c r="G31" s="12" t="n"/>
       <c r="H31" s="12" t="n"/>
@@ -1591,7 +1720,11 @@
         <v>39342.1241888</v>
       </c>
       <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
+      <c r="E32" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F32" s="11" t="n"/>
       <c r="G32" s="12" t="n"/>
       <c r="H32" s="12" t="n"/>
@@ -1623,7 +1756,11 @@
         <v>38840.7968008</v>
       </c>
       <c r="D33" s="10" t="n"/>
-      <c r="E33" s="10" t="n"/>
+      <c r="E33" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F33" s="11" t="n"/>
       <c r="G33" s="12" t="n"/>
       <c r="H33" s="12" t="n"/>
@@ -1655,7 +1792,11 @@
         <v>38147.7208352</v>
       </c>
       <c r="D34" s="10" t="n"/>
-      <c r="E34" s="10" t="n"/>
+      <c r="E34" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F34" s="11" t="n"/>
       <c r="G34" s="12" t="n"/>
       <c r="H34" s="12" t="n"/>
@@ -1687,7 +1828,11 @@
         <v>37461.2316528</v>
       </c>
       <c r="D35" s="10" t="n"/>
-      <c r="E35" s="10" t="n"/>
+      <c r="E35" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F35" s="11" t="n"/>
       <c r="G35" s="12" t="n"/>
       <c r="H35" s="12" t="n"/>
@@ -1719,7 +1864,11 @@
         <v>32426.7336936</v>
       </c>
       <c r="D36" s="10" t="n"/>
-      <c r="E36" s="10" t="n"/>
+      <c r="E36" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F36" s="11" t="n"/>
       <c r="G36" s="12" t="n"/>
       <c r="H36" s="12" t="n"/>
@@ -1751,7 +1900,11 @@
         <v>32187.413904</v>
       </c>
       <c r="D37" s="10" t="n"/>
-      <c r="E37" s="10" t="n"/>
+      <c r="E37" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F37" s="11" t="n"/>
       <c r="G37" s="12" t="n"/>
       <c r="H37" s="12" t="n"/>
@@ -1783,7 +1936,11 @@
         <v>30613.904584</v>
       </c>
       <c r="D38" s="10" t="n"/>
-      <c r="E38" s="10" t="n"/>
+      <c r="E38" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F38" s="11" t="n"/>
       <c r="G38" s="12" t="n"/>
       <c r="H38" s="12" t="n"/>
@@ -1815,7 +1972,11 @@
         <v>27741.335244</v>
       </c>
       <c r="D39" s="10" t="n"/>
-      <c r="E39" s="10" t="n"/>
+      <c r="E39" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F39" s="11" t="n"/>
       <c r="G39" s="12" t="n"/>
       <c r="H39" s="12" t="n"/>
@@ -1847,7 +2008,11 @@
         <v>27013.129768</v>
       </c>
       <c r="D40" s="10" t="n"/>
-      <c r="E40" s="10" t="n"/>
+      <c r="E40" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F40" s="11" t="n"/>
       <c r="G40" s="12" t="n"/>
       <c r="H40" s="12" t="n"/>
@@ -1879,7 +2044,11 @@
         <v>26090.98012</v>
       </c>
       <c r="D41" s="10" t="n"/>
-      <c r="E41" s="10" t="n"/>
+      <c r="E41" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F41" s="11" t="n"/>
       <c r="G41" s="12" t="n"/>
       <c r="H41" s="12" t="n"/>
@@ -1911,7 +2080,11 @@
         <v>24952.1984912</v>
       </c>
       <c r="D42" s="10" t="n"/>
-      <c r="E42" s="10" t="n"/>
+      <c r="E42" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F42" s="11" t="n"/>
       <c r="G42" s="12" t="n"/>
       <c r="H42" s="12" t="n"/>
@@ -1943,7 +2116,11 @@
         <v>24797.7750184</v>
       </c>
       <c r="D43" s="10" t="n"/>
-      <c r="E43" s="10" t="n"/>
+      <c r="E43" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F43" s="11" t="n"/>
       <c r="G43" s="12" t="n"/>
       <c r="H43" s="12" t="n"/>
@@ -1975,7 +2152,11 @@
         <v>24135.4373744</v>
       </c>
       <c r="D44" s="10" t="n"/>
-      <c r="E44" s="10" t="n"/>
+      <c r="E44" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F44" s="11" t="n"/>
       <c r="G44" s="12" t="n"/>
       <c r="H44" s="12" t="n"/>
@@ -2007,7 +2188,11 @@
         <v>24044.6861392</v>
       </c>
       <c r="D45" s="10" t="n"/>
-      <c r="E45" s="10" t="n"/>
+      <c r="E45" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F45" s="11" t="n"/>
       <c r="G45" s="12" t="n"/>
       <c r="H45" s="12" t="n"/>
@@ -2039,7 +2224,11 @@
         <v>23886.6033424</v>
       </c>
       <c r="D46" s="10" t="n"/>
-      <c r="E46" s="10" t="n"/>
+      <c r="E46" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F46" s="11" t="n"/>
       <c r="G46" s="12" t="n"/>
       <c r="H46" s="12" t="n"/>
@@ -2071,7 +2260,11 @@
         <v>22799.7841144</v>
       </c>
       <c r="D47" s="10" t="n"/>
-      <c r="E47" s="10" t="n"/>
+      <c r="E47" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F47" s="11" t="n"/>
       <c r="G47" s="12" t="n"/>
       <c r="H47" s="12" t="n"/>
@@ -2103,7 +2296,11 @@
         <v>22275.0370528</v>
       </c>
       <c r="D48" s="10" t="n"/>
-      <c r="E48" s="10" t="n"/>
+      <c r="E48" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F48" s="11" t="n"/>
       <c r="G48" s="12" t="n"/>
       <c r="H48" s="12" t="n"/>
@@ -2135,7 +2332,11 @@
         <v>21952.284676</v>
       </c>
       <c r="D49" s="10" t="n"/>
-      <c r="E49" s="10" t="n"/>
+      <c r="E49" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F49" s="11" t="n"/>
       <c r="G49" s="12" t="n"/>
       <c r="H49" s="12" t="n"/>
@@ -2167,7 +2368,11 @@
         <v>19041.6583664</v>
       </c>
       <c r="D50" s="10" t="n"/>
-      <c r="E50" s="10" t="n"/>
+      <c r="E50" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F50" s="11" t="n"/>
       <c r="G50" s="12" t="n"/>
       <c r="H50" s="12" t="n"/>
@@ -2199,7 +2404,11 @@
         <v>18537.4035192</v>
       </c>
       <c r="D51" s="10" t="n"/>
-      <c r="E51" s="10" t="n"/>
+      <c r="E51" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F51" s="11" t="n"/>
       <c r="G51" s="12" t="n"/>
       <c r="H51" s="12" t="n"/>
@@ -2231,7 +2440,11 @@
         <v>18164.1524712</v>
       </c>
       <c r="D52" s="10" t="n"/>
-      <c r="E52" s="10" t="n"/>
+      <c r="E52" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F52" s="11" t="n"/>
       <c r="G52" s="12" t="n"/>
       <c r="H52" s="12" t="n"/>
@@ -2263,7 +2476,11 @@
         <v>18084.379208</v>
       </c>
       <c r="D53" s="10" t="n"/>
-      <c r="E53" s="10" t="n"/>
+      <c r="E53" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F53" s="11" t="n"/>
       <c r="G53" s="12" t="n"/>
       <c r="H53" s="12" t="n"/>
@@ -2295,7 +2512,11 @@
         <v>17809.929908</v>
       </c>
       <c r="D54" s="10" t="n"/>
-      <c r="E54" s="10" t="n"/>
+      <c r="E54" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F54" s="11" t="n"/>
       <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
@@ -2327,7 +2548,11 @@
         <v>17108.0715648</v>
       </c>
       <c r="D55" s="10" t="n"/>
-      <c r="E55" s="10" t="n"/>
+      <c r="E55" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F55" s="11" t="n"/>
       <c r="G55" s="12" t="n"/>
       <c r="H55" s="12" t="n"/>
@@ -2359,7 +2584,11 @@
         <v>17073.6739192</v>
       </c>
       <c r="D56" s="10" t="n"/>
-      <c r="E56" s="10" t="n"/>
+      <c r="E56" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F56" s="11" t="n"/>
       <c r="G56" s="12" t="n"/>
       <c r="H56" s="12" t="n"/>
@@ -2391,7 +2620,11 @@
         <v>16900.2219616</v>
       </c>
       <c r="D57" s="10" t="n"/>
-      <c r="E57" s="10" t="n"/>
+      <c r="E57" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F57" s="11" t="n"/>
       <c r="G57" s="12" t="n"/>
       <c r="H57" s="12" t="n"/>
@@ -2423,7 +2656,11 @@
         <v>16438.4152728</v>
       </c>
       <c r="D58" s="10" t="n"/>
-      <c r="E58" s="10" t="n"/>
+      <c r="E58" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F58" s="11" t="n"/>
       <c r="G58" s="12" t="n"/>
       <c r="H58" s="12" t="n"/>
@@ -2455,7 +2692,11 @@
         <v>16274.4775576</v>
       </c>
       <c r="D59" s="10" t="n"/>
-      <c r="E59" s="10" t="n"/>
+      <c r="E59" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F59" s="11" t="n"/>
       <c r="G59" s="12" t="n"/>
       <c r="H59" s="12" t="n"/>
@@ -2487,7 +2728,11 @@
         <v>16101.0256</v>
       </c>
       <c r="D60" s="10" t="n"/>
-      <c r="E60" s="10" t="n"/>
+      <c r="E60" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F60" s="11" t="n"/>
       <c r="G60" s="12" t="n"/>
       <c r="H60" s="12" t="n"/>
@@ -2519,7 +2764,11 @@
         <v>15683.862664</v>
       </c>
       <c r="D61" s="10" t="n"/>
-      <c r="E61" s="10" t="n"/>
+      <c r="E61" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F61" s="11" t="n"/>
       <c r="G61" s="12" t="n"/>
       <c r="H61" s="12" t="n"/>
@@ -2551,7 +2800,11 @@
         <v>15360.3784224</v>
       </c>
       <c r="D62" s="10" t="n"/>
-      <c r="E62" s="10" t="n"/>
+      <c r="E62" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F62" s="11" t="n"/>
       <c r="G62" s="12" t="n"/>
       <c r="H62" s="12" t="n"/>
@@ -2583,7 +2836,11 @@
         <v>14913.2090296</v>
       </c>
       <c r="D63" s="10" t="n"/>
-      <c r="E63" s="10" t="n"/>
+      <c r="E63" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F63" s="11" t="n"/>
       <c r="G63" s="12" t="n"/>
       <c r="H63" s="12" t="n"/>
@@ -2615,7 +2872,11 @@
         <v>14642.4190536</v>
       </c>
       <c r="D64" s="10" t="n"/>
-      <c r="E64" s="10" t="n"/>
+      <c r="E64" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F64" s="11" t="n"/>
       <c r="G64" s="12" t="n"/>
       <c r="H64" s="12" t="n"/>
@@ -2647,7 +2908,11 @@
         <v>14508.4877952</v>
       </c>
       <c r="D65" s="10" t="n"/>
-      <c r="E65" s="10" t="n"/>
+      <c r="E65" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F65" s="11" t="n"/>
       <c r="G65" s="12" t="n"/>
       <c r="H65" s="12" t="n"/>
@@ -2679,7 +2944,11 @@
         <v>13870.3016896</v>
       </c>
       <c r="D66" s="10" t="n"/>
-      <c r="E66" s="10" t="n"/>
+      <c r="E66" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F66" s="11" t="n"/>
       <c r="G66" s="12" t="n"/>
       <c r="H66" s="12" t="n"/>
@@ -2711,7 +2980,11 @@
         <v>13785.4053728</v>
       </c>
       <c r="D67" s="10" t="n"/>
-      <c r="E67" s="10" t="n"/>
+      <c r="E67" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F67" s="11" t="n"/>
       <c r="G67" s="12" t="n"/>
       <c r="H67" s="12" t="n"/>
@@ -2743,7 +3016,11 @@
         <v>13658.7927624</v>
       </c>
       <c r="D68" s="10" t="n"/>
-      <c r="E68" s="10" t="n"/>
+      <c r="E68" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F68" s="11" t="n"/>
       <c r="G68" s="12" t="n"/>
       <c r="H68" s="12" t="n"/>
@@ -2775,7 +3052,11 @@
         <v>13248.9484744</v>
       </c>
       <c r="D69" s="10" t="n"/>
-      <c r="E69" s="10" t="n"/>
+      <c r="E69" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F69" s="11" t="n"/>
       <c r="G69" s="12" t="n"/>
       <c r="H69" s="12" t="n"/>
@@ -2807,7 +3088,11 @@
         <v>12878.6248856</v>
       </c>
       <c r="D70" s="10" t="n"/>
-      <c r="E70" s="10" t="n"/>
+      <c r="E70" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F70" s="11" t="n"/>
       <c r="G70" s="12" t="n"/>
       <c r="H70" s="12" t="n"/>
@@ -2839,7 +3124,11 @@
         <v>12462.9256792</v>
       </c>
       <c r="D71" s="10" t="n"/>
-      <c r="E71" s="10" t="n"/>
+      <c r="E71" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F71" s="11" t="n"/>
       <c r="G71" s="12" t="n"/>
       <c r="H71" s="12" t="n"/>
@@ -2871,7 +3160,11 @@
         <v>12117.4854936</v>
       </c>
       <c r="D72" s="10" t="n"/>
-      <c r="E72" s="10" t="n"/>
+      <c r="E72" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F72" s="11" t="n"/>
       <c r="G72" s="12" t="n"/>
       <c r="H72" s="12" t="n"/>
@@ -2903,7 +3196,11 @@
         <v>11636.65032</v>
       </c>
       <c r="D73" s="10" t="n"/>
-      <c r="E73" s="10" t="n"/>
+      <c r="E73" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F73" s="11" t="n"/>
       <c r="G73" s="12" t="n"/>
       <c r="H73" s="12" t="n"/>
@@ -2935,7 +3232,11 @@
         <v>11605.1801336</v>
       </c>
       <c r="D74" s="10" t="n"/>
-      <c r="E74" s="10" t="n"/>
+      <c r="E74" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F74" s="11" t="n"/>
       <c r="G74" s="12" t="n"/>
       <c r="H74" s="12" t="n"/>
@@ -2967,7 +3268,11 @@
         <v>11515.892628</v>
       </c>
       <c r="D75" s="10" t="n"/>
-      <c r="E75" s="10" t="n"/>
+      <c r="E75" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F75" s="11" t="n"/>
       <c r="G75" s="12" t="n"/>
       <c r="H75" s="12" t="n"/>
@@ -2999,7 +3304,11 @@
         <v>11240.7114632</v>
       </c>
       <c r="D76" s="10" t="n"/>
-      <c r="E76" s="10" t="n"/>
+      <c r="E76" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F76" s="11" t="n"/>
       <c r="G76" s="12" t="n"/>
       <c r="H76" s="12" t="n"/>
@@ -3031,7 +3340,11 @@
         <v>10488.3544488</v>
       </c>
       <c r="D77" s="10" t="n"/>
-      <c r="E77" s="10" t="n"/>
+      <c r="E77" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F77" s="11" t="n"/>
       <c r="G77" s="12" t="n"/>
       <c r="H77" s="12" t="n"/>
@@ -3063,7 +3376,11 @@
         <v>10100.4661048</v>
       </c>
       <c r="D78" s="10" t="n"/>
-      <c r="E78" s="10" t="n"/>
+      <c r="E78" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F78" s="11" t="n"/>
       <c r="G78" s="12" t="n"/>
       <c r="H78" s="12" t="n"/>
@@ -3095,7 +3412,11 @@
         <v>10046.3081096</v>
       </c>
       <c r="D79" s="10" t="n"/>
-      <c r="E79" s="10" t="n"/>
+      <c r="E79" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F79" s="11" t="n"/>
       <c r="G79" s="12" t="n"/>
       <c r="H79" s="12" t="n"/>
@@ -3127,7 +3448,11 @@
         <v>10017.7653824</v>
       </c>
       <c r="D80" s="10" t="n"/>
-      <c r="E80" s="10" t="n"/>
+      <c r="E80" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F80" s="11" t="n"/>
       <c r="G80" s="12" t="n"/>
       <c r="H80" s="12" t="n"/>
@@ -3159,7 +3484,11 @@
         <v>9821.625615999999</v>
       </c>
       <c r="D81" s="10" t="n"/>
-      <c r="E81" s="10" t="n"/>
+      <c r="E81" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F81" s="11" t="n"/>
       <c r="G81" s="12" t="n"/>
       <c r="H81" s="12" t="n"/>
@@ -3191,7 +3520,11 @@
         <v>9602.7980408</v>
       </c>
       <c r="D82" s="10" t="n"/>
-      <c r="E82" s="10" t="n"/>
+      <c r="E82" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F82" s="11" t="n"/>
       <c r="G82" s="12" t="n"/>
       <c r="H82" s="12" t="n"/>
@@ -3223,7 +3556,11 @@
         <v>9558.8861528</v>
       </c>
       <c r="D83" s="10" t="n"/>
-      <c r="E83" s="10" t="n"/>
+      <c r="E83" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F83" s="11" t="n"/>
       <c r="G83" s="12" t="n"/>
       <c r="H83" s="12" t="n"/>
@@ -3255,7 +3592,11 @@
         <v>9206.127319199999</v>
       </c>
       <c r="D84" s="10" t="n"/>
-      <c r="E84" s="10" t="n"/>
+      <c r="E84" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F84" s="11" t="n"/>
       <c r="G84" s="12" t="n"/>
       <c r="H84" s="12" t="n"/>
@@ -3287,7 +3628,11 @@
         <v>8395.221120799999</v>
       </c>
       <c r="D85" s="10" t="n"/>
-      <c r="E85" s="10" t="n"/>
+      <c r="E85" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F85" s="11" t="n"/>
       <c r="G85" s="12" t="n"/>
       <c r="H85" s="12" t="n"/>
@@ -3319,7 +3664,11 @@
         <v>8269.340375199999</v>
       </c>
       <c r="D86" s="10" t="n"/>
-      <c r="E86" s="10" t="n"/>
+      <c r="E86" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F86" s="11" t="n"/>
       <c r="G86" s="12" t="n"/>
       <c r="H86" s="12" t="n"/>
@@ -3351,7 +3700,11 @@
         <v>8070.2731496</v>
       </c>
       <c r="D87" s="10" t="n"/>
-      <c r="E87" s="10" t="n"/>
+      <c r="E87" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F87" s="11" t="n"/>
       <c r="G87" s="12" t="n"/>
       <c r="H87" s="12" t="n"/>
@@ -3383,7 +3736,11 @@
         <v>7359.6324288</v>
       </c>
       <c r="D88" s="10" t="n"/>
-      <c r="E88" s="10" t="n"/>
+      <c r="E88" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F88" s="11" t="n"/>
       <c r="G88" s="12" t="n"/>
       <c r="H88" s="12" t="n"/>
@@ -3415,7 +3772,11 @@
         <v>7316.4524056</v>
       </c>
       <c r="D89" s="10" t="n"/>
-      <c r="E89" s="10" t="n"/>
+      <c r="E89" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F89" s="11" t="n"/>
       <c r="G89" s="12" t="n"/>
       <c r="H89" s="12" t="n"/>
@@ -3447,7 +3808,11 @@
         <v>6987.1132456</v>
       </c>
       <c r="D90" s="10" t="n"/>
-      <c r="E90" s="10" t="n"/>
+      <c r="E90" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F90" s="11" t="n"/>
       <c r="G90" s="12" t="n"/>
       <c r="H90" s="12" t="n"/>
@@ -3479,7 +3844,11 @@
         <v>6673.8751112</v>
       </c>
       <c r="D91" s="10" t="n"/>
-      <c r="E91" s="10" t="n"/>
+      <c r="E91" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F91" s="11" t="n"/>
       <c r="G91" s="12" t="n"/>
       <c r="H91" s="12" t="n"/>
@@ -3511,7 +3880,11 @@
         <v>6596.297442399999</v>
       </c>
       <c r="D92" s="10" t="n"/>
-      <c r="E92" s="10" t="n"/>
+      <c r="E92" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F92" s="11" t="n"/>
       <c r="G92" s="12" t="n"/>
       <c r="H92" s="12" t="n"/>
@@ -3543,7 +3916,11 @@
         <v>6157.178562399999</v>
       </c>
       <c r="D93" s="10" t="n"/>
-      <c r="E93" s="10" t="n"/>
+      <c r="E93" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F93" s="11" t="n"/>
       <c r="G93" s="12" t="n"/>
       <c r="H93" s="12" t="n"/>
@@ -3575,7 +3952,11 @@
         <v>6098.6293784</v>
       </c>
       <c r="D94" s="10" t="n"/>
-      <c r="E94" s="10" t="n"/>
+      <c r="E94" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F94" s="11" t="n"/>
       <c r="G94" s="12" t="n"/>
       <c r="H94" s="12" t="n"/>
@@ -3607,7 +3988,11 @@
         <v>5972.016768</v>
       </c>
       <c r="D95" s="10" t="n"/>
-      <c r="E95" s="10" t="n"/>
+      <c r="E95" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F95" s="11" t="n"/>
       <c r="G95" s="12" t="n"/>
       <c r="H95" s="12" t="n"/>
@@ -3639,7 +4024,11 @@
         <v>5730.501384</v>
       </c>
       <c r="D96" s="10" t="n"/>
-      <c r="E96" s="10" t="n"/>
+      <c r="E96" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F96" s="11" t="n"/>
       <c r="G96" s="12" t="n"/>
       <c r="H96" s="12" t="n"/>
@@ -3671,7 +4060,11 @@
         <v>5623.6491232</v>
       </c>
       <c r="D97" s="10" t="n"/>
-      <c r="E97" s="10" t="n"/>
+      <c r="E97" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F97" s="11" t="n"/>
       <c r="G97" s="12" t="n"/>
       <c r="H97" s="12" t="n"/>
@@ -3703,7 +4096,11 @@
         <v>5443.6103824</v>
       </c>
       <c r="D98" s="10" t="n"/>
-      <c r="E98" s="10" t="n"/>
+      <c r="E98" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F98" s="11" t="n"/>
       <c r="G98" s="12" t="n"/>
       <c r="H98" s="12" t="n"/>
@@ -3735,7 +4132,11 @@
         <v>5412.872060799999</v>
       </c>
       <c r="D99" s="10" t="n"/>
-      <c r="E99" s="10" t="n"/>
+      <c r="E99" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F99" s="11" t="n"/>
       <c r="G99" s="12" t="n"/>
       <c r="H99" s="12" t="n"/>
@@ -3767,7 +4168,11 @@
         <v>5401.8940888</v>
       </c>
       <c r="D100" s="10" t="n"/>
-      <c r="E100" s="10" t="n"/>
+      <c r="E100" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F100" s="11" t="n"/>
       <c r="G100" s="12" t="n"/>
       <c r="H100" s="12" t="n"/>
@@ -3799,7 +4204,11 @@
         <v>5366.0327136</v>
       </c>
       <c r="D101" s="10" t="n"/>
-      <c r="E101" s="10" t="n"/>
+      <c r="E101" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F101" s="11" t="n"/>
       <c r="G101" s="12" t="n"/>
       <c r="H101" s="12" t="n"/>
@@ -3831,7 +4240,11 @@
         <v>5284.7957208</v>
       </c>
       <c r="D102" s="10" t="n"/>
-      <c r="E102" s="10" t="n"/>
+      <c r="E102" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F102" s="11" t="n"/>
       <c r="G102" s="12" t="n"/>
       <c r="H102" s="12" t="n"/>
@@ -3863,7 +4276,11 @@
         <v>5153.0600568</v>
       </c>
       <c r="D103" s="10" t="n"/>
-      <c r="E103" s="10" t="n"/>
+      <c r="E103" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F103" s="11" t="n"/>
       <c r="G103" s="12" t="n"/>
       <c r="H103" s="12" t="n"/>
@@ -3895,7 +4312,11 @@
         <v>5134.031572</v>
       </c>
       <c r="D104" s="10" t="n"/>
-      <c r="E104" s="10" t="n"/>
+      <c r="E104" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F104" s="11" t="n"/>
       <c r="G104" s="12" t="n"/>
       <c r="H104" s="12" t="n"/>
@@ -3927,7 +4348,11 @@
         <v>4994.97726</v>
       </c>
       <c r="D105" s="10" t="n"/>
-      <c r="E105" s="10" t="n"/>
+      <c r="E105" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F105" s="11" t="n"/>
       <c r="G105" s="12" t="n"/>
       <c r="H105" s="12" t="n"/>
@@ -3959,7 +4384,11 @@
         <v>4991.317935999999</v>
       </c>
       <c r="D106" s="10" t="n"/>
-      <c r="E106" s="10" t="n"/>
+      <c r="E106" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F106" s="11" t="n"/>
       <c r="G106" s="12" t="n"/>
       <c r="H106" s="12" t="n"/>
@@ -3991,7 +4420,11 @@
         <v>4916.6677264</v>
       </c>
       <c r="D107" s="10" t="n"/>
-      <c r="E107" s="10" t="n"/>
+      <c r="E107" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F107" s="11" t="n"/>
       <c r="G107" s="12" t="n"/>
       <c r="H107" s="12" t="n"/>
@@ -4023,7 +4456,11 @@
         <v>4878.6107568</v>
       </c>
       <c r="D108" s="10" t="n"/>
-      <c r="E108" s="10" t="n"/>
+      <c r="E108" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F108" s="11" t="n"/>
       <c r="G108" s="12" t="n"/>
       <c r="H108" s="12" t="n"/>
@@ -4055,7 +4492,11 @@
         <v>4836.1625984</v>
       </c>
       <c r="D109" s="10" t="n"/>
-      <c r="E109" s="10" t="n"/>
+      <c r="E109" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F109" s="11" t="n"/>
       <c r="G109" s="12" t="n"/>
       <c r="H109" s="12" t="n"/>
@@ -4087,7 +4528,11 @@
         <v>4800.3012232</v>
       </c>
       <c r="D110" s="10" t="n"/>
-      <c r="E110" s="10" t="n"/>
+      <c r="E110" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F110" s="11" t="n"/>
       <c r="G110" s="12" t="n"/>
       <c r="H110" s="12" t="n"/>
@@ -4119,7 +4564,11 @@
         <v>4399.2393128</v>
       </c>
       <c r="D111" s="10" t="n"/>
-      <c r="E111" s="10" t="n"/>
+      <c r="E111" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F111" s="11" t="n"/>
       <c r="G111" s="12" t="n"/>
       <c r="H111" s="12" t="n"/>
@@ -4151,7 +4600,11 @@
         <v>4392.6525296</v>
       </c>
       <c r="D112" s="10" t="n"/>
-      <c r="E112" s="10" t="n"/>
+      <c r="E112" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F112" s="11" t="n"/>
       <c r="G112" s="12" t="n"/>
       <c r="H112" s="12" t="n"/>
@@ -4183,7 +4636,11 @@
         <v>4083.0737192</v>
       </c>
       <c r="D113" s="10" t="n"/>
-      <c r="E113" s="10" t="n"/>
+      <c r="E113" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F113" s="11" t="n"/>
       <c r="G113" s="12" t="n"/>
       <c r="H113" s="12" t="n"/>
@@ -4215,7 +4672,11 @@
         <v>4061.84964</v>
       </c>
       <c r="D114" s="10" t="n"/>
-      <c r="E114" s="10" t="n"/>
+      <c r="E114" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F114" s="11" t="n"/>
       <c r="G114" s="12" t="n"/>
       <c r="H114" s="12" t="n"/>
@@ -4247,7 +4708,11 @@
         <v>4055.9947216</v>
       </c>
       <c r="D115" s="10" t="n"/>
-      <c r="E115" s="10" t="n"/>
+      <c r="E115" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F115" s="11" t="n"/>
       <c r="G115" s="12" t="n"/>
       <c r="H115" s="12" t="n"/>
@@ -4279,7 +4744,11 @@
         <v>4025.2564</v>
       </c>
       <c r="D116" s="10" t="n"/>
-      <c r="E116" s="10" t="n"/>
+      <c r="E116" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F116" s="11" t="n"/>
       <c r="G116" s="12" t="n"/>
       <c r="H116" s="12" t="n"/>
@@ -4311,7 +4780,11 @@
         <v>3928.6502464</v>
       </c>
       <c r="D117" s="10" t="n"/>
-      <c r="E117" s="10" t="n"/>
+      <c r="E117" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F117" s="11" t="n"/>
       <c r="G117" s="12" t="n"/>
       <c r="H117" s="12" t="n"/>
@@ -4343,7 +4816,11 @@
         <v>3842.2902</v>
       </c>
       <c r="D118" s="10" t="n"/>
-      <c r="E118" s="10" t="n"/>
+      <c r="E118" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F118" s="11" t="n"/>
       <c r="G118" s="12" t="n"/>
       <c r="H118" s="12" t="n"/>
@@ -4375,7 +4852,11 @@
         <v>3734.7060744</v>
       </c>
       <c r="D119" s="10" t="n"/>
-      <c r="E119" s="10" t="n"/>
+      <c r="E119" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F119" s="11" t="n"/>
       <c r="G119" s="12" t="n"/>
       <c r="H119" s="12" t="n"/>
@@ -4407,7 +4888,11 @@
         <v>3699.576564</v>
       </c>
       <c r="D120" s="10" t="n"/>
-      <c r="E120" s="10" t="n"/>
+      <c r="E120" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F120" s="11" t="n"/>
       <c r="G120" s="12" t="n"/>
       <c r="H120" s="12" t="n"/>
@@ -4439,7 +4924,11 @@
         <v>3692.257916</v>
       </c>
       <c r="D121" s="10" t="n"/>
-      <c r="E121" s="10" t="n"/>
+      <c r="E121" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F121" s="11" t="n"/>
       <c r="G121" s="12" t="n"/>
       <c r="H121" s="12" t="n"/>
@@ -4471,7 +4960,11 @@
         <v>3689.3304568</v>
       </c>
       <c r="D122" s="10" t="n"/>
-      <c r="E122" s="10" t="n"/>
+      <c r="E122" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F122" s="11" t="n"/>
       <c r="G122" s="12" t="n"/>
       <c r="H122" s="12" t="n"/>
@@ -4503,7 +4996,11 @@
         <v>3548.0805504</v>
       </c>
       <c r="D123" s="10" t="n"/>
-      <c r="E123" s="10" t="n"/>
+      <c r="E123" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F123" s="11" t="n"/>
       <c r="G123" s="12" t="n"/>
       <c r="H123" s="12" t="n"/>
@@ -4535,7 +5032,11 @@
         <v>3541.4937672</v>
       </c>
       <c r="D124" s="10" t="n"/>
-      <c r="E124" s="10" t="n"/>
+      <c r="E124" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F124" s="11" t="n"/>
       <c r="G124" s="12" t="n"/>
       <c r="H124" s="12" t="n"/>
@@ -4567,7 +5068,11 @@
         <v>3534.906984</v>
       </c>
       <c r="D125" s="10" t="n"/>
-      <c r="E125" s="10" t="n"/>
+      <c r="E125" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F125" s="11" t="n"/>
       <c r="G125" s="12" t="n"/>
       <c r="H125" s="12" t="n"/>
@@ -4599,7 +5104,11 @@
         <v>4077.8263165</v>
       </c>
       <c r="D126" s="10" t="n"/>
-      <c r="E126" s="10" t="n"/>
+      <c r="E126" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F126" s="11" t="n"/>
       <c r="G126" s="12" t="n"/>
       <c r="H126" s="12" t="n"/>
@@ -4631,7 +5140,11 @@
         <v>4071.0143285</v>
       </c>
       <c r="D127" s="10" t="n"/>
-      <c r="E127" s="10" t="n"/>
+      <c r="E127" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F127" s="11" t="n"/>
       <c r="G127" s="12" t="n"/>
       <c r="H127" s="12" t="n"/>
@@ -4663,7 +5176,11 @@
         <v>3994.3794635</v>
       </c>
       <c r="D128" s="10" t="n"/>
-      <c r="E128" s="10" t="n"/>
+      <c r="E128" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F128" s="11" t="n"/>
       <c r="G128" s="12" t="n"/>
       <c r="H128" s="12" t="n"/>
@@ -4695,7 +5212,11 @@
         <v>3955.2105325</v>
       </c>
       <c r="D129" s="10" t="n"/>
-      <c r="E129" s="10" t="n"/>
+      <c r="E129" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F129" s="11" t="n"/>
       <c r="G129" s="12" t="n"/>
       <c r="H129" s="12" t="n"/>
@@ -4727,7 +5248,11 @@
         <v>3899.86313</v>
       </c>
       <c r="D130" s="10" t="n"/>
-      <c r="E130" s="10" t="n"/>
+      <c r="E130" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F130" s="11" t="n"/>
       <c r="G130" s="12" t="n"/>
       <c r="H130" s="12" t="n"/>
@@ -4759,7 +5284,11 @@
         <v>3899.0116315</v>
       </c>
       <c r="D131" s="10" t="n"/>
-      <c r="E131" s="10" t="n"/>
+      <c r="E131" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F131" s="11" t="n"/>
       <c r="G131" s="12" t="n"/>
       <c r="H131" s="12" t="n"/>
@@ -4791,7 +5320,11 @@
         <v>3867.506187</v>
       </c>
       <c r="D132" s="10" t="n"/>
-      <c r="E132" s="10" t="n"/>
+      <c r="E132" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F132" s="11" t="n"/>
       <c r="G132" s="12" t="n"/>
       <c r="H132" s="12" t="n"/>
@@ -4823,7 +5356,11 @@
         <v>3729.56343</v>
       </c>
       <c r="D133" s="10" t="n"/>
-      <c r="E133" s="10" t="n"/>
+      <c r="E133" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F133" s="11" t="n"/>
       <c r="G133" s="12" t="n"/>
       <c r="H133" s="12" t="n"/>
@@ -4855,7 +5392,11 @@
         <v>3726.157436</v>
       </c>
       <c r="D134" s="10" t="n"/>
-      <c r="E134" s="10" t="n"/>
+      <c r="E134" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F134" s="11" t="n"/>
       <c r="G134" s="12" t="n"/>
       <c r="H134" s="12" t="n"/>
@@ -4887,7 +5428,11 @@
         <v>3671.661532</v>
       </c>
       <c r="D135" s="10" t="n"/>
-      <c r="E135" s="10" t="n"/>
+      <c r="E135" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F135" s="11" t="n"/>
       <c r="G135" s="12" t="n"/>
       <c r="H135" s="12" t="n"/>
@@ -4919,7 +5464,11 @@
         <v>3609.5021415</v>
       </c>
       <c r="D136" s="10" t="n"/>
-      <c r="E136" s="10" t="n"/>
+      <c r="E136" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F136" s="11" t="n"/>
       <c r="G136" s="12" t="n"/>
       <c r="H136" s="12" t="n"/>
@@ -4951,7 +5500,11 @@
         <v>3544.7882555</v>
       </c>
       <c r="D137" s="10" t="n"/>
-      <c r="E137" s="10" t="n"/>
+      <c r="E137" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F137" s="11" t="n"/>
       <c r="G137" s="12" t="n"/>
       <c r="H137" s="12" t="n"/>
@@ -4983,7 +5536,11 @@
         <v>3536.2732705</v>
       </c>
       <c r="D138" s="10" t="n"/>
-      <c r="E138" s="10" t="n"/>
+      <c r="E138" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F138" s="11" t="n"/>
       <c r="G138" s="12" t="n"/>
       <c r="H138" s="12" t="n"/>
@@ -5015,7 +5572,11 @@
         <v>3482.628865</v>
       </c>
       <c r="D139" s="10" t="n"/>
-      <c r="E139" s="10" t="n"/>
+      <c r="E139" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F139" s="11" t="n"/>
       <c r="G139" s="12" t="n"/>
       <c r="H139" s="12" t="n"/>
@@ -5047,7 +5608,11 @@
         <v>3357.4585855</v>
       </c>
       <c r="D140" s="10" t="n"/>
-      <c r="E140" s="10" t="n"/>
+      <c r="E140" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F140" s="11" t="n"/>
       <c r="G140" s="12" t="n"/>
       <c r="H140" s="12" t="n"/>
@@ -5079,7 +5644,11 @@
         <v>3253.5757685</v>
       </c>
       <c r="D141" s="10" t="n"/>
-      <c r="E141" s="10" t="n"/>
+      <c r="E141" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F141" s="11" t="n"/>
       <c r="G141" s="12" t="n"/>
       <c r="H141" s="12" t="n"/>
@@ -5111,7 +5680,11 @@
         <v>3199.931363</v>
       </c>
       <c r="D142" s="10" t="n"/>
-      <c r="E142" s="10" t="n"/>
+      <c r="E142" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F142" s="11" t="n"/>
       <c r="G142" s="12" t="n"/>
       <c r="H142" s="12" t="n"/>
@@ -5143,7 +5716,11 @@
         <v>3194.822372</v>
       </c>
       <c r="D143" s="10" t="n"/>
-      <c r="E143" s="10" t="n"/>
+      <c r="E143" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F143" s="11" t="n"/>
       <c r="G143" s="12" t="n"/>
       <c r="H143" s="12" t="n"/>
@@ -5175,7 +5752,11 @@
         <v>3036.443651</v>
       </c>
       <c r="D144" s="10" t="n"/>
-      <c r="E144" s="10" t="n"/>
+      <c r="E144" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F144" s="11" t="n"/>
       <c r="G144" s="12" t="n"/>
       <c r="H144" s="12" t="n"/>
@@ -5207,7 +5788,11 @@
         <v>2994.7202245</v>
       </c>
       <c r="D145" s="10" t="n"/>
-      <c r="E145" s="10" t="n"/>
+      <c r="E145" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F145" s="11" t="n"/>
       <c r="G145" s="12" t="n"/>
       <c r="H145" s="12" t="n"/>
@@ -5239,7 +5824,11 @@
         <v>2953.8482965</v>
       </c>
       <c r="D146" s="10" t="n"/>
-      <c r="E146" s="10" t="n"/>
+      <c r="E146" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F146" s="11" t="n"/>
       <c r="G146" s="12" t="n"/>
       <c r="H146" s="12" t="n"/>
@@ -5271,7 +5860,11 @@
         <v>2930.0063385</v>
       </c>
       <c r="D147" s="10" t="n"/>
-      <c r="E147" s="10" t="n"/>
+      <c r="E147" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F147" s="11" t="n"/>
       <c r="G147" s="12" t="n"/>
       <c r="H147" s="12" t="n"/>
@@ -5303,7 +5896,11 @@
         <v>2924.045849</v>
       </c>
       <c r="D148" s="10" t="n"/>
-      <c r="E148" s="10" t="n"/>
+      <c r="E148" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F148" s="11" t="n"/>
       <c r="G148" s="12" t="n"/>
       <c r="H148" s="12" t="n"/>
@@ -5335,7 +5932,11 @@
         <v>2838.0445005</v>
       </c>
       <c r="D149" s="10" t="n"/>
-      <c r="E149" s="10" t="n"/>
+      <c r="E149" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F149" s="11" t="n"/>
       <c r="G149" s="12" t="n"/>
       <c r="H149" s="12" t="n"/>
@@ -5367,7 +5968,11 @@
         <v>2838.0445005</v>
       </c>
       <c r="D150" s="10" t="n"/>
-      <c r="E150" s="10" t="n"/>
+      <c r="E150" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F150" s="11" t="n"/>
       <c r="G150" s="12" t="n"/>
       <c r="H150" s="12" t="n"/>
@@ -5399,7 +6004,11 @@
         <v>2806.539056</v>
       </c>
       <c r="D151" s="10" t="n"/>
-      <c r="E151" s="10" t="n"/>
+      <c r="E151" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F151" s="11" t="n"/>
       <c r="G151" s="12" t="n"/>
       <c r="H151" s="12" t="n"/>
@@ -5431,7 +6040,11 @@
         <v>2744.3796655</v>
       </c>
       <c r="D152" s="10" t="n"/>
-      <c r="E152" s="10" t="n"/>
+      <c r="E152" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F152" s="11" t="n"/>
       <c r="G152" s="12" t="n"/>
       <c r="H152" s="12" t="n"/>
@@ -5463,7 +6076,11 @@
         <v>2711.171224</v>
       </c>
       <c r="D153" s="10" t="n"/>
-      <c r="E153" s="10" t="n"/>
+      <c r="E153" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F153" s="11" t="n"/>
       <c r="G153" s="12" t="n"/>
       <c r="H153" s="12" t="n"/>
@@ -5495,7 +6112,11 @@
         <v>2662.6358095</v>
       </c>
       <c r="D154" s="10" t="n"/>
-      <c r="E154" s="10" t="n"/>
+      <c r="E154" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F154" s="11" t="n"/>
       <c r="G154" s="12" t="n"/>
       <c r="H154" s="12" t="n"/>
@@ -5527,7 +6148,11 @@
         <v>2653.269326</v>
       </c>
       <c r="D155" s="10" t="n"/>
-      <c r="E155" s="10" t="n"/>
+      <c r="E155" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F155" s="11" t="n"/>
       <c r="G155" s="12" t="n"/>
       <c r="H155" s="12" t="n"/>
@@ -5559,7 +6184,11 @@
         <v>2605.58541</v>
       </c>
       <c r="D156" s="10" t="n"/>
-      <c r="E156" s="10" t="n"/>
+      <c r="E156" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F156" s="11" t="n"/>
       <c r="G156" s="12" t="n"/>
       <c r="H156" s="12" t="n"/>
@@ -5591,7 +6220,11 @@
         <v>2488.9301155</v>
       </c>
       <c r="D157" s="10" t="n"/>
-      <c r="E157" s="10" t="n"/>
+      <c r="E157" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F157" s="11" t="n"/>
       <c r="G157" s="12" t="n"/>
       <c r="H157" s="12" t="n"/>
@@ -5623,7 +6256,11 @@
         <v>2436.1372085</v>
       </c>
       <c r="D158" s="10" t="n"/>
-      <c r="E158" s="10" t="n"/>
+      <c r="E158" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F158" s="11" t="n"/>
       <c r="G158" s="12" t="n"/>
       <c r="H158" s="12" t="n"/>
@@ -5655,7 +6292,11 @@
         <v>2419.1072385</v>
       </c>
       <c r="D159" s="10" t="n"/>
-      <c r="E159" s="10" t="n"/>
+      <c r="E159" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F159" s="11" t="n"/>
       <c r="G159" s="12" t="n"/>
       <c r="H159" s="12" t="n"/>
@@ -5687,7 +6328,11 @@
         <v>2301.6004455</v>
       </c>
       <c r="D160" s="10" t="n"/>
-      <c r="E160" s="10" t="n"/>
+      <c r="E160" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F160" s="11" t="n"/>
       <c r="G160" s="12" t="n"/>
       <c r="H160" s="12" t="n"/>
@@ -5719,7 +6364,11 @@
         <v>2293.0854605</v>
       </c>
       <c r="D161" s="10" t="n"/>
-      <c r="E161" s="10" t="n"/>
+      <c r="E161" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F161" s="11" t="n"/>
       <c r="G161" s="12" t="n"/>
       <c r="H161" s="12" t="n"/>
@@ -5751,7 +6400,11 @@
         <v>2250.5105355</v>
       </c>
       <c r="D162" s="10" t="n"/>
-      <c r="E162" s="10" t="n"/>
+      <c r="E162" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F162" s="11" t="n"/>
       <c r="G162" s="12" t="n"/>
       <c r="H162" s="12" t="n"/>
@@ -5783,7 +6436,11 @@
         <v>2205.381115</v>
       </c>
       <c r="D163" s="10" t="n"/>
-      <c r="E163" s="10" t="n"/>
+      <c r="E163" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F163" s="11" t="n"/>
       <c r="G163" s="12" t="n"/>
       <c r="H163" s="12" t="n"/>
@@ -5815,7 +6472,11 @@
         <v>2194.3116345</v>
       </c>
       <c r="D164" s="10" t="n"/>
-      <c r="E164" s="10" t="n"/>
+      <c r="E164" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F164" s="11" t="n"/>
       <c r="G164" s="12" t="n"/>
       <c r="H164" s="12" t="n"/>
@@ -5847,7 +6508,11 @@
         <v>2162.80619</v>
       </c>
       <c r="D165" s="10" t="n"/>
-      <c r="E165" s="10" t="n"/>
+      <c r="E165" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F165" s="11" t="n"/>
       <c r="G165" s="12" t="n"/>
       <c r="H165" s="12" t="n"/>
@@ -5879,7 +6544,11 @@
         <v>2154.291205</v>
       </c>
       <c r="D166" s="10" t="n"/>
-      <c r="E166" s="10" t="n"/>
+      <c r="E166" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F166" s="11" t="n"/>
       <c r="G166" s="12" t="n"/>
       <c r="H166" s="12" t="n"/>
@@ -5911,7 +6580,11 @@
         <v>2136.4097365</v>
       </c>
       <c r="D167" s="10" t="n"/>
-      <c r="E167" s="10" t="n"/>
+      <c r="E167" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F167" s="11" t="n"/>
       <c r="G167" s="12" t="n"/>
       <c r="H167" s="12" t="n"/>
@@ -5943,7 +6616,11 @@
         <v>2110.013283</v>
       </c>
       <c r="D168" s="10" t="n"/>
-      <c r="E168" s="10" t="n"/>
+      <c r="E168" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F168" s="11" t="n"/>
       <c r="G168" s="12" t="n"/>
       <c r="H168" s="12" t="n"/>
@@ -5975,7 +6652,11 @@
         <v>2107.4587875</v>
       </c>
       <c r="D169" s="10" t="n"/>
-      <c r="E169" s="10" t="n"/>
+      <c r="E169" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F169" s="11" t="n"/>
       <c r="G169" s="12" t="n"/>
       <c r="H169" s="12" t="n"/>
@@ -6007,7 +6688,11 @@
         <v>2043.5964</v>
       </c>
       <c r="D170" s="10" t="n"/>
-      <c r="E170" s="10" t="n"/>
+      <c r="E170" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F170" s="11" t="n"/>
       <c r="G170" s="12" t="n"/>
       <c r="H170" s="12" t="n"/>
@@ -6039,7 +6724,11 @@
         <v>2031.675421</v>
       </c>
       <c r="D171" s="10" t="n"/>
-      <c r="E171" s="10" t="n"/>
+      <c r="E171" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F171" s="11" t="n"/>
       <c r="G171" s="12" t="n"/>
       <c r="H171" s="12" t="n"/>
@@ -6071,7 +6760,11 @@
         <v>2030.8239225</v>
       </c>
       <c r="D172" s="10" t="n"/>
-      <c r="E172" s="10" t="n"/>
+      <c r="E172" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F172" s="11" t="n"/>
       <c r="G172" s="12" t="n"/>
       <c r="H172" s="12" t="n"/>
@@ -6103,7 +6796,11 @@
         <v>1989.100496</v>
       </c>
       <c r="D173" s="10" t="n"/>
-      <c r="E173" s="10" t="n"/>
+      <c r="E173" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F173" s="11" t="n"/>
       <c r="G173" s="12" t="n"/>
       <c r="H173" s="12" t="n"/>
@@ -6135,7 +6832,11 @@
         <v>1935.4560905</v>
       </c>
       <c r="D174" s="10" t="n"/>
-      <c r="E174" s="10" t="n"/>
+      <c r="E174" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F174" s="11" t="n"/>
       <c r="G174" s="12" t="n"/>
       <c r="H174" s="12" t="n"/>
@@ -6167,7 +6868,11 @@
         <v>1913.3171295</v>
       </c>
       <c r="D175" s="10" t="n"/>
-      <c r="E175" s="10" t="n"/>
+      <c r="E175" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F175" s="11" t="n"/>
       <c r="G175" s="12" t="n"/>
       <c r="H175" s="12" t="n"/>
@@ -6199,7 +6904,11 @@
         <v>1812.8403065</v>
       </c>
       <c r="D176" s="10" t="n"/>
-      <c r="E176" s="10" t="n"/>
+      <c r="E176" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F176" s="11" t="n"/>
       <c r="G176" s="12" t="n"/>
       <c r="H176" s="12" t="n"/>
@@ -6231,7 +6940,11 @@
         <v>1761.7503965</v>
       </c>
       <c r="D177" s="10" t="n"/>
-      <c r="E177" s="10" t="n"/>
+      <c r="E177" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F177" s="11" t="n"/>
       <c r="G177" s="12" t="n"/>
       <c r="H177" s="12" t="n"/>
@@ -6263,7 +6976,11 @@
         <v>1731.947949</v>
       </c>
       <c r="D178" s="10" t="n"/>
-      <c r="E178" s="10" t="n"/>
+      <c r="E178" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F178" s="11" t="n"/>
       <c r="G178" s="12" t="n"/>
       <c r="H178" s="12" t="n"/>
@@ -6295,7 +7012,11 @@
         <v>1722.5814655</v>
       </c>
       <c r="D179" s="10" t="n"/>
-      <c r="E179" s="10" t="n"/>
+      <c r="E179" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F179" s="11" t="n"/>
       <c r="G179" s="12" t="n"/>
       <c r="H179" s="12" t="n"/>
@@ -6327,7 +7048,11 @@
         <v>1706.402994</v>
       </c>
       <c r="D180" s="10" t="n"/>
-      <c r="E180" s="10" t="n"/>
+      <c r="E180" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F180" s="11" t="n"/>
       <c r="G180" s="12" t="n"/>
       <c r="H180" s="12" t="n"/>
@@ -6359,7 +7084,11 @@
         <v>1678.3035435</v>
       </c>
       <c r="D181" s="10" t="n"/>
-      <c r="E181" s="10" t="n"/>
+      <c r="E181" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F181" s="11" t="n"/>
       <c r="G181" s="12" t="n"/>
       <c r="H181" s="12" t="n"/>
@@ -6391,7 +7120,11 @@
         <v>1658.719078</v>
       </c>
       <c r="D182" s="10" t="n"/>
-      <c r="E182" s="10" t="n"/>
+      <c r="E182" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F182" s="11" t="n"/>
       <c r="G182" s="12" t="n"/>
       <c r="H182" s="12" t="n"/>
@@ -6423,7 +7156,11 @@
         <v>1654.4615855</v>
       </c>
       <c r="D183" s="10" t="n"/>
-      <c r="E183" s="10" t="n"/>
+      <c r="E183" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F183" s="11" t="n"/>
       <c r="G183" s="12" t="n"/>
       <c r="H183" s="12" t="n"/>
@@ -6455,7 +7192,11 @@
         <v>1654.4615855</v>
       </c>
       <c r="D184" s="10" t="n"/>
-      <c r="E184" s="10" t="n"/>
+      <c r="E184" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F184" s="11" t="n"/>
       <c r="G184" s="12" t="n"/>
       <c r="H184" s="12" t="n"/>
@@ -6487,7 +7228,11 @@
         <v>1645.9466005</v>
       </c>
       <c r="D185" s="10" t="n"/>
-      <c r="E185" s="10" t="n"/>
+      <c r="E185" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F185" s="11" t="n"/>
       <c r="G185" s="12" t="n"/>
       <c r="H185" s="12" t="n"/>
@@ -6519,7 +7264,11 @@
         <v>1548.8757715</v>
       </c>
       <c r="D186" s="10" t="n"/>
-      <c r="E186" s="10" t="n"/>
+      <c r="E186" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F186" s="11" t="n"/>
       <c r="G186" s="12" t="n"/>
       <c r="H186" s="12" t="n"/>
@@ -6551,7 +7300,11 @@
         <v>1536.103294</v>
       </c>
       <c r="D187" s="10" t="n"/>
-      <c r="E187" s="10" t="n"/>
+      <c r="E187" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F187" s="11" t="n"/>
       <c r="G187" s="12" t="n"/>
       <c r="H187" s="12" t="n"/>
@@ -6583,7 +7336,11 @@
         <v>1492.6768705</v>
       </c>
       <c r="D188" s="10" t="n"/>
-      <c r="E188" s="10" t="n"/>
+      <c r="E188" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F188" s="11" t="n"/>
       <c r="G188" s="12" t="n"/>
       <c r="H188" s="12" t="n"/>
@@ -6615,7 +7372,11 @@
         <v>1418.596501</v>
       </c>
       <c r="D189" s="10" t="n"/>
-      <c r="E189" s="10" t="n"/>
+      <c r="E189" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F189" s="11" t="n"/>
       <c r="G189" s="12" t="n"/>
       <c r="H189" s="12" t="n"/>
@@ -6647,7 +7408,11 @@
         <v>1405.8240235</v>
       </c>
       <c r="D190" s="10" t="n"/>
-      <c r="E190" s="10" t="n"/>
+      <c r="E190" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F190" s="11" t="n"/>
       <c r="G190" s="12" t="n"/>
       <c r="H190" s="12" t="n"/>
@@ -6679,7 +7444,11 @@
         <v>1363.2490985</v>
       </c>
       <c r="D191" s="10" t="n"/>
-      <c r="E191" s="10" t="n"/>
+      <c r="E191" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F191" s="11" t="n"/>
       <c r="G191" s="12" t="n"/>
       <c r="H191" s="12" t="n"/>
@@ -6711,7 +7480,11 @@
         <v>1337.7041435</v>
       </c>
       <c r="D192" s="10" t="n"/>
-      <c r="E192" s="10" t="n"/>
+      <c r="E192" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F192" s="11" t="n"/>
       <c r="G192" s="12" t="n"/>
       <c r="H192" s="12" t="n"/>
@@ -6743,7 +7516,11 @@
         <v>1326.634663</v>
       </c>
       <c r="D193" s="10" t="n"/>
-      <c r="E193" s="10" t="n"/>
+      <c r="E193" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F193" s="11" t="n"/>
       <c r="G193" s="12" t="n"/>
       <c r="H193" s="12" t="n"/>
@@ -6775,7 +7552,11 @@
         <v>1307.901696</v>
       </c>
       <c r="D194" s="10" t="n"/>
-      <c r="E194" s="10" t="n"/>
+      <c r="E194" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F194" s="11" t="n"/>
       <c r="G194" s="12" t="n"/>
       <c r="H194" s="12" t="n"/>
@@ -6807,7 +7588,11 @@
         <v>1287.465732</v>
       </c>
       <c r="D195" s="10" t="n"/>
-      <c r="E195" s="10" t="n"/>
+      <c r="E195" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F195" s="11" t="n"/>
       <c r="G195" s="12" t="n"/>
       <c r="H195" s="12" t="n"/>
@@ -6839,7 +7624,11 @@
         <v>1253.405792</v>
       </c>
       <c r="D196" s="10" t="n"/>
-      <c r="E196" s="10" t="n"/>
+      <c r="E196" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F196" s="11" t="n"/>
       <c r="G196" s="12" t="n"/>
       <c r="H196" s="12" t="n"/>
@@ -6871,7 +7660,11 @@
         <v>1219.345852</v>
       </c>
       <c r="D197" s="10" t="n"/>
-      <c r="E197" s="10" t="n"/>
+      <c r="E197" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F197" s="11" t="n"/>
       <c r="G197" s="12" t="n"/>
       <c r="H197" s="12" t="n"/>
@@ -6903,7 +7696,11 @@
         <v>1179.3254225</v>
       </c>
       <c r="D198" s="10" t="n"/>
-      <c r="E198" s="10" t="n"/>
+      <c r="E198" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F198" s="11" t="n"/>
       <c r="G198" s="12" t="n"/>
       <c r="H198" s="12" t="n"/>
@@ -6935,7 +7732,11 @@
         <v>1162.2954525</v>
       </c>
       <c r="D199" s="10" t="n"/>
-      <c r="E199" s="10" t="n"/>
+      <c r="E199" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F199" s="11" t="n"/>
       <c r="G199" s="12" t="n"/>
       <c r="H199" s="12" t="n"/>
@@ -6967,7 +7768,11 @@
         <v>1158.03796</v>
       </c>
       <c r="D200" s="10" t="n"/>
-      <c r="E200" s="10" t="n"/>
+      <c r="E200" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F200" s="11" t="n"/>
       <c r="G200" s="12" t="n"/>
       <c r="H200" s="12" t="n"/>
@@ -6999,7 +7804,11 @@
         <v>1150.3744735</v>
       </c>
       <c r="D201" s="10" t="n"/>
-      <c r="E201" s="10" t="n"/>
+      <c r="E201" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F201" s="11" t="n"/>
       <c r="G201" s="12" t="n"/>
       <c r="H201" s="12" t="n"/>
@@ -7031,7 +7840,11 @@
         <v>1135.0475005</v>
       </c>
       <c r="D202" s="10" t="n"/>
-      <c r="E202" s="10" t="n"/>
+      <c r="E202" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F202" s="11" t="n"/>
       <c r="G202" s="12" t="n"/>
       <c r="H202" s="12" t="n"/>
@@ -7063,7 +7876,11 @@
         <v>1106.94805</v>
       </c>
       <c r="D203" s="10" t="n"/>
-      <c r="E203" s="10" t="n"/>
+      <c r="E203" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F203" s="11" t="n"/>
       <c r="G203" s="12" t="n"/>
       <c r="H203" s="12" t="n"/>
@@ -7095,7 +7912,11 @@
         <v>1079.700098</v>
       </c>
       <c r="D204" s="10" t="n"/>
-      <c r="E204" s="10" t="n"/>
+      <c r="E204" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F204" s="11" t="n"/>
       <c r="G204" s="12" t="n"/>
       <c r="H204" s="12" t="n"/>
@@ -7127,7 +7948,11 @@
         <v>1064.373125</v>
       </c>
       <c r="D205" s="10" t="n"/>
-      <c r="E205" s="10" t="n"/>
+      <c r="E205" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F205" s="11" t="n"/>
       <c r="G205" s="12" t="n"/>
       <c r="H205" s="12" t="n"/>
@@ -7159,7 +7984,11 @@
         <v>1054.155143</v>
       </c>
       <c r="D206" s="10" t="n"/>
-      <c r="E206" s="10" t="n"/>
+      <c r="E206" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F206" s="11" t="n"/>
       <c r="G206" s="12" t="n"/>
       <c r="H206" s="12" t="n"/>
@@ -7191,7 +8020,11 @@
         <v>1050.749149</v>
       </c>
       <c r="D207" s="10" t="n"/>
-      <c r="E207" s="10" t="n"/>
+      <c r="E207" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F207" s="11" t="n"/>
       <c r="G207" s="12" t="n"/>
       <c r="H207" s="12" t="n"/>
@@ -7223,7 +8056,11 @@
         <v>1011.580218</v>
       </c>
       <c r="D208" s="10" t="n"/>
-      <c r="E208" s="10" t="n"/>
+      <c r="E208" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F208" s="11" t="n"/>
       <c r="G208" s="12" t="n"/>
       <c r="H208" s="12" t="n"/>
@@ -7255,7 +8092,11 @@
         <v>1001.362236</v>
       </c>
       <c r="D209" s="10" t="n"/>
-      <c r="E209" s="10" t="n"/>
+      <c r="E209" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F209" s="11" t="n"/>
       <c r="G209" s="12" t="n"/>
       <c r="H209" s="12" t="n"/>
@@ -7287,7 +8128,11 @@
         <v>992.847251</v>
       </c>
       <c r="D210" s="10" t="n"/>
-      <c r="E210" s="10" t="n"/>
+      <c r="E210" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F210" s="11" t="n"/>
       <c r="G210" s="12" t="n"/>
       <c r="H210" s="12" t="n"/>
@@ -7319,7 +8164,11 @@
         <v>980.926272</v>
       </c>
       <c r="D211" s="10" t="n"/>
-      <c r="E211" s="10" t="n"/>
+      <c r="E211" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F211" s="11" t="n"/>
       <c r="G211" s="12" t="n"/>
       <c r="H211" s="12" t="n"/>
@@ -7351,7 +8200,11 @@
         <v>970.70829</v>
       </c>
       <c r="D212" s="10" t="n"/>
-      <c r="E212" s="10" t="n"/>
+      <c r="E212" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F212" s="11" t="n"/>
       <c r="G212" s="12" t="n"/>
       <c r="H212" s="12" t="n"/>
@@ -7383,7 +8236,11 @@
         <v>961.3418065000001</v>
       </c>
       <c r="D213" s="10" t="n"/>
-      <c r="E213" s="10" t="n"/>
+      <c r="E213" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F213" s="11" t="n"/>
       <c r="G213" s="12" t="n"/>
       <c r="H213" s="12" t="n"/>
@@ -7415,7 +8272,11 @@
         <v>923.0243740000001</v>
       </c>
       <c r="D214" s="10" t="n"/>
-      <c r="E214" s="10" t="n"/>
+      <c r="E214" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F214" s="11" t="n"/>
       <c r="G214" s="12" t="n"/>
       <c r="H214" s="12" t="n"/>
@@ -7447,7 +8308,11 @@
         <v>920.4698785</v>
       </c>
       <c r="D215" s="10" t="n"/>
-      <c r="E215" s="10" t="n"/>
+      <c r="E215" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F215" s="11" t="n"/>
       <c r="G215" s="12" t="n"/>
       <c r="H215" s="12" t="n"/>
@@ -7479,7 +8344,11 @@
         <v>919.61838</v>
       </c>
       <c r="D216" s="10" t="n"/>
-      <c r="E216" s="10" t="n"/>
+      <c r="E216" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F216" s="11" t="n"/>
       <c r="G216" s="12" t="n"/>
       <c r="H216" s="12" t="n"/>
@@ -7511,7 +8380,11 @@
         <v>907.697401</v>
       </c>
       <c r="D217" s="10" t="n"/>
-      <c r="E217" s="10" t="n"/>
+      <c r="E217" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F217" s="11" t="n"/>
       <c r="G217" s="12" t="n"/>
       <c r="H217" s="12" t="n"/>
@@ -7543,7 +8416,11 @@
         <v>851.4985</v>
       </c>
       <c r="D218" s="10" t="n"/>
-      <c r="E218" s="10" t="n"/>
+      <c r="E218" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F218" s="11" t="n"/>
       <c r="G218" s="12" t="n"/>
       <c r="H218" s="12" t="n"/>
@@ -7575,7 +8452,11 @@
         <v>850.6470015000001</v>
       </c>
       <c r="D219" s="10" t="n"/>
-      <c r="E219" s="10" t="n"/>
+      <c r="E219" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F219" s="11" t="n"/>
       <c r="G219" s="12" t="n"/>
       <c r="H219" s="12" t="n"/>
@@ -7607,7 +8488,11 @@
         <v>849.7955030000001</v>
       </c>
       <c r="D220" s="10" t="n"/>
-      <c r="E220" s="10" t="n"/>
+      <c r="E220" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F220" s="11" t="n"/>
       <c r="G220" s="12" t="n"/>
       <c r="H220" s="12" t="n"/>
@@ -7639,7 +8524,11 @@
         <v>832.765533</v>
       </c>
       <c r="D221" s="10" t="n"/>
-      <c r="E221" s="10" t="n"/>
+      <c r="E221" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F221" s="11" t="n"/>
       <c r="G221" s="12" t="n"/>
       <c r="H221" s="12" t="n"/>
@@ -7671,7 +8560,11 @@
         <v>831.9140345000001</v>
       </c>
       <c r="D222" s="10" t="n"/>
-      <c r="E222" s="10" t="n"/>
+      <c r="E222" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F222" s="11" t="n"/>
       <c r="G222" s="12" t="n"/>
       <c r="H222" s="12" t="n"/>
@@ -7703,7 +8596,11 @@
         <v>822.547551</v>
       </c>
       <c r="D223" s="10" t="n"/>
-      <c r="E223" s="10" t="n"/>
+      <c r="E223" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F223" s="11" t="n"/>
       <c r="G223" s="12" t="n"/>
       <c r="H223" s="12" t="n"/>
@@ -7735,7 +8632,11 @@
         <v>814.0325660000001</v>
       </c>
       <c r="D224" s="10" t="n"/>
-      <c r="E224" s="10" t="n"/>
+      <c r="E224" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F224" s="11" t="n"/>
       <c r="G224" s="12" t="n"/>
       <c r="H224" s="12" t="n"/>
@@ -7767,7 +8668,11 @@
         <v>805.5175810000001</v>
       </c>
       <c r="D225" s="10" t="n"/>
-      <c r="E225" s="10" t="n"/>
+      <c r="E225" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F225" s="11" t="n"/>
       <c r="G225" s="12" t="n"/>
       <c r="H225" s="12" t="n"/>
@@ -7799,7 +8704,11 @@
         <v>802.9630855</v>
       </c>
       <c r="D226" s="10" t="n"/>
-      <c r="E226" s="10" t="n"/>
+      <c r="E226" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F226" s="11" t="n"/>
       <c r="G226" s="12" t="n"/>
       <c r="H226" s="12" t="n"/>
@@ -7831,7 +8740,11 @@
         <v>797.002596</v>
       </c>
       <c r="D227" s="10" t="n"/>
-      <c r="E227" s="10" t="n"/>
+      <c r="E227" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F227" s="11" t="n"/>
       <c r="G227" s="12" t="n"/>
       <c r="H227" s="12" t="n"/>
@@ -7863,7 +8776,11 @@
         <v>765.4971515000001</v>
       </c>
       <c r="D228" s="10" t="n"/>
-      <c r="E228" s="10" t="n"/>
+      <c r="E228" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F228" s="11" t="n"/>
       <c r="G228" s="12" t="n"/>
       <c r="H228" s="12" t="n"/>
@@ -7895,7 +8812,11 @@
         <v>763.7941545</v>
       </c>
       <c r="D229" s="10" t="n"/>
-      <c r="E229" s="10" t="n"/>
+      <c r="E229" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F229" s="11" t="n"/>
       <c r="G229" s="12" t="n"/>
       <c r="H229" s="12" t="n"/>
@@ -7927,7 +8848,11 @@
         <v>681.1988</v>
       </c>
       <c r="D230" s="10" t="n"/>
-      <c r="E230" s="10" t="n"/>
+      <c r="E230" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F230" s="11" t="n"/>
       <c r="G230" s="12" t="n"/>
       <c r="H230" s="12" t="n"/>
@@ -7959,7 +8884,11 @@
         <v>681.1988</v>
       </c>
       <c r="D231" s="10" t="n"/>
-      <c r="E231" s="10" t="n"/>
+      <c r="E231" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F231" s="11" t="n"/>
       <c r="G231" s="12" t="n"/>
       <c r="H231" s="12" t="n"/>
@@ -7991,7 +8920,11 @@
         <v>670.1293195000001</v>
       </c>
       <c r="D232" s="10" t="n"/>
-      <c r="E232" s="10" t="n"/>
+      <c r="E232" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F232" s="11" t="n"/>
       <c r="G232" s="12" t="n"/>
       <c r="H232" s="12" t="n"/>
@@ -8023,7 +8956,11 @@
         <v>669.277821</v>
       </c>
       <c r="D233" s="10" t="n"/>
-      <c r="E233" s="10" t="n"/>
+      <c r="E233" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F233" s="11" t="n"/>
       <c r="G233" s="12" t="n"/>
       <c r="H233" s="12" t="n"/>
@@ -8055,7 +8992,11 @@
         <v>664.1688300000001</v>
       </c>
       <c r="D234" s="10" t="n"/>
-      <c r="E234" s="10" t="n"/>
+      <c r="E234" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F234" s="11" t="n"/>
       <c r="G234" s="12" t="n"/>
       <c r="H234" s="12" t="n"/>
@@ -8087,7 +9028,11 @@
         <v>662.4658330000001</v>
       </c>
       <c r="D235" s="10" t="n"/>
-      <c r="E235" s="10" t="n"/>
+      <c r="E235" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F235" s="11" t="n"/>
       <c r="G235" s="12" t="n"/>
       <c r="H235" s="12" t="n"/>
@@ -8119,7 +9064,11 @@
         <v>662.4658330000001</v>
       </c>
       <c r="D236" s="10" t="n"/>
-      <c r="E236" s="10" t="n"/>
+      <c r="E236" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F236" s="11" t="n"/>
       <c r="G236" s="12" t="n"/>
       <c r="H236" s="12" t="n"/>
@@ -8151,7 +9100,11 @@
         <v>613.07892</v>
       </c>
       <c r="D237" s="10" t="n"/>
-      <c r="E237" s="10" t="n"/>
+      <c r="E237" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F237" s="11" t="n"/>
       <c r="G237" s="12" t="n"/>
       <c r="H237" s="12" t="n"/>
@@ -8183,7 +9136,11 @@
         <v>609.6729260000001</v>
       </c>
       <c r="D238" s="10" t="n"/>
-      <c r="E238" s="10" t="n"/>
+      <c r="E238" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F238" s="11" t="n"/>
       <c r="G238" s="12" t="n"/>
       <c r="H238" s="12" t="n"/>
@@ -8215,7 +9172,11 @@
         <v>596.04895</v>
       </c>
       <c r="D239" s="10" t="n"/>
-      <c r="E239" s="10" t="n"/>
+      <c r="E239" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F239" s="11" t="n"/>
       <c r="G239" s="12" t="n"/>
       <c r="H239" s="12" t="n"/>
@@ -8247,7 +9208,11 @@
         <v>580.721977</v>
       </c>
       <c r="D240" s="10" t="n"/>
-      <c r="E240" s="10" t="n"/>
+      <c r="E240" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F240" s="11" t="n"/>
       <c r="G240" s="12" t="n"/>
       <c r="H240" s="12" t="n"/>
@@ -8279,7 +9244,11 @@
         <v>567.9494995</v>
       </c>
       <c r="D241" s="10" t="n"/>
-      <c r="E241" s="10" t="n"/>
+      <c r="E241" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F241" s="11" t="n"/>
       <c r="G241" s="12" t="n"/>
       <c r="H241" s="12" t="n"/>
@@ -8311,7 +9280,11 @@
         <v>567.0980010000001</v>
       </c>
       <c r="D242" s="10" t="n"/>
-      <c r="E242" s="10" t="n"/>
+      <c r="E242" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F242" s="11" t="n"/>
       <c r="G242" s="12" t="n"/>
       <c r="H242" s="12" t="n"/>
@@ -8343,7 +9316,11 @@
         <v>565.3950040000001</v>
       </c>
       <c r="D243" s="10" t="n"/>
-      <c r="E243" s="10" t="n"/>
+      <c r="E243" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F243" s="11" t="n"/>
       <c r="G243" s="12" t="n"/>
       <c r="H243" s="12" t="n"/>
@@ -8375,7 +9352,11 @@
         <v>534.7410580000001</v>
       </c>
       <c r="D244" s="10" t="n"/>
-      <c r="E244" s="10" t="n"/>
+      <c r="E244" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F244" s="11" t="n"/>
       <c r="G244" s="12" t="n"/>
       <c r="H244" s="12" t="n"/>
@@ -8407,7 +9388,11 @@
         <v>533.8895595</v>
       </c>
       <c r="D245" s="10" t="n"/>
-      <c r="E245" s="10" t="n"/>
+      <c r="E245" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F245" s="11" t="n"/>
       <c r="G245" s="12" t="n"/>
       <c r="H245" s="12" t="n"/>
@@ -8439,7 +9424,11 @@
         <v>523.6715775</v>
       </c>
       <c r="D246" s="10" t="n"/>
-      <c r="E246" s="10" t="n"/>
+      <c r="E246" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F246" s="11" t="n"/>
       <c r="G246" s="12" t="n"/>
       <c r="H246" s="12" t="n"/>
@@ -8471,7 +9460,11 @@
         <v>522.8200790000001</v>
       </c>
       <c r="D247" s="10" t="n"/>
-      <c r="E247" s="10" t="n"/>
+      <c r="E247" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F247" s="11" t="n"/>
       <c r="G247" s="12" t="n"/>
       <c r="H247" s="12" t="n"/>
@@ -8503,7 +9496,11 @@
         <v>511.7505985</v>
       </c>
       <c r="D248" s="10" t="n"/>
-      <c r="E248" s="10" t="n"/>
+      <c r="E248" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F248" s="11" t="n"/>
       <c r="G248" s="12" t="n"/>
       <c r="H248" s="12" t="n"/>
@@ -8535,7 +9532,11 @@
         <v>510.0476015</v>
       </c>
       <c r="D249" s="10" t="n"/>
-      <c r="E249" s="10" t="n"/>
+      <c r="E249" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F249" s="11" t="n"/>
       <c r="G249" s="12" t="n"/>
       <c r="H249" s="12" t="n"/>
@@ -8567,7 +9568,11 @@
         <v>501.5326165</v>
       </c>
       <c r="D250" s="10" t="n"/>
-      <c r="E250" s="10" t="n"/>
+      <c r="E250" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F250" s="11" t="n"/>
       <c r="G250" s="12" t="n"/>
       <c r="H250" s="12" t="n"/>
@@ -8599,7 +9604,11 @@
         <v>490.463136</v>
       </c>
       <c r="D251" s="10" t="n"/>
-      <c r="E251" s="10" t="n"/>
+      <c r="E251" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F251" s="11" t="n"/>
       <c r="G251" s="12" t="n"/>
       <c r="H251" s="12" t="n"/>
@@ -8631,7 +9640,11 @@
         <v>486.2056435</v>
       </c>
       <c r="D252" s="10" t="n"/>
-      <c r="E252" s="10" t="n"/>
+      <c r="E252" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F252" s="11" t="n"/>
       <c r="G252" s="12" t="n"/>
       <c r="H252" s="12" t="n"/>
@@ -8663,7 +9676,11 @@
         <v>482.7996495</v>
       </c>
       <c r="D253" s="10" t="n"/>
-      <c r="E253" s="10" t="n"/>
+      <c r="E253" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F253" s="11" t="n"/>
       <c r="G253" s="12" t="n"/>
       <c r="H253" s="12" t="n"/>
@@ -8695,7 +9712,11 @@
         <v>482.7996495</v>
       </c>
       <c r="D254" s="10" t="n"/>
-      <c r="E254" s="10" t="n"/>
+      <c r="E254" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F254" s="11" t="n"/>
       <c r="G254" s="12" t="n"/>
       <c r="H254" s="12" t="n"/>
@@ -8727,7 +9748,11 @@
         <v>474.2846645</v>
       </c>
       <c r="D255" s="10" t="n"/>
-      <c r="E255" s="10" t="n"/>
+      <c r="E255" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F255" s="11" t="n"/>
       <c r="G255" s="12" t="n"/>
       <c r="H255" s="12" t="n"/>
@@ -8759,7 +9784,11 @@
         <v>472.5816675</v>
       </c>
       <c r="D256" s="10" t="n"/>
-      <c r="E256" s="10" t="n"/>
+      <c r="E256" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F256" s="11" t="n"/>
       <c r="G256" s="12" t="n"/>
       <c r="H256" s="12" t="n"/>
@@ -8791,7 +9820,11 @@
         <v>472.5816675</v>
       </c>
       <c r="D257" s="10" t="n"/>
-      <c r="E257" s="10" t="n"/>
+      <c r="E257" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F257" s="11" t="n"/>
       <c r="G257" s="12" t="n"/>
       <c r="H257" s="12" t="n"/>
@@ -8823,7 +9856,11 @@
         <v>466.621178</v>
       </c>
       <c r="D258" s="10" t="n"/>
-      <c r="E258" s="10" t="n"/>
+      <c r="E258" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F258" s="11" t="n"/>
       <c r="G258" s="12" t="n"/>
       <c r="H258" s="12" t="n"/>
@@ -8855,7 +9892,11 @@
         <v>459.80919</v>
       </c>
       <c r="D259" s="10" t="n"/>
-      <c r="E259" s="10" t="n"/>
+      <c r="E259" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F259" s="11" t="n"/>
       <c r="G259" s="12" t="n"/>
       <c r="H259" s="12" t="n"/>
@@ -8887,7 +9928,11 @@
         <v>458.106193</v>
       </c>
       <c r="D260" s="10" t="n"/>
-      <c r="E260" s="10" t="n"/>
+      <c r="E260" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F260" s="11" t="n"/>
       <c r="G260" s="12" t="n"/>
       <c r="H260" s="12" t="n"/>
@@ -8919,7 +9964,11 @@
         <v>457.2546945</v>
       </c>
       <c r="D261" s="10" t="n"/>
-      <c r="E261" s="10" t="n"/>
+      <c r="E261" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F261" s="11" t="n"/>
       <c r="G261" s="12" t="n"/>
       <c r="H261" s="12" t="n"/>
@@ -8951,7 +10000,11 @@
         <v>433.4127365000001</v>
       </c>
       <c r="D262" s="10" t="n"/>
-      <c r="E262" s="10" t="n"/>
+      <c r="E262" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F262" s="11" t="n"/>
       <c r="G262" s="12" t="n"/>
       <c r="H262" s="12" t="n"/>
@@ -8983,7 +10036,11 @@
         <v>431.7097395</v>
       </c>
       <c r="D263" s="10" t="n"/>
-      <c r="E263" s="10" t="n"/>
+      <c r="E263" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F263" s="11" t="n"/>
       <c r="G263" s="12" t="n"/>
       <c r="H263" s="12" t="n"/>
@@ -9015,7 +10072,11 @@
         <v>426.6007485</v>
       </c>
       <c r="D264" s="10" t="n"/>
-      <c r="E264" s="10" t="n"/>
+      <c r="E264" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F264" s="11" t="n"/>
       <c r="G264" s="12" t="n"/>
       <c r="H264" s="12" t="n"/>
@@ -9047,7 +10108,11 @@
         <v>425.74925</v>
       </c>
       <c r="D265" s="10" t="n"/>
-      <c r="E265" s="10" t="n"/>
+      <c r="E265" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F265" s="11" t="n"/>
       <c r="G265" s="12" t="n"/>
       <c r="H265" s="12" t="n"/>
@@ -9079,7 +10144,11 @@
         <v>412.125274</v>
       </c>
       <c r="D266" s="10" t="n"/>
-      <c r="E266" s="10" t="n"/>
+      <c r="E266" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F266" s="11" t="n"/>
       <c r="G266" s="12" t="n"/>
       <c r="H266" s="12" t="n"/>
@@ -9111,7 +10180,11 @@
         <v>378.065334</v>
       </c>
       <c r="D267" s="10" t="n"/>
-      <c r="E267" s="10" t="n"/>
+      <c r="E267" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F267" s="11" t="n"/>
       <c r="G267" s="12" t="n"/>
       <c r="H267" s="12" t="n"/>
@@ -9143,7 +10216,11 @@
         <v>378.065334</v>
       </c>
       <c r="D268" s="10" t="n"/>
-      <c r="E268" s="10" t="n"/>
+      <c r="E268" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F268" s="11" t="n"/>
       <c r="G268" s="12" t="n"/>
       <c r="H268" s="12" t="n"/>
@@ -9175,7 +10252,11 @@
         <v>371.253346</v>
       </c>
       <c r="D269" s="10" t="n"/>
-      <c r="E269" s="10" t="n"/>
+      <c r="E269" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F269" s="11" t="n"/>
       <c r="G269" s="12" t="n"/>
       <c r="H269" s="12" t="n"/>
@@ -9207,7 +10288,11 @@
         <v>363.5898595</v>
       </c>
       <c r="D270" s="10" t="n"/>
-      <c r="E270" s="10" t="n"/>
+      <c r="E270" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F270" s="11" t="n"/>
       <c r="G270" s="12" t="n"/>
       <c r="H270" s="12" t="n"/>
@@ -9239,7 +10324,11 @@
         <v>357.62937</v>
       </c>
       <c r="D271" s="10" t="n"/>
-      <c r="E271" s="10" t="n"/>
+      <c r="E271" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F271" s="11" t="n"/>
       <c r="G271" s="12" t="n"/>
       <c r="H271" s="12" t="n"/>
@@ -9271,7 +10360,11 @@
         <v>357.62937</v>
       </c>
       <c r="D272" s="10" t="n"/>
-      <c r="E272" s="10" t="n"/>
+      <c r="E272" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F272" s="11" t="n"/>
       <c r="G272" s="12" t="n"/>
       <c r="H272" s="12" t="n"/>
@@ -9303,7 +10396,11 @@
         <v>346.5598895</v>
       </c>
       <c r="D273" s="10" t="n"/>
-      <c r="E273" s="10" t="n"/>
+      <c r="E273" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F273" s="11" t="n"/>
       <c r="G273" s="12" t="n"/>
       <c r="H273" s="12" t="n"/>
@@ -9335,7 +10432,11 @@
         <v>340.5994</v>
       </c>
       <c r="D274" s="10" t="n"/>
-      <c r="E274" s="10" t="n"/>
+      <c r="E274" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F274" s="11" t="n"/>
       <c r="G274" s="12" t="n"/>
       <c r="H274" s="12" t="n"/>
@@ -9367,7 +10468,11 @@
         <v>338.896403</v>
       </c>
       <c r="D275" s="10" t="n"/>
-      <c r="E275" s="10" t="n"/>
+      <c r="E275" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F275" s="11" t="n"/>
       <c r="G275" s="12" t="n"/>
       <c r="H275" s="12" t="n"/>
@@ -9399,7 +10504,11 @@
         <v>318.460439</v>
       </c>
       <c r="D276" s="10" t="n"/>
-      <c r="E276" s="10" t="n"/>
+      <c r="E276" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F276" s="11" t="n"/>
       <c r="G276" s="12" t="n"/>
       <c r="H276" s="12" t="n"/>
@@ -9431,7 +10540,11 @@
         <v>315.054445</v>
       </c>
       <c r="D277" s="10" t="n"/>
-      <c r="E277" s="10" t="n"/>
+      <c r="E277" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F277" s="11" t="n"/>
       <c r="G277" s="12" t="n"/>
       <c r="H277" s="12" t="n"/>
@@ -9463,7 +10576,11 @@
         <v>311.648451</v>
       </c>
       <c r="D278" s="10" t="n"/>
-      <c r="E278" s="10" t="n"/>
+      <c r="E278" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F278" s="11" t="n"/>
       <c r="G278" s="12" t="n"/>
       <c r="H278" s="12" t="n"/>
@@ -9495,7 +10612,11 @@
         <v>307.3909585</v>
       </c>
       <c r="D279" s="10" t="n"/>
-      <c r="E279" s="10" t="n"/>
+      <c r="E279" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F279" s="11" t="n"/>
       <c r="G279" s="12" t="n"/>
       <c r="H279" s="12" t="n"/>
@@ -9527,7 +10648,11 @@
         <v>302.2819675</v>
       </c>
       <c r="D280" s="10" t="n"/>
-      <c r="E280" s="10" t="n"/>
+      <c r="E280" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F280" s="11" t="n"/>
       <c r="G280" s="12" t="n"/>
       <c r="H280" s="12" t="n"/>
@@ -9559,7 +10684,11 @@
         <v>301.430469</v>
       </c>
       <c r="D281" s="10" t="n"/>
-      <c r="E281" s="10" t="n"/>
+      <c r="E281" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F281" s="11" t="n"/>
       <c r="G281" s="12" t="n"/>
       <c r="H281" s="12" t="n"/>
@@ -9591,7 +10720,11 @@
         <v>286.9549945</v>
       </c>
       <c r="D282" s="10" t="n"/>
-      <c r="E282" s="10" t="n"/>
+      <c r="E282" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F282" s="11" t="n"/>
       <c r="G282" s="12" t="n"/>
       <c r="H282" s="12" t="n"/>
@@ -9623,7 +10756,11 @@
         <v>283.5490005</v>
       </c>
       <c r="D283" s="10" t="n"/>
-      <c r="E283" s="10" t="n"/>
+      <c r="E283" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F283" s="11" t="n"/>
       <c r="G283" s="12" t="n"/>
       <c r="H283" s="12" t="n"/>
@@ -9655,7 +10792,11 @@
         <v>280.994505</v>
       </c>
       <c r="D284" s="10" t="n"/>
-      <c r="E284" s="10" t="n"/>
+      <c r="E284" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F284" s="11" t="n"/>
       <c r="G284" s="12" t="n"/>
       <c r="H284" s="12" t="n"/>
@@ -9687,7 +10828,11 @@
         <v>273.3310185</v>
       </c>
       <c r="D285" s="10" t="n"/>
-      <c r="E285" s="10" t="n"/>
+      <c r="E285" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F285" s="11" t="n"/>
       <c r="G285" s="12" t="n"/>
       <c r="H285" s="12" t="n"/>
@@ -9719,7 +10864,11 @@
         <v>264.8160335</v>
       </c>
       <c r="D286" s="10" t="n"/>
-      <c r="E286" s="10" t="n"/>
+      <c r="E286" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F286" s="11" t="n"/>
       <c r="G286" s="12" t="n"/>
       <c r="H286" s="12" t="n"/>
@@ -9751,7 +10900,11 @@
         <v>263.1130365</v>
       </c>
       <c r="D287" s="10" t="n"/>
-      <c r="E287" s="10" t="n"/>
+      <c r="E287" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F287" s="11" t="n"/>
       <c r="G287" s="12" t="n"/>
       <c r="H287" s="12" t="n"/>
@@ -9783,7 +10936,11 @@
         <v>263.1130365</v>
       </c>
       <c r="D288" s="10" t="n"/>
-      <c r="E288" s="10" t="n"/>
+      <c r="E288" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F288" s="11" t="n"/>
       <c r="G288" s="12" t="n"/>
       <c r="H288" s="12" t="n"/>
@@ -9815,7 +10972,11 @@
         <v>258.855544</v>
       </c>
       <c r="D289" s="10" t="n"/>
-      <c r="E289" s="10" t="n"/>
+      <c r="E289" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F289" s="11" t="n"/>
       <c r="G289" s="12" t="n"/>
       <c r="H289" s="12" t="n"/>
@@ -9847,7 +11008,11 @@
         <v>240.9740755</v>
       </c>
       <c r="D290" s="10" t="n"/>
-      <c r="E290" s="10" t="n"/>
+      <c r="E290" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F290" s="11" t="n"/>
       <c r="G290" s="12" t="n"/>
       <c r="H290" s="12" t="n"/>
@@ -9879,7 +11044,11 @@
         <v>233.310589</v>
       </c>
       <c r="D291" s="10" t="n"/>
-      <c r="E291" s="10" t="n"/>
+      <c r="E291" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F291" s="11" t="n"/>
       <c r="G291" s="12" t="n"/>
       <c r="H291" s="12" t="n"/>
@@ -9911,7 +11080,11 @@
         <v>247.877645215</v>
       </c>
       <c r="D292" s="10" t="n"/>
-      <c r="E292" s="10" t="n"/>
+      <c r="E292" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F292" s="11" t="n"/>
       <c r="G292" s="12" t="n"/>
       <c r="H292" s="12" t="n"/>
@@ -9943,7 +11116,11 @@
         <v>240.505819335</v>
       </c>
       <c r="D293" s="10" t="n"/>
-      <c r="E293" s="10" t="n"/>
+      <c r="E293" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F293" s="11" t="n"/>
       <c r="G293" s="12" t="n"/>
       <c r="H293" s="12" t="n"/>
@@ -9975,7 +11152,11 @@
         <v>234.976949925</v>
       </c>
       <c r="D294" s="10" t="n"/>
-      <c r="E294" s="10" t="n"/>
+      <c r="E294" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F294" s="11" t="n"/>
       <c r="G294" s="12" t="n"/>
       <c r="H294" s="12" t="n"/>
@@ -10007,7 +11188,11 @@
         <v>225.762167575</v>
       </c>
       <c r="D295" s="10" t="n"/>
-      <c r="E295" s="10" t="n"/>
+      <c r="E295" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F295" s="11" t="n"/>
       <c r="G295" s="12" t="n"/>
       <c r="H295" s="12" t="n"/>
@@ -10039,7 +11224,11 @@
         <v>224.84068934</v>
       </c>
       <c r="D296" s="10" t="n"/>
-      <c r="E296" s="10" t="n"/>
+      <c r="E296" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F296" s="11" t="n"/>
       <c r="G296" s="12" t="n"/>
       <c r="H296" s="12" t="n"/>
@@ -10071,7 +11260,11 @@
         <v>223.919211105</v>
       </c>
       <c r="D297" s="10" t="n"/>
-      <c r="E297" s="10" t="n"/>
+      <c r="E297" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F297" s="11" t="n"/>
       <c r="G297" s="12" t="n"/>
       <c r="H297" s="12" t="n"/>
@@ -10103,7 +11296,11 @@
         <v>220.233298165</v>
       </c>
       <c r="D298" s="10" t="n"/>
-      <c r="E298" s="10" t="n"/>
+      <c r="E298" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F298" s="11" t="n"/>
       <c r="G298" s="12" t="n"/>
       <c r="H298" s="12" t="n"/>
@@ -10135,7 +11332,11 @@
         <v>202.7252117</v>
       </c>
       <c r="D299" s="10" t="n"/>
-      <c r="E299" s="10" t="n"/>
+      <c r="E299" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F299" s="11" t="n"/>
       <c r="G299" s="12" t="n"/>
       <c r="H299" s="12" t="n"/>
@@ -10167,7 +11368,11 @@
         <v>199.03929876</v>
       </c>
       <c r="D300" s="10" t="n"/>
-      <c r="E300" s="10" t="n"/>
+      <c r="E300" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F300" s="11" t="n"/>
       <c r="G300" s="12" t="n"/>
       <c r="H300" s="12" t="n"/>
@@ -10199,7 +11404,11 @@
         <v>198.117820525</v>
       </c>
       <c r="D301" s="10" t="n"/>
-      <c r="E301" s="10" t="n"/>
+      <c r="E301" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F301" s="11" t="n"/>
       <c r="G301" s="12" t="n"/>
       <c r="H301" s="12" t="n"/>
@@ -10231,7 +11440,11 @@
         <v>195.35338582</v>
       </c>
       <c r="D302" s="10" t="n"/>
-      <c r="E302" s="10" t="n"/>
+      <c r="E302" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F302" s="11" t="n"/>
       <c r="G302" s="12" t="n"/>
       <c r="H302" s="12" t="n"/>
@@ -10263,7 +11476,11 @@
         <v>190.745994645</v>
       </c>
       <c r="D303" s="10" t="n"/>
-      <c r="E303" s="10" t="n"/>
+      <c r="E303" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F303" s="11" t="n"/>
       <c r="G303" s="12" t="n"/>
       <c r="H303" s="12" t="n"/>
@@ -10295,7 +11512,11 @@
         <v>189.82451641</v>
       </c>
       <c r="D304" s="10" t="n"/>
-      <c r="E304" s="10" t="n"/>
+      <c r="E304" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F304" s="11" t="n"/>
       <c r="G304" s="12" t="n"/>
       <c r="H304" s="12" t="n"/>
@@ -10327,7 +11548,11 @@
         <v>187.98155994</v>
       </c>
       <c r="D305" s="10" t="n"/>
-      <c r="E305" s="10" t="n"/>
+      <c r="E305" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F305" s="11" t="n"/>
       <c r="G305" s="12" t="n"/>
       <c r="H305" s="12" t="n"/>
@@ -10359,7 +11584,11 @@
         <v>183.374168765</v>
       </c>
       <c r="D306" s="10" t="n"/>
-      <c r="E306" s="10" t="n"/>
+      <c r="E306" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F306" s="11" t="n"/>
       <c r="G306" s="12" t="n"/>
       <c r="H306" s="12" t="n"/>
@@ -10391,7 +11620,11 @@
         <v>183.374168765</v>
       </c>
       <c r="D307" s="10" t="n"/>
-      <c r="E307" s="10" t="n"/>
+      <c r="E307" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F307" s="11" t="n"/>
       <c r="G307" s="12" t="n"/>
       <c r="H307" s="12" t="n"/>
@@ -10423,7 +11656,11 @@
         <v>181.531212295</v>
       </c>
       <c r="D308" s="10" t="n"/>
-      <c r="E308" s="10" t="n"/>
+      <c r="E308" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F308" s="11" t="n"/>
       <c r="G308" s="12" t="n"/>
       <c r="H308" s="12" t="n"/>
@@ -10455,7 +11692,11 @@
         <v>177.845299355</v>
       </c>
       <c r="D309" s="10" t="n"/>
-      <c r="E309" s="10" t="n"/>
+      <c r="E309" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F309" s="11" t="n"/>
       <c r="G309" s="12" t="n"/>
       <c r="H309" s="12" t="n"/>
@@ -10487,7 +11728,11 @@
         <v>166.787560535</v>
       </c>
       <c r="D310" s="10" t="n"/>
-      <c r="E310" s="10" t="n"/>
+      <c r="E310" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F310" s="11" t="n"/>
       <c r="G310" s="12" t="n"/>
       <c r="H310" s="12" t="n"/>
@@ -10519,7 +11764,11 @@
         <v>165.8660823</v>
       </c>
       <c r="D311" s="10" t="n"/>
-      <c r="E311" s="10" t="n"/>
+      <c r="E311" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F311" s="11" t="n"/>
       <c r="G311" s="12" t="n"/>
       <c r="H311" s="12" t="n"/>
@@ -10551,7 +11800,11 @@
         <v>164.02312583</v>
       </c>
       <c r="D312" s="10" t="n"/>
-      <c r="E312" s="10" t="n"/>
+      <c r="E312" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F312" s="11" t="n"/>
       <c r="G312" s="12" t="n"/>
       <c r="H312" s="12" t="n"/>
@@ -10583,7 +11836,11 @@
         <v>162.18016936</v>
       </c>
       <c r="D313" s="10" t="n"/>
-      <c r="E313" s="10" t="n"/>
+      <c r="E313" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F313" s="11" t="n"/>
       <c r="G313" s="12" t="n"/>
       <c r="H313" s="12" t="n"/>
@@ -10615,7 +11872,11 @@
         <v>161.258691125</v>
       </c>
       <c r="D314" s="10" t="n"/>
-      <c r="E314" s="10" t="n"/>
+      <c r="E314" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F314" s="11" t="n"/>
       <c r="G314" s="12" t="n"/>
       <c r="H314" s="12" t="n"/>
@@ -10647,7 +11908,11 @@
         <v>159.415734655</v>
       </c>
       <c r="D315" s="10" t="n"/>
-      <c r="E315" s="10" t="n"/>
+      <c r="E315" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F315" s="11" t="n"/>
       <c r="G315" s="12" t="n"/>
       <c r="H315" s="12" t="n"/>
@@ -10679,7 +11944,11 @@
         <v>154.80834348</v>
       </c>
       <c r="D316" s="10" t="n"/>
-      <c r="E316" s="10" t="n"/>
+      <c r="E316" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F316" s="11" t="n"/>
       <c r="G316" s="12" t="n"/>
       <c r="H316" s="12" t="n"/>
@@ -10711,7 +11980,11 @@
         <v>153.886865245</v>
       </c>
       <c r="D317" s="10" t="n"/>
-      <c r="E317" s="10" t="n"/>
+      <c r="E317" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F317" s="11" t="n"/>
       <c r="G317" s="12" t="n"/>
       <c r="H317" s="12" t="n"/>
@@ -10743,7 +12016,11 @@
         <v>153.886865245</v>
       </c>
       <c r="D318" s="10" t="n"/>
-      <c r="E318" s="10" t="n"/>
+      <c r="E318" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F318" s="11" t="n"/>
       <c r="G318" s="12" t="n"/>
       <c r="H318" s="12" t="n"/>
@@ -10775,7 +12052,11 @@
         <v>152.043908775</v>
       </c>
       <c r="D319" s="10" t="n"/>
-      <c r="E319" s="10" t="n"/>
+      <c r="E319" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F319" s="11" t="n"/>
       <c r="G319" s="12" t="n"/>
       <c r="H319" s="12" t="n"/>
@@ -10807,7 +12088,11 @@
         <v>142.829126425</v>
       </c>
       <c r="D320" s="10" t="n"/>
-      <c r="E320" s="10" t="n"/>
+      <c r="E320" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F320" s="11" t="n"/>
       <c r="G320" s="12" t="n"/>
       <c r="H320" s="12" t="n"/>
@@ -10839,7 +12124,11 @@
         <v>142.829126425</v>
       </c>
       <c r="D321" s="10" t="n"/>
-      <c r="E321" s="10" t="n"/>
+      <c r="E321" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F321" s="11" t="n"/>
       <c r="G321" s="12" t="n"/>
       <c r="H321" s="12" t="n"/>
@@ -10871,7 +12160,11 @@
         <v>142.829126425</v>
       </c>
       <c r="D322" s="10" t="n"/>
-      <c r="E322" s="10" t="n"/>
+      <c r="E322" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F322" s="11" t="n"/>
       <c r="G322" s="12" t="n"/>
       <c r="H322" s="12" t="n"/>
@@ -10903,7 +12196,11 @@
         <v>140.986169955</v>
       </c>
       <c r="D323" s="10" t="n"/>
-      <c r="E323" s="10" t="n"/>
+      <c r="E323" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F323" s="11" t="n"/>
       <c r="G323" s="12" t="n"/>
       <c r="H323" s="12" t="n"/>
@@ -10935,7 +12232,11 @@
         <v>138.22173525</v>
       </c>
       <c r="D324" s="10" t="n"/>
-      <c r="E324" s="10" t="n"/>
+      <c r="E324" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F324" s="11" t="n"/>
       <c r="G324" s="12" t="n"/>
       <c r="H324" s="12" t="n"/>
@@ -10967,7 +12268,11 @@
         <v>137.300257015</v>
       </c>
       <c r="D325" s="10" t="n"/>
-      <c r="E325" s="10" t="n"/>
+      <c r="E325" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F325" s="11" t="n"/>
       <c r="G325" s="12" t="n"/>
       <c r="H325" s="12" t="n"/>
@@ -10999,7 +12304,11 @@
         <v>132.69286584</v>
       </c>
       <c r="D326" s="10" t="n"/>
-      <c r="E326" s="10" t="n"/>
+      <c r="E326" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F326" s="11" t="n"/>
       <c r="G326" s="12" t="n"/>
       <c r="H326" s="12" t="n"/>
@@ -11031,7 +12340,11 @@
         <v>130.84990937</v>
       </c>
       <c r="D327" s="10" t="n"/>
-      <c r="E327" s="10" t="n"/>
+      <c r="E327" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F327" s="11" t="n"/>
       <c r="G327" s="12" t="n"/>
       <c r="H327" s="12" t="n"/>
@@ -11063,7 +12376,11 @@
         <v>130.84990937</v>
       </c>
       <c r="D328" s="10" t="n"/>
-      <c r="E328" s="10" t="n"/>
+      <c r="E328" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F328" s="11" t="n"/>
       <c r="G328" s="12" t="n"/>
       <c r="H328" s="12" t="n"/>
@@ -11095,7 +12412,11 @@
         <v>129.928431135</v>
       </c>
       <c r="D329" s="10" t="n"/>
-      <c r="E329" s="10" t="n"/>
+      <c r="E329" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F329" s="11" t="n"/>
       <c r="G329" s="12" t="n"/>
       <c r="H329" s="12" t="n"/>
@@ -11127,7 +12448,11 @@
         <v>129.0069529</v>
       </c>
       <c r="D330" s="10" t="n"/>
-      <c r="E330" s="10" t="n"/>
+      <c r="E330" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F330" s="11" t="n"/>
       <c r="G330" s="12" t="n"/>
       <c r="H330" s="12" t="n"/>
@@ -11159,7 +12484,11 @@
         <v>128.085474665</v>
       </c>
       <c r="D331" s="10" t="n"/>
-      <c r="E331" s="10" t="n"/>
+      <c r="E331" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F331" s="11" t="n"/>
       <c r="G331" s="12" t="n"/>
       <c r="H331" s="12" t="n"/>
@@ -11191,7 +12520,11 @@
         <v>122.556605255</v>
       </c>
       <c r="D332" s="10" t="n"/>
-      <c r="E332" s="10" t="n"/>
+      <c r="E332" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F332" s="11" t="n"/>
       <c r="G332" s="12" t="n"/>
       <c r="H332" s="12" t="n"/>
@@ -11223,7 +12556,11 @@
         <v>122.556605255</v>
       </c>
       <c r="D333" s="10" t="n"/>
-      <c r="E333" s="10" t="n"/>
+      <c r="E333" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F333" s="11" t="n"/>
       <c r="G333" s="12" t="n"/>
       <c r="H333" s="12" t="n"/>
@@ -11255,7 +12592,11 @@
         <v>119.79217055</v>
       </c>
       <c r="D334" s="10" t="n"/>
-      <c r="E334" s="10" t="n"/>
+      <c r="E334" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F334" s="11" t="n"/>
       <c r="G334" s="12" t="n"/>
       <c r="H334" s="12" t="n"/>
@@ -11287,7 +12628,11 @@
         <v>119.79217055</v>
       </c>
       <c r="D335" s="10" t="n"/>
-      <c r="E335" s="10" t="n"/>
+      <c r="E335" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F335" s="11" t="n"/>
       <c r="G335" s="12" t="n"/>
       <c r="H335" s="12" t="n"/>
@@ -11319,7 +12664,11 @@
         <v>118.870692315</v>
       </c>
       <c r="D336" s="10" t="n"/>
-      <c r="E336" s="10" t="n"/>
+      <c r="E336" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F336" s="11" t="n"/>
       <c r="G336" s="12" t="n"/>
       <c r="H336" s="12" t="n"/>
@@ -11351,7 +12700,11 @@
         <v>118.870692315</v>
       </c>
       <c r="D337" s="10" t="n"/>
-      <c r="E337" s="10" t="n"/>
+      <c r="E337" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F337" s="11" t="n"/>
       <c r="G337" s="12" t="n"/>
       <c r="H337" s="12" t="n"/>
@@ -11383,7 +12736,11 @@
         <v>104.127040555</v>
       </c>
       <c r="D338" s="10" t="n"/>
-      <c r="E338" s="10" t="n"/>
+      <c r="E338" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F338" s="11" t="n"/>
       <c r="G338" s="12" t="n"/>
       <c r="H338" s="12" t="n"/>
@@ -11415,7 +12772,11 @@
         <v>94.912258205</v>
       </c>
       <c r="D339" s="10" t="n"/>
-      <c r="E339" s="10" t="n"/>
+      <c r="E339" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F339" s="11" t="n"/>
       <c r="G339" s="12" t="n"/>
       <c r="H339" s="12" t="n"/>
@@ -11447,7 +12808,11 @@
         <v>93.06930173500001</v>
       </c>
       <c r="D340" s="10" t="n"/>
-      <c r="E340" s="10" t="n"/>
+      <c r="E340" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F340" s="11" t="n"/>
       <c r="G340" s="12" t="n"/>
       <c r="H340" s="12" t="n"/>
@@ -11479,7 +12844,11 @@
         <v>92.1478235</v>
       </c>
       <c r="D341" s="10" t="n"/>
-      <c r="E341" s="10" t="n"/>
+      <c r="E341" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F341" s="11" t="n"/>
       <c r="G341" s="12" t="n"/>
       <c r="H341" s="12" t="n"/>
@@ -11511,7 +12880,11 @@
         <v>89.383388795</v>
       </c>
       <c r="D342" s="10" t="n"/>
-      <c r="E342" s="10" t="n"/>
+      <c r="E342" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F342" s="11" t="n"/>
       <c r="G342" s="12" t="n"/>
       <c r="H342" s="12" t="n"/>
@@ -11543,7 +12916,11 @@
         <v>89.383388795</v>
       </c>
       <c r="D343" s="10" t="n"/>
-      <c r="E343" s="10" t="n"/>
+      <c r="E343" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F343" s="11" t="n"/>
       <c r="G343" s="12" t="n"/>
       <c r="H343" s="12" t="n"/>
@@ -11575,7 +12952,11 @@
         <v>87.540432325</v>
       </c>
       <c r="D344" s="10" t="n"/>
-      <c r="E344" s="10" t="n"/>
+      <c r="E344" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F344" s="11" t="n"/>
       <c r="G344" s="12" t="n"/>
       <c r="H344" s="12" t="n"/>
@@ -11607,7 +12988,11 @@
         <v>87.540432325</v>
       </c>
       <c r="D345" s="10" t="n"/>
-      <c r="E345" s="10" t="n"/>
+      <c r="E345" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F345" s="11" t="n"/>
       <c r="G345" s="12" t="n"/>
       <c r="H345" s="12" t="n"/>
@@ -11639,7 +13024,11 @@
         <v>87.540432325</v>
       </c>
       <c r="D346" s="10" t="n"/>
-      <c r="E346" s="10" t="n"/>
+      <c r="E346" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F346" s="11" t="n"/>
       <c r="G346" s="12" t="n"/>
       <c r="H346" s="12" t="n"/>
@@ -11671,7 +13060,11 @@
         <v>85.69747585500001</v>
       </c>
       <c r="D347" s="10" t="n"/>
-      <c r="E347" s="10" t="n"/>
+      <c r="E347" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F347" s="11" t="n"/>
       <c r="G347" s="12" t="n"/>
       <c r="H347" s="12" t="n"/>
@@ -11703,7 +13096,11 @@
         <v>82.011562915</v>
       </c>
       <c r="D348" s="10" t="n"/>
-      <c r="E348" s="10" t="n"/>
+      <c r="E348" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F348" s="11" t="n"/>
       <c r="G348" s="12" t="n"/>
       <c r="H348" s="12" t="n"/>
@@ -11735,7 +13132,11 @@
         <v>80.16860644500001</v>
       </c>
       <c r="D349" s="10" t="n"/>
-      <c r="E349" s="10" t="n"/>
+      <c r="E349" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F349" s="11" t="n"/>
       <c r="G349" s="12" t="n"/>
       <c r="H349" s="12" t="n"/>
@@ -11767,7 +13168,11 @@
         <v>78.325649975</v>
       </c>
       <c r="D350" s="10" t="n"/>
-      <c r="E350" s="10" t="n"/>
+      <c r="E350" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F350" s="11" t="n"/>
       <c r="G350" s="12" t="n"/>
       <c r="H350" s="12" t="n"/>
@@ -11799,7 +13204,11 @@
         <v>77.40417174000001</v>
       </c>
       <c r="D351" s="10" t="n"/>
-      <c r="E351" s="10" t="n"/>
+      <c r="E351" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F351" s="11" t="n"/>
       <c r="G351" s="12" t="n"/>
       <c r="H351" s="12" t="n"/>
@@ -11831,7 +13240,11 @@
         <v>75.56121527000001</v>
       </c>
       <c r="D352" s="10" t="n"/>
-      <c r="E352" s="10" t="n"/>
+      <c r="E352" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F352" s="11" t="n"/>
       <c r="G352" s="12" t="n"/>
       <c r="H352" s="12" t="n"/>
@@ -11863,7 +13276,11 @@
         <v>67.26791115500001</v>
       </c>
       <c r="D353" s="10" t="n"/>
-      <c r="E353" s="10" t="n"/>
+      <c r="E353" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F353" s="11" t="n"/>
       <c r="G353" s="12" t="n"/>
       <c r="H353" s="12" t="n"/>
@@ -11895,7 +13312,11 @@
         <v>66.34643292</v>
       </c>
       <c r="D354" s="10" t="n"/>
-      <c r="E354" s="10" t="n"/>
+      <c r="E354" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F354" s="11" t="n"/>
       <c r="G354" s="12" t="n"/>
       <c r="H354" s="12" t="n"/>
@@ -11927,7 +13348,11 @@
         <v>63.58199821500001</v>
       </c>
       <c r="D355" s="10" t="n"/>
-      <c r="E355" s="10" t="n"/>
+      <c r="E355" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F355" s="11" t="n"/>
       <c r="G355" s="12" t="n"/>
       <c r="H355" s="12" t="n"/>
@@ -11959,7 +13384,11 @@
         <v>62.66051998</v>
       </c>
       <c r="D356" s="10" t="n"/>
-      <c r="E356" s="10" t="n"/>
+      <c r="E356" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F356" s="11" t="n"/>
       <c r="G356" s="12" t="n"/>
       <c r="H356" s="12" t="n"/>
@@ -11991,7 +13420,11 @@
         <v>61.739041745</v>
       </c>
       <c r="D357" s="10" t="n"/>
-      <c r="E357" s="10" t="n"/>
+      <c r="E357" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F357" s="11" t="n"/>
       <c r="G357" s="12" t="n"/>
       <c r="H357" s="12" t="n"/>
@@ -12023,7 +13456,11 @@
         <v>61.739041745</v>
       </c>
       <c r="D358" s="10" t="n"/>
-      <c r="E358" s="10" t="n"/>
+      <c r="E358" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F358" s="11" t="n"/>
       <c r="G358" s="12" t="n"/>
       <c r="H358" s="12" t="n"/>
@@ -12055,7 +13492,11 @@
         <v>58.97460704</v>
       </c>
       <c r="D359" s="10" t="n"/>
-      <c r="E359" s="10" t="n"/>
+      <c r="E359" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F359" s="11" t="n"/>
       <c r="G359" s="12" t="n"/>
       <c r="H359" s="12" t="n"/>
@@ -12087,7 +13528,11 @@
         <v>56.210172335</v>
       </c>
       <c r="D360" s="10" t="n"/>
-      <c r="E360" s="10" t="n"/>
+      <c r="E360" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F360" s="11" t="n"/>
       <c r="G360" s="12" t="n"/>
       <c r="H360" s="12" t="n"/>
@@ -12119,7 +13564,11 @@
         <v>56.210172335</v>
       </c>
       <c r="D361" s="10" t="n"/>
-      <c r="E361" s="10" t="n"/>
+      <c r="E361" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F361" s="11" t="n"/>
       <c r="G361" s="12" t="n"/>
       <c r="H361" s="12" t="n"/>
@@ -12151,7 +13600,11 @@
         <v>56.210172335</v>
       </c>
       <c r="D362" s="10" t="n"/>
-      <c r="E362" s="10" t="n"/>
+      <c r="E362" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F362" s="11" t="n"/>
       <c r="G362" s="12" t="n"/>
       <c r="H362" s="12" t="n"/>
@@ -12183,7 +13636,11 @@
         <v>55.2886941</v>
       </c>
       <c r="D363" s="10" t="n"/>
-      <c r="E363" s="10" t="n"/>
+      <c r="E363" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F363" s="11" t="n"/>
       <c r="G363" s="12" t="n"/>
       <c r="H363" s="12" t="n"/>
@@ -12215,7 +13672,11 @@
         <v>55.2886941</v>
       </c>
       <c r="D364" s="10" t="n"/>
-      <c r="E364" s="10" t="n"/>
+      <c r="E364" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F364" s="11" t="n"/>
       <c r="G364" s="12" t="n"/>
       <c r="H364" s="12" t="n"/>
@@ -12247,7 +13708,11 @@
         <v>55.2886941</v>
       </c>
       <c r="D365" s="10" t="n"/>
-      <c r="E365" s="10" t="n"/>
+      <c r="E365" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F365" s="11" t="n"/>
       <c r="G365" s="12" t="n"/>
       <c r="H365" s="12" t="n"/>
@@ -12279,7 +13744,11 @@
         <v>54.367215865</v>
       </c>
       <c r="D366" s="10" t="n"/>
-      <c r="E366" s="10" t="n"/>
+      <c r="E366" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F366" s="11" t="n"/>
       <c r="G366" s="12" t="n"/>
       <c r="H366" s="12" t="n"/>
@@ -12311,7 +13780,11 @@
         <v>53.44573763</v>
       </c>
       <c r="D367" s="10" t="n"/>
-      <c r="E367" s="10" t="n"/>
+      <c r="E367" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F367" s="11" t="n"/>
       <c r="G367" s="12" t="n"/>
       <c r="H367" s="12" t="n"/>
@@ -12343,7 +13816,11 @@
         <v>51.60278116</v>
       </c>
       <c r="D368" s="10" t="n"/>
-      <c r="E368" s="10" t="n"/>
+      <c r="E368" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F368" s="11" t="n"/>
       <c r="G368" s="12" t="n"/>
       <c r="H368" s="12" t="n"/>
@@ -12375,7 +13852,11 @@
         <v>49.75982469</v>
       </c>
       <c r="D369" s="10" t="n"/>
-      <c r="E369" s="10" t="n"/>
+      <c r="E369" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F369" s="11" t="n"/>
       <c r="G369" s="12" t="n"/>
       <c r="H369" s="12" t="n"/>
@@ -12407,7 +13888,11 @@
         <v>49.75982469</v>
       </c>
       <c r="D370" s="10" t="n"/>
-      <c r="E370" s="10" t="n"/>
+      <c r="E370" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F370" s="11" t="n"/>
       <c r="G370" s="12" t="n"/>
       <c r="H370" s="12" t="n"/>
@@ -12439,7 +13924,11 @@
         <v>46.995389985</v>
       </c>
       <c r="D371" s="10" t="n"/>
-      <c r="E371" s="10" t="n"/>
+      <c r="E371" s="38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
       <c r="F371" s="11" t="n"/>
       <c r="G371" s="12" t="n"/>
       <c r="H371" s="12" t="n"/>
@@ -12471,7 +13960,11 @@
         <v>45.152433515</v>
       </c>
       <c r="D372" s="10" t="n"/>
-      <c r="E372" s="10" t="n"/>
+      <c r="E372" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F372" s="11" t="n"/>
       <c r="G372" s="12" t="n"/>
       <c r="H372" s="12" t="n"/>
@@ -12503,7 +13996,11 @@
         <v>40.54504234</v>
       </c>
       <c r="D373" s="10" t="n"/>
-      <c r="E373" s="10" t="n"/>
+      <c r="E373" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F373" s="11" t="n"/>
       <c r="G373" s="12" t="n"/>
       <c r="H373" s="12" t="n"/>
@@ -12535,7 +14032,11 @@
         <v>39.623564105</v>
       </c>
       <c r="D374" s="10" t="n"/>
-      <c r="E374" s="10" t="n"/>
+      <c r="E374" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F374" s="11" t="n"/>
       <c r="G374" s="12" t="n"/>
       <c r="H374" s="12" t="n"/>
@@ -12567,7 +14068,11 @@
         <v>35.937651165</v>
       </c>
       <c r="D375" s="10" t="n"/>
-      <c r="E375" s="10" t="n"/>
+      <c r="E375" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F375" s="11" t="n"/>
       <c r="G375" s="12" t="n"/>
       <c r="H375" s="12" t="n"/>
@@ -12599,7 +14104,11 @@
         <v>35.01617293</v>
       </c>
       <c r="D376" s="10" t="n"/>
-      <c r="E376" s="10" t="n"/>
+      <c r="E376" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F376" s="11" t="n"/>
       <c r="G376" s="12" t="n"/>
       <c r="H376" s="12" t="n"/>
@@ -12631,7 +14140,11 @@
         <v>32.251738225</v>
       </c>
       <c r="D377" s="10" t="n"/>
-      <c r="E377" s="10" t="n"/>
+      <c r="E377" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F377" s="11" t="n"/>
       <c r="G377" s="12" t="n"/>
       <c r="H377" s="12" t="n"/>
@@ -12663,7 +14176,11 @@
         <v>30.408781755</v>
       </c>
       <c r="D378" s="10" t="n"/>
-      <c r="E378" s="10" t="n"/>
+      <c r="E378" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F378" s="11" t="n"/>
       <c r="G378" s="12" t="n"/>
       <c r="H378" s="12" t="n"/>
@@ -12695,7 +14212,11 @@
         <v>28.565825285</v>
       </c>
       <c r="D379" s="10" t="n"/>
-      <c r="E379" s="10" t="n"/>
+      <c r="E379" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F379" s="11" t="n"/>
       <c r="G379" s="12" t="n"/>
       <c r="H379" s="12" t="n"/>
@@ -12727,7 +14248,11 @@
         <v>25.80139058</v>
       </c>
       <c r="D380" s="10" t="n"/>
-      <c r="E380" s="10" t="n"/>
+      <c r="E380" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F380" s="11" t="n"/>
       <c r="G380" s="12" t="n"/>
       <c r="H380" s="12" t="n"/>
@@ -12759,7 +14284,11 @@
         <v>21.193999405</v>
       </c>
       <c r="D381" s="10" t="n"/>
-      <c r="E381" s="10" t="n"/>
+      <c r="E381" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F381" s="11" t="n"/>
       <c r="G381" s="12" t="n"/>
       <c r="H381" s="12" t="n"/>
@@ -12791,7 +14320,11 @@
         <v>20.27252117</v>
       </c>
       <c r="D382" s="10" t="n"/>
-      <c r="E382" s="10" t="n"/>
+      <c r="E382" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F382" s="11" t="n"/>
       <c r="G382" s="12" t="n"/>
       <c r="H382" s="12" t="n"/>
@@ -12823,7 +14356,11 @@
         <v>20.27252117</v>
       </c>
       <c r="D383" s="10" t="n"/>
-      <c r="E383" s="10" t="n"/>
+      <c r="E383" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F383" s="11" t="n"/>
       <c r="G383" s="12" t="n"/>
       <c r="H383" s="12" t="n"/>
@@ -12855,7 +14392,11 @@
         <v>20.27252117</v>
       </c>
       <c r="D384" s="10" t="n"/>
-      <c r="E384" s="10" t="n"/>
+      <c r="E384" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F384" s="11" t="n"/>
       <c r="G384" s="12" t="n"/>
       <c r="H384" s="12" t="n"/>
@@ -12887,7 +14428,11 @@
         <v>19.351042935</v>
       </c>
       <c r="D385" s="10" t="n"/>
-      <c r="E385" s="10" t="n"/>
+      <c r="E385" s="40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
       <c r="F385" s="11" t="n"/>
       <c r="G385" s="12" t="n"/>
       <c r="H385" s="12" t="n"/>
@@ -12919,7 +14464,11 @@
         <v>18.4295647</v>
       </c>
       <c r="D386" s="10" t="n"/>
-      <c r="E386" s="10" t="n"/>
+      <c r="E386" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F386" s="11" t="n"/>
       <c r="G386" s="12" t="n"/>
       <c r="H386" s="12" t="n"/>
@@ -12951,7 +14500,11 @@
         <v>17.508086465</v>
       </c>
       <c r="D387" s="10" t="n"/>
-      <c r="E387" s="10" t="n"/>
+      <c r="E387" s="39" t="inlineStr">
+        <is>
+          <t>Consolidate</t>
+        </is>
+      </c>
       <c r="F387" s="11" t="n"/>
       <c r="G387" s="12" t="n"/>
       <c r="H387" s="12" t="n"/>
